--- a/documentation/ProjectGanttChart.xlsx
+++ b/documentation/ProjectGanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\448\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FC1F2-9469-4617-B780-4E00E5B62E5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B8E27-F8BF-4647-B92E-95DA894BAE57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,15 +742,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="10" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -764,9 +755,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,6 +844,16 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -868,33 +866,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2733,21 +2721,21 @@
       <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" ht="33.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="44" t="str">
+      <c r="A3" s="38"/>
+      <c r="B3" s="40" t="str">
         <f>HYPERLINK("https://www.teamgantt.com/signup?utm_source=google-sheets-gantt-template&amp;utm_medium=download&amp;utm_campaign=google-sheets-gantt-template","Build better gantt charts with TeamGantt for FREE!")</f>
         <v>Build better gantt charts with TeamGantt for FREE!</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -2774,7 +2762,7 @@
       <c r="AJ3" s="5"/>
     </row>
     <row r="4" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2812,7 +2800,7 @@
       <c r="AJ4" s="2"/>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1"/>
@@ -2850,109 +2838,109 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.35">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="82"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="82" t="s">
+      <c r="K6" s="88"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="81" t="s">
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="82" t="s">
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="81" t="s">
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="47"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="43"/>
     </row>
     <row r="7" spans="1:36" ht="14.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="47"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="47"/>
-      <c r="AJ7" s="47"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
     </row>
     <row r="8" spans="1:36" ht="15.7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16"/>
@@ -2964,63 +2952,63 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
     </row>
     <row r="9" spans="1:36" ht="14.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="66">
+      <c r="C9" s="62">
         <v>43105</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="54">
         <f t="shared" ref="D9:D13" si="0">DAY(C9)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="63">
         <v>43108</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="70">
         <f>DATEDIF(C9,E9,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="56">
         <f>SUM(F9*J9)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="71">
         <f>SUM(F9-G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="59">
+      <c r="J9" s="55">
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
@@ -3051,35 +3039,35 @@
       <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:36" ht="14.35">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="66">
+      <c r="C10" s="62">
         <v>43108</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="63">
         <v>43111</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="70">
         <f t="shared" ref="F10:F29" si="1">DATEDIF(C10,E10,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="56">
         <f t="shared" ref="G10:G29" si="2">SUM(F10*J10)</f>
         <v>3.2</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="71">
         <f t="shared" ref="H10:H29" si="3">SUM(F10-G10)</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="58">
         <v>0.8</v>
       </c>
       <c r="K10" s="2"/>
@@ -3110,35 +3098,35 @@
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36" ht="14.35">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="62">
         <v>43111</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="54">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="63">
         <v>43116</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="56">
         <f t="shared" si="2"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="71">
         <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="59">
+      <c r="J11" s="55">
         <v>0.6</v>
       </c>
       <c r="K11" s="2"/>
@@ -3169,539 +3157,539 @@
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" ht="14.35">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="66">
+      <c r="C12" s="62">
         <v>43114</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="54">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="63">
         <v>43119</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="56">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="71">
         <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="63">
+      <c r="J12" s="59">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="14.35">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="66">
+      <c r="C13" s="62">
         <v>43117</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="54">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="63">
         <v>43123</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="70">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="56">
         <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="71">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="60">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.7">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:36" ht="14.35">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="62">
         <v>43109</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="54">
         <f t="shared" ref="D15:D18" si="4">DAY(C15)</f>
         <v>9</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E15" s="63">
         <v>43112</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="56">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="68">
+      <c r="J15" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.35">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="62">
         <v>43112</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="54">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="E16" s="67">
+      <c r="E16" s="63">
         <v>43119</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="70">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="56">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="71">
         <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="69">
+      <c r="J16" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.35">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="62">
         <v>43117</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="54">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E17" s="67">
+      <c r="E17" s="63">
         <v>43119</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="70">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="56">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="71">
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.35">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="62">
         <v>43122</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="54">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="63">
         <v>43126</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="56">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="71">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I18" s="55" t="s">
+      <c r="I18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="70">
+      <c r="J18" s="66">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.7">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" ht="14.35">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="62">
         <v>43115</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="54">
         <f t="shared" ref="D20:D24" si="5">DAY(C20)</f>
         <v>15</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="63">
         <v>43119</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="56">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="55" t="s">
+      <c r="I20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="70">
+      <c r="J20" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.35">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="62">
         <v>43122</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="54">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="63">
         <v>43123</v>
       </c>
-      <c r="F21" s="74">
+      <c r="F21" s="70">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="56">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="71">
         <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I21" s="55" t="s">
+      <c r="I21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="66">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.35">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="62">
         <v>43122</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="54">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="63">
         <v>43126</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="56">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="71">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I22" s="55" t="s">
+      <c r="I22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="70">
+      <c r="J22" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.35">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="62">
         <v>43126</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="54">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="63">
         <v>43129</v>
       </c>
-      <c r="F23" s="74">
+      <c r="F23" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="60">
+      <c r="G23" s="56">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H23" s="75">
+      <c r="H23" s="71">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="66">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.35">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="62">
         <v>43122</v>
       </c>
-      <c r="D24" s="58">
+      <c r="D24" s="54">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="63">
         <v>43125</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="60">
+      <c r="G24" s="56">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H24" s="75">
+      <c r="H24" s="71">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="I24" s="55" t="s">
+      <c r="I24" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="70">
+      <c r="J24" s="66">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.7">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
     </row>
     <row r="26" spans="1:10" ht="14.35">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="62">
         <v>43115</v>
       </c>
-      <c r="D26" s="58">
+      <c r="D26" s="54">
         <f t="shared" ref="D26:D29" si="6">DAY(C26)</f>
         <v>15</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="63">
         <v>43124</v>
       </c>
-      <c r="F26" s="74">
+      <c r="F26" s="70">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="56">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="71">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="55" t="s">
+      <c r="I26" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="70">
+      <c r="J26" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.35">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="62">
         <v>43125</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="54">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E27" s="67">
+      <c r="E27" s="63">
         <v>43130</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="56">
         <f t="shared" si="2"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="71">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="66">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.35">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="62">
         <v>43124</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="54">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="63">
         <v>43130</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="70">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="56">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="H28" s="75">
+      <c r="H28" s="71">
         <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
-      <c r="I28" s="55" t="s">
+      <c r="I28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.35">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="62">
         <v>43130</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="54">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E29" s="67">
+      <c r="E29" s="63">
         <v>43131</v>
       </c>
-      <c r="F29" s="74">
+      <c r="F29" s="70">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="75">
+      <c r="H29" s="71">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I29" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="66">
         <v>0</v>
       </c>
     </row>
@@ -3758,13 +3746,6 @@
     <row r="50" ht="12.7"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3773,6 +3754,13 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3896,16 +3884,16 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" ht="30" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3934,7 +3922,7 @@
       <c r="AH3" s="5"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3970,12 +3958,12 @@
       <c r="AH4" s="2"/>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="45"/>
+      <c r="E5" s="41"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -4007,101 +3995,101 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="14.35">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="82" t="s">
+      <c r="I6" s="88"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="81" t="s">
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="82" t="s">
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="81" t="s">
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="47"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="43"/>
     </row>
     <row r="7" spans="1:34" ht="14.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="47"/>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="47"/>
-      <c r="AH7" s="47"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
     </row>
     <row r="8" spans="1:34" ht="15.7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="46" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16"/>
@@ -4111,55 +4099,55 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
+      <c r="AB8" s="48"/>
+      <c r="AC8" s="48"/>
+      <c r="AD8" s="48"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="48"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
     </row>
     <row r="9" spans="1:34" ht="14.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="52">
         <v>43105</v>
       </c>
-      <c r="D9" s="57">
+      <c r="D9" s="53">
         <v>43108</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="54">
         <f t="shared" ref="E9:E13" si="0">INT(C9)-INT($C$9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="71">
         <f>DATEDIF(C9,D9,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="59">
+      <c r="H9" s="55">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
@@ -4190,27 +4178,27 @@
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" ht="14.35">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="52">
         <v>43108</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="57">
         <v>43111</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="75">
+      <c r="F10" s="71">
         <f t="shared" ref="F10:F29" si="1">DATEDIF(C10,D10,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="58">
         <v>0.8</v>
       </c>
       <c r="I10" s="2"/>
@@ -4241,27 +4229,27 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" ht="14.35">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="52">
         <v>43111</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="53">
         <v>43116</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="54">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F11" s="75">
+      <c r="F11" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="55" t="s">
+      <c r="G11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="55">
         <v>0.6</v>
       </c>
       <c r="I11" s="2"/>
@@ -4292,413 +4280,413 @@
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34" ht="14.35">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="52">
         <v>43114</v>
       </c>
-      <c r="D12" s="57">
+      <c r="D12" s="53">
         <v>43119</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="54">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="75">
+      <c r="F12" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="59">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.35">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="52">
         <v>43117</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="53">
         <v>43123</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="54">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="60">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.7">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:34" ht="14.35">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="66">
+      <c r="C15" s="62">
         <v>43109</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="63">
         <v>43112</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="54">
         <f t="shared" ref="E15:E18" si="2">INT(C15)-INT($C$9)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="64">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.35">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="66">
+      <c r="C16" s="62">
         <v>43112</v>
       </c>
-      <c r="D16" s="67">
+      <c r="D16" s="63">
         <v>43119</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="71">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="69">
+      <c r="H16" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.35">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="66">
+      <c r="C17" s="62">
         <v>43117</v>
       </c>
-      <c r="D17" s="67">
+      <c r="D17" s="63">
         <v>43119</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="71">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.35">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="66">
+      <c r="C18" s="62">
         <v>43122</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="63">
         <v>43126</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="54">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="71">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="70">
+      <c r="H18" s="66">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.7">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="14.35">
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="66">
+      <c r="C20" s="62">
         <v>43115</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="63">
         <v>43119</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="54">
         <f t="shared" ref="E20:E24" si="3">INT(C20)-INT($C$9)</f>
         <v>10</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="71">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="70">
+      <c r="H20" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.35">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="62">
         <v>43122</v>
       </c>
-      <c r="D21" s="67">
+      <c r="D21" s="63">
         <v>43123</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="54">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="66">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.35">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="66">
+      <c r="C22" s="62">
         <v>43122</v>
       </c>
-      <c r="D22" s="67">
+      <c r="D22" s="63">
         <v>43126</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="54">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F22" s="75">
+      <c r="F22" s="71">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="55" t="s">
+      <c r="G22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="70">
+      <c r="H22" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.35">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="66">
+      <c r="C23" s="62">
         <v>43126</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="63">
         <v>43129</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="54">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="55" t="s">
+      <c r="G23" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="66">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.35">
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="66">
+      <c r="C24" s="62">
         <v>43122</v>
       </c>
-      <c r="D24" s="67">
+      <c r="D24" s="63">
         <v>43125</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="54">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F24" s="75">
+      <c r="F24" s="71">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="55" t="s">
+      <c r="G24" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="66">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.7">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" ht="14.35">
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="62">
         <v>43115</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="63">
         <v>43124</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="54">
         <f t="shared" ref="E26:E29" si="4">INT(C26)-INT($C$9)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="75">
+      <c r="F26" s="71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="70">
+      <c r="H26" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.35">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C27" s="62">
         <v>43125</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="63">
         <v>43130</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="54">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F27" s="75">
+      <c r="F27" s="71">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="66">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.35">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="66">
+      <c r="C28" s="62">
         <v>43124</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="63">
         <v>43130</v>
       </c>
-      <c r="E28" s="58">
+      <c r="E28" s="54">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="71">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="66">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.35">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="66">
+      <c r="C29" s="62">
         <v>43130</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="63">
         <v>43131</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="54">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F29" s="75">
+      <c r="F29" s="71">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G29" s="55" t="s">
+      <c r="G29" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="66">
         <v>0</v>
       </c>
     </row>
@@ -4749,6 +4737,11 @@
     <row r="50" ht="12.7"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4758,11 +4751,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4792,7 +4780,7 @@
   <dimension ref="A1:BO990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46875" defaultRowHeight="15.75" customHeight="1"/>
@@ -4945,15 +4933,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -5154,118 +5142,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.35">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="85" t="s">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="90" t="s">
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="85" t="s">
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="90" t="s">
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="85" t="s">
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="90" t="s">
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
-      <c r="AO6" s="86"/>
-      <c r="AP6" s="86"/>
-      <c r="AQ6" s="85" t="s">
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="86"/>
-      <c r="AT6" s="86"/>
-      <c r="AU6" s="86"/>
-      <c r="AV6" s="90" t="s">
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="86"/>
-      <c r="AX6" s="86"/>
-      <c r="AY6" s="86"/>
-      <c r="AZ6" s="86"/>
-      <c r="BA6" s="85" t="s">
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="86"/>
-      <c r="BC6" s="86"/>
-      <c r="BD6" s="86"/>
-      <c r="BE6" s="86"/>
-      <c r="BF6" s="90" t="s">
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="86"/>
-      <c r="BH6" s="86"/>
-      <c r="BI6" s="86"/>
-      <c r="BJ6" s="86"/>
-      <c r="BK6" s="85" t="s">
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="86"/>
-      <c r="BM6" s="86"/>
-      <c r="BN6" s="86"/>
-      <c r="BO6" s="86"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
     </row>
     <row r="7" spans="1:67" ht="14.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="89"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5542,13 +5530,13 @@
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="99"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="80"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -5616,20 +5604,20 @@
       <c r="F10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="29">
-        <v>0.8</v>
+      <c r="G10" s="22">
+        <v>1</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="102"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="83"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
@@ -5698,19 +5686,19 @@
         <v>62</v>
       </c>
       <c r="G11" s="22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H11" s="23"/>
       <c r="I11" s="24"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -5778,8 +5766,8 @@
       <c r="F12" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="30">
-        <v>0.4</v>
+      <c r="G12" s="22">
+        <v>1</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
@@ -5787,11 +5775,11 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="26"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -5859,8 +5847,8 @@
       <c r="F13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="31">
-        <v>0.2</v>
+      <c r="G13" s="22">
+        <v>1</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
@@ -5868,13 +5856,13 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="26"/>
@@ -5940,7 +5928,7 @@
       <c r="F14" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <v>1</v>
       </c>
       <c r="H14" s="23"/>
@@ -5949,14 +5937,14 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="26"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
       <c r="V14" s="25"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
@@ -6008,81 +5996,81 @@
       <c r="A15" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="91"/>
       <c r="D15" s="92"/>
       <c r="E15" s="92"/>
       <c r="F15" s="92"/>
       <c r="G15" s="92"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="34"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="34"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="34"/>
-      <c r="AP15" s="34"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="34"/>
-      <c r="AS15" s="34"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="34"/>
-      <c r="AV15" s="34"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="34"/>
-      <c r="AY15" s="34"/>
-      <c r="AZ15" s="34"/>
-      <c r="BA15" s="34"/>
-      <c r="BB15" s="34"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="34"/>
-      <c r="BE15" s="34"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="34"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="34"/>
-      <c r="BK15" s="34"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="34"/>
-      <c r="BN15" s="34"/>
-      <c r="BO15" s="34"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="31"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="31"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="31"/>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="31"/>
+      <c r="AQ15" s="31"/>
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="31"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="31"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="31"/>
+      <c r="AZ15" s="31"/>
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="31"/>
+      <c r="BC15" s="31"/>
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="31"/>
+      <c r="BF15" s="31"/>
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="31"/>
+      <c r="BI15" s="31"/>
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="31"/>
+      <c r="BL15" s="31"/>
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="31"/>
+      <c r="BO15" s="31"/>
     </row>
     <row r="16" spans="1:67" ht="14.35">
       <c r="B16" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="34">
         <v>43768</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="34">
         <v>43773</v>
       </c>
       <c r="E16" s="21">
@@ -6092,8 +6080,8 @@
       <c r="F16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="38">
-        <v>0.7</v>
+      <c r="G16" s="35">
+        <v>1</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="24"/>
@@ -6102,10 +6090,10 @@
       <c r="L16" s="25"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
@@ -6160,10 +6148,10 @@
       <c r="B17" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="34">
         <v>43770</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="34">
         <v>43773</v>
       </c>
       <c r="E17" s="21">
@@ -6173,8 +6161,8 @@
       <c r="F17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="39">
-        <v>0.8</v>
+      <c r="G17" s="35">
+        <v>1</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
@@ -6184,10 +6172,10 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="76"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
@@ -6241,10 +6229,10 @@
       <c r="B18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="34">
         <v>43763</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="34">
         <v>43773</v>
       </c>
       <c r="E18" s="21">
@@ -6254,20 +6242,20 @@
       <c r="F18" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="40">
-        <v>0.8</v>
+      <c r="G18" s="35">
+        <v>0.99</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -6318,14 +6306,14 @@
       <c r="BN18" s="26"/>
       <c r="BO18" s="28"/>
     </row>
-    <row r="19" spans="1:67" s="73" customFormat="1" ht="14.35">
+    <row r="19" spans="1:67" s="69" customFormat="1" ht="14.35">
       <c r="B19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="34">
         <v>43763</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="34">
         <v>43773</v>
       </c>
       <c r="E19" s="21">
@@ -6335,20 +6323,20 @@
       <c r="F19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="40">
-        <v>0.9</v>
+      <c r="G19" s="35">
+        <v>1</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -6403,10 +6391,10 @@
       <c r="B20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="34">
         <v>43763</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="34">
         <v>43773</v>
       </c>
       <c r="E20" s="21">
@@ -6416,20 +6404,20 @@
       <c r="F20" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="40">
-        <v>0.8</v>
+      <c r="G20" s="35">
+        <v>1</v>
       </c>
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="78"/>
-      <c r="R20" s="78"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -6484,81 +6472,81 @@
       <c r="A21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="91"/>
       <c r="D21" s="92"/>
       <c r="E21" s="92"/>
       <c r="F21" s="92"/>
       <c r="G21" s="92"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="34"/>
-      <c r="AZ21" s="34"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="34"/>
-      <c r="BC21" s="34"/>
-      <c r="BD21" s="34"/>
-      <c r="BE21" s="34"/>
-      <c r="BF21" s="34"/>
-      <c r="BG21" s="34"/>
-      <c r="BH21" s="34"/>
-      <c r="BI21" s="34"/>
-      <c r="BJ21" s="34"/>
-      <c r="BK21" s="34"/>
-      <c r="BL21" s="34"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="34"/>
-      <c r="BO21" s="34"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="31"/>
+      <c r="Y21" s="31"/>
+      <c r="Z21" s="31"/>
+      <c r="AA21" s="31"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="31"/>
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="31"/>
+      <c r="AQ21" s="31"/>
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="31"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="31"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="31"/>
+      <c r="AZ21" s="31"/>
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="31"/>
+      <c r="BC21" s="31"/>
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="31"/>
+      <c r="BF21" s="31"/>
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="31"/>
+      <c r="BI21" s="31"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="31"/>
+      <c r="BL21" s="31"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="31"/>
+      <c r="BO21" s="31"/>
     </row>
     <row r="22" spans="1:67" ht="14.35">
       <c r="B22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="34">
         <v>43773</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="34">
         <v>43782</v>
       </c>
       <c r="E22" s="21">
@@ -6568,7 +6556,7 @@
       <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="36">
         <v>0</v>
       </c>
       <c r="H22" s="23"/>
@@ -6636,10 +6624,10 @@
       <c r="B23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="34">
         <v>43773</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="34">
         <v>43782</v>
       </c>
       <c r="E23" s="21">
@@ -6649,7 +6637,7 @@
       <c r="F23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="36">
         <v>0</v>
       </c>
       <c r="H23" s="23"/>
@@ -6717,10 +6705,10 @@
       <c r="B24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="34">
         <v>43773</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="34">
         <v>43782</v>
       </c>
       <c r="E24" s="21">
@@ -6730,7 +6718,7 @@
       <c r="F24" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <v>0</v>
       </c>
       <c r="H24" s="23"/>
@@ -6798,10 +6786,10 @@
       <c r="B25" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="34">
         <v>43773</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="34">
         <v>43782</v>
       </c>
       <c r="E25" s="21">
@@ -6811,7 +6799,7 @@
       <c r="F25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="36">
         <v>0</v>
       </c>
       <c r="H25" s="23"/>
@@ -6876,7 +6864,7 @@
       <c r="BO25" s="28"/>
     </row>
     <row r="26" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A26" s="49"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -6885,7 +6873,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A27" s="49"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -6894,7 +6882,7 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A28" s="49"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6903,2821 +6891,2821 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A29" s="51"/>
+      <c r="A29" s="47"/>
     </row>
     <row r="30" spans="1:67" ht="12.7">
-      <c r="A30" s="51"/>
+      <c r="A30" s="47"/>
     </row>
     <row r="31" spans="1:67" ht="12.7">
-      <c r="A31" s="51"/>
+      <c r="A31" s="47"/>
     </row>
     <row r="32" spans="1:67" ht="12.7">
-      <c r="A32" s="51"/>
+      <c r="A32" s="47"/>
     </row>
     <row r="33" spans="1:1" ht="12.7">
-      <c r="A33" s="51"/>
+      <c r="A33" s="47"/>
     </row>
     <row r="34" spans="1:1" ht="12.7">
-      <c r="A34" s="51"/>
+      <c r="A34" s="47"/>
     </row>
     <row r="35" spans="1:1" ht="12.7">
-      <c r="A35" s="51"/>
+      <c r="A35" s="47"/>
     </row>
     <row r="36" spans="1:1" ht="12.7">
-      <c r="A36" s="51"/>
+      <c r="A36" s="47"/>
     </row>
     <row r="37" spans="1:1" ht="12.7">
-      <c r="A37" s="51"/>
+      <c r="A37" s="47"/>
     </row>
     <row r="38" spans="1:1" ht="12.7">
-      <c r="A38" s="51"/>
+      <c r="A38" s="47"/>
     </row>
     <row r="39" spans="1:1" ht="12.7">
-      <c r="A39" s="51"/>
+      <c r="A39" s="47"/>
     </row>
     <row r="40" spans="1:1" ht="12.7">
-      <c r="A40" s="51"/>
+      <c r="A40" s="47"/>
     </row>
     <row r="41" spans="1:1" ht="12.7">
-      <c r="A41" s="51"/>
+      <c r="A41" s="47"/>
     </row>
     <row r="42" spans="1:1" ht="12.7">
-      <c r="A42" s="51"/>
+      <c r="A42" s="47"/>
     </row>
     <row r="43" spans="1:1" ht="12.7">
-      <c r="A43" s="51"/>
+      <c r="A43" s="47"/>
     </row>
     <row r="44" spans="1:1" ht="12.7">
-      <c r="A44" s="51"/>
+      <c r="A44" s="47"/>
     </row>
     <row r="45" spans="1:1" ht="12.7">
-      <c r="A45" s="51"/>
+      <c r="A45" s="47"/>
     </row>
     <row r="46" spans="1:1" ht="12.7">
-      <c r="A46" s="51"/>
+      <c r="A46" s="47"/>
     </row>
     <row r="47" spans="1:1" ht="12.7">
-      <c r="A47" s="51"/>
+      <c r="A47" s="47"/>
     </row>
     <row r="48" spans="1:1" ht="12.7">
-      <c r="A48" s="51"/>
+      <c r="A48" s="47"/>
     </row>
     <row r="49" spans="1:1" ht="12.7">
-      <c r="A49" s="51"/>
+      <c r="A49" s="47"/>
     </row>
     <row r="50" spans="1:1" ht="12.7">
-      <c r="A50" s="51"/>
+      <c r="A50" s="47"/>
     </row>
     <row r="51" spans="1:1" ht="12.7">
-      <c r="A51" s="51"/>
+      <c r="A51" s="47"/>
     </row>
     <row r="52" spans="1:1" ht="12.7">
-      <c r="A52" s="51"/>
+      <c r="A52" s="47"/>
     </row>
     <row r="53" spans="1:1" ht="12.7">
-      <c r="A53" s="51"/>
+      <c r="A53" s="47"/>
     </row>
     <row r="54" spans="1:1" ht="12.7">
-      <c r="A54" s="51"/>
+      <c r="A54" s="47"/>
     </row>
     <row r="55" spans="1:1" ht="12.7">
-      <c r="A55" s="51"/>
+      <c r="A55" s="47"/>
     </row>
     <row r="56" spans="1:1" ht="12.7">
-      <c r="A56" s="51"/>
+      <c r="A56" s="47"/>
     </row>
     <row r="57" spans="1:1" ht="12.7">
-      <c r="A57" s="51"/>
+      <c r="A57" s="47"/>
     </row>
     <row r="58" spans="1:1" ht="12.7">
-      <c r="A58" s="51"/>
+      <c r="A58" s="47"/>
     </row>
     <row r="59" spans="1:1" ht="12.7">
-      <c r="A59" s="51"/>
+      <c r="A59" s="47"/>
     </row>
     <row r="60" spans="1:1" ht="12.7">
-      <c r="A60" s="51"/>
+      <c r="A60" s="47"/>
     </row>
     <row r="61" spans="1:1" ht="12.7">
-      <c r="A61" s="51"/>
+      <c r="A61" s="47"/>
     </row>
     <row r="62" spans="1:1" ht="12.7">
-      <c r="A62" s="51"/>
+      <c r="A62" s="47"/>
     </row>
     <row r="63" spans="1:1" ht="12.7">
-      <c r="A63" s="51"/>
+      <c r="A63" s="47"/>
     </row>
     <row r="64" spans="1:1" ht="12.7">
-      <c r="A64" s="51"/>
+      <c r="A64" s="47"/>
     </row>
     <row r="65" spans="1:1" ht="12.7">
-      <c r="A65" s="51"/>
+      <c r="A65" s="47"/>
     </row>
     <row r="66" spans="1:1" ht="12.7">
-      <c r="A66" s="51"/>
+      <c r="A66" s="47"/>
     </row>
     <row r="67" spans="1:1" ht="12.7">
-      <c r="A67" s="51"/>
+      <c r="A67" s="47"/>
     </row>
     <row r="68" spans="1:1" ht="12.7">
-      <c r="A68" s="51"/>
+      <c r="A68" s="47"/>
     </row>
     <row r="69" spans="1:1" ht="12.7">
-      <c r="A69" s="51"/>
+      <c r="A69" s="47"/>
     </row>
     <row r="70" spans="1:1" ht="12.7">
-      <c r="A70" s="51"/>
+      <c r="A70" s="47"/>
     </row>
     <row r="71" spans="1:1" ht="12.7">
-      <c r="A71" s="51"/>
+      <c r="A71" s="47"/>
     </row>
     <row r="72" spans="1:1" ht="12.7">
-      <c r="A72" s="51"/>
+      <c r="A72" s="47"/>
     </row>
     <row r="73" spans="1:1" ht="12.7">
-      <c r="A73" s="51"/>
+      <c r="A73" s="47"/>
     </row>
     <row r="74" spans="1:1" ht="12.7">
-      <c r="A74" s="51"/>
+      <c r="A74" s="47"/>
     </row>
     <row r="75" spans="1:1" ht="12.7">
-      <c r="A75" s="51"/>
+      <c r="A75" s="47"/>
     </row>
     <row r="76" spans="1:1" ht="12.7">
-      <c r="A76" s="51"/>
+      <c r="A76" s="47"/>
     </row>
     <row r="77" spans="1:1" ht="12.7">
-      <c r="A77" s="51"/>
+      <c r="A77" s="47"/>
     </row>
     <row r="78" spans="1:1" ht="12.7">
-      <c r="A78" s="51"/>
+      <c r="A78" s="47"/>
     </row>
     <row r="79" spans="1:1" ht="12.7">
-      <c r="A79" s="51"/>
+      <c r="A79" s="47"/>
     </row>
     <row r="80" spans="1:1" ht="12.7">
-      <c r="A80" s="51"/>
+      <c r="A80" s="47"/>
     </row>
     <row r="81" spans="1:1" ht="12.7">
-      <c r="A81" s="51"/>
+      <c r="A81" s="47"/>
     </row>
     <row r="82" spans="1:1" ht="12.7">
-      <c r="A82" s="51"/>
+      <c r="A82" s="47"/>
     </row>
     <row r="83" spans="1:1" ht="12.7">
-      <c r="A83" s="51"/>
+      <c r="A83" s="47"/>
     </row>
     <row r="84" spans="1:1" ht="12.7">
-      <c r="A84" s="51"/>
+      <c r="A84" s="47"/>
     </row>
     <row r="85" spans="1:1" ht="12.7">
-      <c r="A85" s="51"/>
+      <c r="A85" s="47"/>
     </row>
     <row r="86" spans="1:1" ht="12.7">
-      <c r="A86" s="51"/>
+      <c r="A86" s="47"/>
     </row>
     <row r="87" spans="1:1" ht="12.7">
-      <c r="A87" s="51"/>
+      <c r="A87" s="47"/>
     </row>
     <row r="88" spans="1:1" ht="12.7">
-      <c r="A88" s="51"/>
+      <c r="A88" s="47"/>
     </row>
     <row r="89" spans="1:1" ht="12.7">
-      <c r="A89" s="51"/>
+      <c r="A89" s="47"/>
     </row>
     <row r="90" spans="1:1" ht="12.7">
-      <c r="A90" s="51"/>
+      <c r="A90" s="47"/>
     </row>
     <row r="91" spans="1:1" ht="12.7">
-      <c r="A91" s="51"/>
+      <c r="A91" s="47"/>
     </row>
     <row r="92" spans="1:1" ht="12.7">
-      <c r="A92" s="51"/>
+      <c r="A92" s="47"/>
     </row>
     <row r="93" spans="1:1" ht="12.7">
-      <c r="A93" s="51"/>
+      <c r="A93" s="47"/>
     </row>
     <row r="94" spans="1:1" ht="12.7">
-      <c r="A94" s="51"/>
+      <c r="A94" s="47"/>
     </row>
     <row r="95" spans="1:1" ht="12.7">
-      <c r="A95" s="51"/>
+      <c r="A95" s="47"/>
     </row>
     <row r="96" spans="1:1" ht="12.7">
-      <c r="A96" s="51"/>
+      <c r="A96" s="47"/>
     </row>
     <row r="97" spans="1:1" ht="12.7">
-      <c r="A97" s="51"/>
+      <c r="A97" s="47"/>
     </row>
     <row r="98" spans="1:1" ht="12.7">
-      <c r="A98" s="51"/>
+      <c r="A98" s="47"/>
     </row>
     <row r="99" spans="1:1" ht="12.7">
-      <c r="A99" s="51"/>
+      <c r="A99" s="47"/>
     </row>
     <row r="100" spans="1:1" ht="12.7">
-      <c r="A100" s="51"/>
+      <c r="A100" s="47"/>
     </row>
     <row r="101" spans="1:1" ht="12.7">
-      <c r="A101" s="51"/>
+      <c r="A101" s="47"/>
     </row>
     <row r="102" spans="1:1" ht="12.7">
-      <c r="A102" s="51"/>
+      <c r="A102" s="47"/>
     </row>
     <row r="103" spans="1:1" ht="12.7">
-      <c r="A103" s="51"/>
+      <c r="A103" s="47"/>
     </row>
     <row r="104" spans="1:1" ht="12.7">
-      <c r="A104" s="51"/>
+      <c r="A104" s="47"/>
     </row>
     <row r="105" spans="1:1" ht="12.7">
-      <c r="A105" s="51"/>
+      <c r="A105" s="47"/>
     </row>
     <row r="106" spans="1:1" ht="12.7">
-      <c r="A106" s="51"/>
+      <c r="A106" s="47"/>
     </row>
     <row r="107" spans="1:1" ht="12.7">
-      <c r="A107" s="51"/>
+      <c r="A107" s="47"/>
     </row>
     <row r="108" spans="1:1" ht="12.7">
-      <c r="A108" s="51"/>
+      <c r="A108" s="47"/>
     </row>
     <row r="109" spans="1:1" ht="12.7">
-      <c r="A109" s="51"/>
+      <c r="A109" s="47"/>
     </row>
     <row r="110" spans="1:1" ht="12.7">
-      <c r="A110" s="51"/>
+      <c r="A110" s="47"/>
     </row>
     <row r="111" spans="1:1" ht="12.7">
-      <c r="A111" s="51"/>
+      <c r="A111" s="47"/>
     </row>
     <row r="112" spans="1:1" ht="12.7">
-      <c r="A112" s="51"/>
+      <c r="A112" s="47"/>
     </row>
     <row r="113" spans="1:1" ht="12.7">
-      <c r="A113" s="51"/>
+      <c r="A113" s="47"/>
     </row>
     <row r="114" spans="1:1" ht="12.7">
-      <c r="A114" s="51"/>
+      <c r="A114" s="47"/>
     </row>
     <row r="115" spans="1:1" ht="12.7">
-      <c r="A115" s="51"/>
+      <c r="A115" s="47"/>
     </row>
     <row r="116" spans="1:1" ht="12.7">
-      <c r="A116" s="51"/>
+      <c r="A116" s="47"/>
     </row>
     <row r="117" spans="1:1" ht="12.7">
-      <c r="A117" s="51"/>
+      <c r="A117" s="47"/>
     </row>
     <row r="118" spans="1:1" ht="12.7">
-      <c r="A118" s="51"/>
+      <c r="A118" s="47"/>
     </row>
     <row r="119" spans="1:1" ht="12.7">
-      <c r="A119" s="51"/>
+      <c r="A119" s="47"/>
     </row>
     <row r="120" spans="1:1" ht="12.7">
-      <c r="A120" s="51"/>
+      <c r="A120" s="47"/>
     </row>
     <row r="121" spans="1:1" ht="12.7">
-      <c r="A121" s="51"/>
+      <c r="A121" s="47"/>
     </row>
     <row r="122" spans="1:1" ht="12.7">
-      <c r="A122" s="51"/>
+      <c r="A122" s="47"/>
     </row>
     <row r="123" spans="1:1" ht="12.7">
-      <c r="A123" s="51"/>
+      <c r="A123" s="47"/>
     </row>
     <row r="124" spans="1:1" ht="12.7">
-      <c r="A124" s="51"/>
+      <c r="A124" s="47"/>
     </row>
     <row r="125" spans="1:1" ht="12.7">
-      <c r="A125" s="51"/>
+      <c r="A125" s="47"/>
     </row>
     <row r="126" spans="1:1" ht="12.7">
-      <c r="A126" s="51"/>
+      <c r="A126" s="47"/>
     </row>
     <row r="127" spans="1:1" ht="12.7">
-      <c r="A127" s="51"/>
+      <c r="A127" s="47"/>
     </row>
     <row r="128" spans="1:1" ht="12.7">
-      <c r="A128" s="51"/>
+      <c r="A128" s="47"/>
     </row>
     <row r="129" spans="1:1" ht="12.7">
-      <c r="A129" s="51"/>
+      <c r="A129" s="47"/>
     </row>
     <row r="130" spans="1:1" ht="12.7">
-      <c r="A130" s="51"/>
+      <c r="A130" s="47"/>
     </row>
     <row r="131" spans="1:1" ht="12.7">
-      <c r="A131" s="51"/>
+      <c r="A131" s="47"/>
     </row>
     <row r="132" spans="1:1" ht="12.7">
-      <c r="A132" s="51"/>
+      <c r="A132" s="47"/>
     </row>
     <row r="133" spans="1:1" ht="12.7">
-      <c r="A133" s="51"/>
+      <c r="A133" s="47"/>
     </row>
     <row r="134" spans="1:1" ht="12.7">
-      <c r="A134" s="51"/>
+      <c r="A134" s="47"/>
     </row>
     <row r="135" spans="1:1" ht="12.7">
-      <c r="A135" s="51"/>
+      <c r="A135" s="47"/>
     </row>
     <row r="136" spans="1:1" ht="12.7">
-      <c r="A136" s="51"/>
+      <c r="A136" s="47"/>
     </row>
     <row r="137" spans="1:1" ht="12.7">
-      <c r="A137" s="51"/>
+      <c r="A137" s="47"/>
     </row>
     <row r="138" spans="1:1" ht="12.7">
-      <c r="A138" s="51"/>
+      <c r="A138" s="47"/>
     </row>
     <row r="139" spans="1:1" ht="12.7">
-      <c r="A139" s="51"/>
+      <c r="A139" s="47"/>
     </row>
     <row r="140" spans="1:1" ht="12.7">
-      <c r="A140" s="51"/>
+      <c r="A140" s="47"/>
     </row>
     <row r="141" spans="1:1" ht="12.7">
-      <c r="A141" s="51"/>
+      <c r="A141" s="47"/>
     </row>
     <row r="142" spans="1:1" ht="12.7">
-      <c r="A142" s="51"/>
+      <c r="A142" s="47"/>
     </row>
     <row r="143" spans="1:1" ht="12.7">
-      <c r="A143" s="51"/>
+      <c r="A143" s="47"/>
     </row>
     <row r="144" spans="1:1" ht="12.7">
-      <c r="A144" s="51"/>
+      <c r="A144" s="47"/>
     </row>
     <row r="145" spans="1:1" ht="12.7">
-      <c r="A145" s="51"/>
+      <c r="A145" s="47"/>
     </row>
     <row r="146" spans="1:1" ht="12.7">
-      <c r="A146" s="51"/>
+      <c r="A146" s="47"/>
     </row>
     <row r="147" spans="1:1" ht="12.7">
-      <c r="A147" s="51"/>
+      <c r="A147" s="47"/>
     </row>
     <row r="148" spans="1:1" ht="12.7">
-      <c r="A148" s="51"/>
+      <c r="A148" s="47"/>
     </row>
     <row r="149" spans="1:1" ht="12.7">
-      <c r="A149" s="51"/>
+      <c r="A149" s="47"/>
     </row>
     <row r="150" spans="1:1" ht="12.7">
-      <c r="A150" s="51"/>
+      <c r="A150" s="47"/>
     </row>
     <row r="151" spans="1:1" ht="12.7">
-      <c r="A151" s="51"/>
+      <c r="A151" s="47"/>
     </row>
     <row r="152" spans="1:1" ht="12.7">
-      <c r="A152" s="51"/>
+      <c r="A152" s="47"/>
     </row>
     <row r="153" spans="1:1" ht="12.7">
-      <c r="A153" s="51"/>
+      <c r="A153" s="47"/>
     </row>
     <row r="154" spans="1:1" ht="12.7">
-      <c r="A154" s="51"/>
+      <c r="A154" s="47"/>
     </row>
     <row r="155" spans="1:1" ht="12.7">
-      <c r="A155" s="51"/>
+      <c r="A155" s="47"/>
     </row>
     <row r="156" spans="1:1" ht="12.7">
-      <c r="A156" s="51"/>
+      <c r="A156" s="47"/>
     </row>
     <row r="157" spans="1:1" ht="12.7">
-      <c r="A157" s="51"/>
+      <c r="A157" s="47"/>
     </row>
     <row r="158" spans="1:1" ht="12.7">
-      <c r="A158" s="51"/>
+      <c r="A158" s="47"/>
     </row>
     <row r="159" spans="1:1" ht="12.7">
-      <c r="A159" s="51"/>
+      <c r="A159" s="47"/>
     </row>
     <row r="160" spans="1:1" ht="12.7">
-      <c r="A160" s="51"/>
+      <c r="A160" s="47"/>
     </row>
     <row r="161" spans="1:1" ht="12.7">
-      <c r="A161" s="51"/>
+      <c r="A161" s="47"/>
     </row>
     <row r="162" spans="1:1" ht="12.7">
-      <c r="A162" s="51"/>
+      <c r="A162" s="47"/>
     </row>
     <row r="163" spans="1:1" ht="12.7">
-      <c r="A163" s="51"/>
+      <c r="A163" s="47"/>
     </row>
     <row r="164" spans="1:1" ht="12.7">
-      <c r="A164" s="51"/>
+      <c r="A164" s="47"/>
     </row>
     <row r="165" spans="1:1" ht="12.7">
-      <c r="A165" s="51"/>
+      <c r="A165" s="47"/>
     </row>
     <row r="166" spans="1:1" ht="12.7">
-      <c r="A166" s="51"/>
+      <c r="A166" s="47"/>
     </row>
     <row r="167" spans="1:1" ht="12.7">
-      <c r="A167" s="51"/>
+      <c r="A167" s="47"/>
     </row>
     <row r="168" spans="1:1" ht="12.7">
-      <c r="A168" s="51"/>
+      <c r="A168" s="47"/>
     </row>
     <row r="169" spans="1:1" ht="12.7">
-      <c r="A169" s="51"/>
+      <c r="A169" s="47"/>
     </row>
     <row r="170" spans="1:1" ht="12.7">
-      <c r="A170" s="51"/>
+      <c r="A170" s="47"/>
     </row>
     <row r="171" spans="1:1" ht="12.7">
-      <c r="A171" s="51"/>
+      <c r="A171" s="47"/>
     </row>
     <row r="172" spans="1:1" ht="12.7">
-      <c r="A172" s="51"/>
+      <c r="A172" s="47"/>
     </row>
     <row r="173" spans="1:1" ht="12.7">
-      <c r="A173" s="51"/>
+      <c r="A173" s="47"/>
     </row>
     <row r="174" spans="1:1" ht="12.7">
-      <c r="A174" s="51"/>
+      <c r="A174" s="47"/>
     </row>
     <row r="175" spans="1:1" ht="12.7">
-      <c r="A175" s="51"/>
+      <c r="A175" s="47"/>
     </row>
     <row r="176" spans="1:1" ht="12.7">
-      <c r="A176" s="51"/>
+      <c r="A176" s="47"/>
     </row>
     <row r="177" spans="1:1" ht="12.7">
-      <c r="A177" s="51"/>
+      <c r="A177" s="47"/>
     </row>
     <row r="178" spans="1:1" ht="12.7">
-      <c r="A178" s="51"/>
+      <c r="A178" s="47"/>
     </row>
     <row r="179" spans="1:1" ht="12.7">
-      <c r="A179" s="51"/>
+      <c r="A179" s="47"/>
     </row>
     <row r="180" spans="1:1" ht="12.7">
-      <c r="A180" s="51"/>
+      <c r="A180" s="47"/>
     </row>
     <row r="181" spans="1:1" ht="12.7">
-      <c r="A181" s="51"/>
+      <c r="A181" s="47"/>
     </row>
     <row r="182" spans="1:1" ht="12.7">
-      <c r="A182" s="51"/>
+      <c r="A182" s="47"/>
     </row>
     <row r="183" spans="1:1" ht="12.7">
-      <c r="A183" s="51"/>
+      <c r="A183" s="47"/>
     </row>
     <row r="184" spans="1:1" ht="12.7">
-      <c r="A184" s="51"/>
+      <c r="A184" s="47"/>
     </row>
     <row r="185" spans="1:1" ht="12.7">
-      <c r="A185" s="51"/>
+      <c r="A185" s="47"/>
     </row>
     <row r="186" spans="1:1" ht="12.7">
-      <c r="A186" s="51"/>
+      <c r="A186" s="47"/>
     </row>
     <row r="187" spans="1:1" ht="12.7">
-      <c r="A187" s="51"/>
+      <c r="A187" s="47"/>
     </row>
     <row r="188" spans="1:1" ht="12.7">
-      <c r="A188" s="51"/>
+      <c r="A188" s="47"/>
     </row>
     <row r="189" spans="1:1" ht="12.7">
-      <c r="A189" s="51"/>
+      <c r="A189" s="47"/>
     </row>
     <row r="190" spans="1:1" ht="12.7">
-      <c r="A190" s="51"/>
+      <c r="A190" s="47"/>
     </row>
     <row r="191" spans="1:1" ht="12.7">
-      <c r="A191" s="51"/>
+      <c r="A191" s="47"/>
     </row>
     <row r="192" spans="1:1" ht="12.7">
-      <c r="A192" s="51"/>
+      <c r="A192" s="47"/>
     </row>
     <row r="193" spans="1:1" ht="12.7">
-      <c r="A193" s="51"/>
+      <c r="A193" s="47"/>
     </row>
     <row r="194" spans="1:1" ht="12.7">
-      <c r="A194" s="51"/>
+      <c r="A194" s="47"/>
     </row>
     <row r="195" spans="1:1" ht="12.7">
-      <c r="A195" s="51"/>
+      <c r="A195" s="47"/>
     </row>
     <row r="196" spans="1:1" ht="12.7">
-      <c r="A196" s="51"/>
+      <c r="A196" s="47"/>
     </row>
     <row r="197" spans="1:1" ht="12.7">
-      <c r="A197" s="51"/>
+      <c r="A197" s="47"/>
     </row>
     <row r="198" spans="1:1" ht="12.7">
-      <c r="A198" s="51"/>
+      <c r="A198" s="47"/>
     </row>
     <row r="199" spans="1:1" ht="12.7">
-      <c r="A199" s="51"/>
+      <c r="A199" s="47"/>
     </row>
     <row r="200" spans="1:1" ht="12.7">
-      <c r="A200" s="51"/>
+      <c r="A200" s="47"/>
     </row>
     <row r="201" spans="1:1" ht="12.7">
-      <c r="A201" s="51"/>
+      <c r="A201" s="47"/>
     </row>
     <row r="202" spans="1:1" ht="12.7">
-      <c r="A202" s="51"/>
+      <c r="A202" s="47"/>
     </row>
     <row r="203" spans="1:1" ht="12.7">
-      <c r="A203" s="51"/>
+      <c r="A203" s="47"/>
     </row>
     <row r="204" spans="1:1" ht="12.7">
-      <c r="A204" s="51"/>
+      <c r="A204" s="47"/>
     </row>
     <row r="205" spans="1:1" ht="12.7">
-      <c r="A205" s="51"/>
+      <c r="A205" s="47"/>
     </row>
     <row r="206" spans="1:1" ht="12.7">
-      <c r="A206" s="51"/>
+      <c r="A206" s="47"/>
     </row>
     <row r="207" spans="1:1" ht="12.7">
-      <c r="A207" s="51"/>
+      <c r="A207" s="47"/>
     </row>
     <row r="208" spans="1:1" ht="12.7">
-      <c r="A208" s="51"/>
+      <c r="A208" s="47"/>
     </row>
     <row r="209" spans="1:1" ht="12.7">
-      <c r="A209" s="51"/>
+      <c r="A209" s="47"/>
     </row>
     <row r="210" spans="1:1" ht="12.7">
-      <c r="A210" s="51"/>
+      <c r="A210" s="47"/>
     </row>
     <row r="211" spans="1:1" ht="12.7">
-      <c r="A211" s="51"/>
+      <c r="A211" s="47"/>
     </row>
     <row r="212" spans="1:1" ht="12.7">
-      <c r="A212" s="51"/>
+      <c r="A212" s="47"/>
     </row>
     <row r="213" spans="1:1" ht="12.7">
-      <c r="A213" s="51"/>
+      <c r="A213" s="47"/>
     </row>
     <row r="214" spans="1:1" ht="12.7">
-      <c r="A214" s="51"/>
+      <c r="A214" s="47"/>
     </row>
     <row r="215" spans="1:1" ht="12.7">
-      <c r="A215" s="51"/>
+      <c r="A215" s="47"/>
     </row>
     <row r="216" spans="1:1" ht="12.7">
-      <c r="A216" s="51"/>
+      <c r="A216" s="47"/>
     </row>
     <row r="217" spans="1:1" ht="12.7">
-      <c r="A217" s="51"/>
+      <c r="A217" s="47"/>
     </row>
     <row r="218" spans="1:1" ht="12.7">
-      <c r="A218" s="51"/>
+      <c r="A218" s="47"/>
     </row>
     <row r="219" spans="1:1" ht="12.7">
-      <c r="A219" s="51"/>
+      <c r="A219" s="47"/>
     </row>
     <row r="220" spans="1:1" ht="12.7">
-      <c r="A220" s="51"/>
+      <c r="A220" s="47"/>
     </row>
     <row r="221" spans="1:1" ht="12.7">
-      <c r="A221" s="51"/>
+      <c r="A221" s="47"/>
     </row>
     <row r="222" spans="1:1" ht="12.7">
-      <c r="A222" s="51"/>
+      <c r="A222" s="47"/>
     </row>
     <row r="223" spans="1:1" ht="12.7">
-      <c r="A223" s="51"/>
+      <c r="A223" s="47"/>
     </row>
     <row r="224" spans="1:1" ht="12.7">
-      <c r="A224" s="51"/>
+      <c r="A224" s="47"/>
     </row>
     <row r="225" spans="1:1" ht="12.7">
-      <c r="A225" s="51"/>
+      <c r="A225" s="47"/>
     </row>
     <row r="226" spans="1:1" ht="12.7">
-      <c r="A226" s="51"/>
+      <c r="A226" s="47"/>
     </row>
     <row r="227" spans="1:1" ht="12.7">
-      <c r="A227" s="51"/>
+      <c r="A227" s="47"/>
     </row>
     <row r="228" spans="1:1" ht="12.7">
-      <c r="A228" s="51"/>
+      <c r="A228" s="47"/>
     </row>
     <row r="229" spans="1:1" ht="12.7">
-      <c r="A229" s="51"/>
+      <c r="A229" s="47"/>
     </row>
     <row r="230" spans="1:1" ht="12.7">
-      <c r="A230" s="51"/>
+      <c r="A230" s="47"/>
     </row>
     <row r="231" spans="1:1" ht="12.7">
-      <c r="A231" s="51"/>
+      <c r="A231" s="47"/>
     </row>
     <row r="232" spans="1:1" ht="12.7">
-      <c r="A232" s="51"/>
+      <c r="A232" s="47"/>
     </row>
     <row r="233" spans="1:1" ht="12.7">
-      <c r="A233" s="51"/>
+      <c r="A233" s="47"/>
     </row>
     <row r="234" spans="1:1" ht="12.7">
-      <c r="A234" s="51"/>
+      <c r="A234" s="47"/>
     </row>
     <row r="235" spans="1:1" ht="12.7">
-      <c r="A235" s="51"/>
+      <c r="A235" s="47"/>
     </row>
     <row r="236" spans="1:1" ht="12.7">
-      <c r="A236" s="51"/>
+      <c r="A236" s="47"/>
     </row>
     <row r="237" spans="1:1" ht="12.7">
-      <c r="A237" s="51"/>
+      <c r="A237" s="47"/>
     </row>
     <row r="238" spans="1:1" ht="12.7">
-      <c r="A238" s="51"/>
+      <c r="A238" s="47"/>
     </row>
     <row r="239" spans="1:1" ht="12.7">
-      <c r="A239" s="51"/>
+      <c r="A239" s="47"/>
     </row>
     <row r="240" spans="1:1" ht="12.7">
-      <c r="A240" s="51"/>
+      <c r="A240" s="47"/>
     </row>
     <row r="241" spans="1:1" ht="12.7">
-      <c r="A241" s="51"/>
+      <c r="A241" s="47"/>
     </row>
     <row r="242" spans="1:1" ht="12.7">
-      <c r="A242" s="51"/>
+      <c r="A242" s="47"/>
     </row>
     <row r="243" spans="1:1" ht="12.7">
-      <c r="A243" s="51"/>
+      <c r="A243" s="47"/>
     </row>
     <row r="244" spans="1:1" ht="12.7">
-      <c r="A244" s="51"/>
+      <c r="A244" s="47"/>
     </row>
     <row r="245" spans="1:1" ht="12.7">
-      <c r="A245" s="51"/>
+      <c r="A245" s="47"/>
     </row>
     <row r="246" spans="1:1" ht="12.7">
-      <c r="A246" s="51"/>
+      <c r="A246" s="47"/>
     </row>
     <row r="247" spans="1:1" ht="12.7">
-      <c r="A247" s="51"/>
+      <c r="A247" s="47"/>
     </row>
     <row r="248" spans="1:1" ht="12.7">
-      <c r="A248" s="51"/>
+      <c r="A248" s="47"/>
     </row>
     <row r="249" spans="1:1" ht="12.7">
-      <c r="A249" s="51"/>
+      <c r="A249" s="47"/>
     </row>
     <row r="250" spans="1:1" ht="12.7">
-      <c r="A250" s="51"/>
+      <c r="A250" s="47"/>
     </row>
     <row r="251" spans="1:1" ht="12.7">
-      <c r="A251" s="51"/>
+      <c r="A251" s="47"/>
     </row>
     <row r="252" spans="1:1" ht="12.7">
-      <c r="A252" s="51"/>
+      <c r="A252" s="47"/>
     </row>
     <row r="253" spans="1:1" ht="12.7">
-      <c r="A253" s="51"/>
+      <c r="A253" s="47"/>
     </row>
     <row r="254" spans="1:1" ht="12.7">
-      <c r="A254" s="51"/>
+      <c r="A254" s="47"/>
     </row>
     <row r="255" spans="1:1" ht="12.7">
-      <c r="A255" s="51"/>
+      <c r="A255" s="47"/>
     </row>
     <row r="256" spans="1:1" ht="12.7">
-      <c r="A256" s="51"/>
+      <c r="A256" s="47"/>
     </row>
     <row r="257" spans="1:1" ht="12.7">
-      <c r="A257" s="51"/>
+      <c r="A257" s="47"/>
     </row>
     <row r="258" spans="1:1" ht="12.7">
-      <c r="A258" s="51"/>
+      <c r="A258" s="47"/>
     </row>
     <row r="259" spans="1:1" ht="12.7">
-      <c r="A259" s="51"/>
+      <c r="A259" s="47"/>
     </row>
     <row r="260" spans="1:1" ht="12.7">
-      <c r="A260" s="51"/>
+      <c r="A260" s="47"/>
     </row>
     <row r="261" spans="1:1" ht="12.7">
-      <c r="A261" s="51"/>
+      <c r="A261" s="47"/>
     </row>
     <row r="262" spans="1:1" ht="12.7">
-      <c r="A262" s="51"/>
+      <c r="A262" s="47"/>
     </row>
     <row r="263" spans="1:1" ht="12.7">
-      <c r="A263" s="51"/>
+      <c r="A263" s="47"/>
     </row>
     <row r="264" spans="1:1" ht="12.7">
-      <c r="A264" s="51"/>
+      <c r="A264" s="47"/>
     </row>
     <row r="265" spans="1:1" ht="12.7">
-      <c r="A265" s="51"/>
+      <c r="A265" s="47"/>
     </row>
     <row r="266" spans="1:1" ht="12.7">
-      <c r="A266" s="51"/>
+      <c r="A266" s="47"/>
     </row>
     <row r="267" spans="1:1" ht="12.7">
-      <c r="A267" s="51"/>
+      <c r="A267" s="47"/>
     </row>
     <row r="268" spans="1:1" ht="12.7">
-      <c r="A268" s="51"/>
+      <c r="A268" s="47"/>
     </row>
     <row r="269" spans="1:1" ht="12.7">
-      <c r="A269" s="51"/>
+      <c r="A269" s="47"/>
     </row>
     <row r="270" spans="1:1" ht="12.7">
-      <c r="A270" s="51"/>
+      <c r="A270" s="47"/>
     </row>
     <row r="271" spans="1:1" ht="12.7">
-      <c r="A271" s="51"/>
+      <c r="A271" s="47"/>
     </row>
     <row r="272" spans="1:1" ht="12.7">
-      <c r="A272" s="51"/>
+      <c r="A272" s="47"/>
     </row>
     <row r="273" spans="1:1" ht="12.7">
-      <c r="A273" s="51"/>
+      <c r="A273" s="47"/>
     </row>
     <row r="274" spans="1:1" ht="12.7">
-      <c r="A274" s="51"/>
+      <c r="A274" s="47"/>
     </row>
     <row r="275" spans="1:1" ht="12.7">
-      <c r="A275" s="51"/>
+      <c r="A275" s="47"/>
     </row>
     <row r="276" spans="1:1" ht="12.7">
-      <c r="A276" s="51"/>
+      <c r="A276" s="47"/>
     </row>
     <row r="277" spans="1:1" ht="12.7">
-      <c r="A277" s="51"/>
+      <c r="A277" s="47"/>
     </row>
     <row r="278" spans="1:1" ht="12.7">
-      <c r="A278" s="51"/>
+      <c r="A278" s="47"/>
     </row>
     <row r="279" spans="1:1" ht="12.7">
-      <c r="A279" s="51"/>
+      <c r="A279" s="47"/>
     </row>
     <row r="280" spans="1:1" ht="12.7">
-      <c r="A280" s="51"/>
+      <c r="A280" s="47"/>
     </row>
     <row r="281" spans="1:1" ht="12.7">
-      <c r="A281" s="51"/>
+      <c r="A281" s="47"/>
     </row>
     <row r="282" spans="1:1" ht="12.7">
-      <c r="A282" s="51"/>
+      <c r="A282" s="47"/>
     </row>
     <row r="283" spans="1:1" ht="12.7">
-      <c r="A283" s="51"/>
+      <c r="A283" s="47"/>
     </row>
     <row r="284" spans="1:1" ht="12.7">
-      <c r="A284" s="51"/>
+      <c r="A284" s="47"/>
     </row>
     <row r="285" spans="1:1" ht="12.7">
-      <c r="A285" s="51"/>
+      <c r="A285" s="47"/>
     </row>
     <row r="286" spans="1:1" ht="12.7">
-      <c r="A286" s="51"/>
+      <c r="A286" s="47"/>
     </row>
     <row r="287" spans="1:1" ht="12.7">
-      <c r="A287" s="51"/>
+      <c r="A287" s="47"/>
     </row>
     <row r="288" spans="1:1" ht="12.7">
-      <c r="A288" s="51"/>
+      <c r="A288" s="47"/>
     </row>
     <row r="289" spans="1:1" ht="12.7">
-      <c r="A289" s="51"/>
+      <c r="A289" s="47"/>
     </row>
     <row r="290" spans="1:1" ht="12.7">
-      <c r="A290" s="51"/>
+      <c r="A290" s="47"/>
     </row>
     <row r="291" spans="1:1" ht="12.7">
-      <c r="A291" s="51"/>
+      <c r="A291" s="47"/>
     </row>
     <row r="292" spans="1:1" ht="12.7">
-      <c r="A292" s="51"/>
+      <c r="A292" s="47"/>
     </row>
     <row r="293" spans="1:1" ht="12.7">
-      <c r="A293" s="51"/>
+      <c r="A293" s="47"/>
     </row>
     <row r="294" spans="1:1" ht="12.7">
-      <c r="A294" s="51"/>
+      <c r="A294" s="47"/>
     </row>
     <row r="295" spans="1:1" ht="12.7">
-      <c r="A295" s="51"/>
+      <c r="A295" s="47"/>
     </row>
     <row r="296" spans="1:1" ht="12.7">
-      <c r="A296" s="51"/>
+      <c r="A296" s="47"/>
     </row>
     <row r="297" spans="1:1" ht="12.7">
-      <c r="A297" s="51"/>
+      <c r="A297" s="47"/>
     </row>
     <row r="298" spans="1:1" ht="12.7">
-      <c r="A298" s="51"/>
+      <c r="A298" s="47"/>
     </row>
     <row r="299" spans="1:1" ht="12.7">
-      <c r="A299" s="51"/>
+      <c r="A299" s="47"/>
     </row>
     <row r="300" spans="1:1" ht="12.7">
-      <c r="A300" s="51"/>
+      <c r="A300" s="47"/>
     </row>
     <row r="301" spans="1:1" ht="12.7">
-      <c r="A301" s="51"/>
+      <c r="A301" s="47"/>
     </row>
     <row r="302" spans="1:1" ht="12.7">
-      <c r="A302" s="51"/>
+      <c r="A302" s="47"/>
     </row>
     <row r="303" spans="1:1" ht="12.7">
-      <c r="A303" s="51"/>
+      <c r="A303" s="47"/>
     </row>
     <row r="304" spans="1:1" ht="12.7">
-      <c r="A304" s="51"/>
+      <c r="A304" s="47"/>
     </row>
     <row r="305" spans="1:1" ht="12.7">
-      <c r="A305" s="51"/>
+      <c r="A305" s="47"/>
     </row>
     <row r="306" spans="1:1" ht="12.7">
-      <c r="A306" s="51"/>
+      <c r="A306" s="47"/>
     </row>
     <row r="307" spans="1:1" ht="12.7">
-      <c r="A307" s="51"/>
+      <c r="A307" s="47"/>
     </row>
     <row r="308" spans="1:1" ht="12.7">
-      <c r="A308" s="51"/>
+      <c r="A308" s="47"/>
     </row>
     <row r="309" spans="1:1" ht="12.7">
-      <c r="A309" s="51"/>
+      <c r="A309" s="47"/>
     </row>
     <row r="310" spans="1:1" ht="12.7">
-      <c r="A310" s="51"/>
+      <c r="A310" s="47"/>
     </row>
     <row r="311" spans="1:1" ht="12.7">
-      <c r="A311" s="51"/>
+      <c r="A311" s="47"/>
     </row>
     <row r="312" spans="1:1" ht="12.7">
-      <c r="A312" s="51"/>
+      <c r="A312" s="47"/>
     </row>
     <row r="313" spans="1:1" ht="12.7">
-      <c r="A313" s="51"/>
+      <c r="A313" s="47"/>
     </row>
     <row r="314" spans="1:1" ht="12.7">
-      <c r="A314" s="51"/>
+      <c r="A314" s="47"/>
     </row>
     <row r="315" spans="1:1" ht="12.7">
-      <c r="A315" s="51"/>
+      <c r="A315" s="47"/>
     </row>
     <row r="316" spans="1:1" ht="12.7">
-      <c r="A316" s="51"/>
+      <c r="A316" s="47"/>
     </row>
     <row r="317" spans="1:1" ht="12.7">
-      <c r="A317" s="51"/>
+      <c r="A317" s="47"/>
     </row>
     <row r="318" spans="1:1" ht="12.7">
-      <c r="A318" s="51"/>
+      <c r="A318" s="47"/>
     </row>
     <row r="319" spans="1:1" ht="12.7">
-      <c r="A319" s="51"/>
+      <c r="A319" s="47"/>
     </row>
     <row r="320" spans="1:1" ht="12.7">
-      <c r="A320" s="51"/>
+      <c r="A320" s="47"/>
     </row>
     <row r="321" spans="1:1" ht="12.7">
-      <c r="A321" s="51"/>
+      <c r="A321" s="47"/>
     </row>
     <row r="322" spans="1:1" ht="12.7">
-      <c r="A322" s="51"/>
+      <c r="A322" s="47"/>
     </row>
     <row r="323" spans="1:1" ht="12.7">
-      <c r="A323" s="51"/>
+      <c r="A323" s="47"/>
     </row>
     <row r="324" spans="1:1" ht="12.7">
-      <c r="A324" s="51"/>
+      <c r="A324" s="47"/>
     </row>
     <row r="325" spans="1:1" ht="12.7">
-      <c r="A325" s="51"/>
+      <c r="A325" s="47"/>
     </row>
     <row r="326" spans="1:1" ht="12.7">
-      <c r="A326" s="51"/>
+      <c r="A326" s="47"/>
     </row>
     <row r="327" spans="1:1" ht="12.7">
-      <c r="A327" s="51"/>
+      <c r="A327" s="47"/>
     </row>
     <row r="328" spans="1:1" ht="12.7">
-      <c r="A328" s="51"/>
+      <c r="A328" s="47"/>
     </row>
     <row r="329" spans="1:1" ht="12.7">
-      <c r="A329" s="51"/>
+      <c r="A329" s="47"/>
     </row>
     <row r="330" spans="1:1" ht="12.7">
-      <c r="A330" s="51"/>
+      <c r="A330" s="47"/>
     </row>
     <row r="331" spans="1:1" ht="12.7">
-      <c r="A331" s="51"/>
+      <c r="A331" s="47"/>
     </row>
     <row r="332" spans="1:1" ht="12.7">
-      <c r="A332" s="51"/>
+      <c r="A332" s="47"/>
     </row>
     <row r="333" spans="1:1" ht="12.7">
-      <c r="A333" s="51"/>
+      <c r="A333" s="47"/>
     </row>
     <row r="334" spans="1:1" ht="12.7">
-      <c r="A334" s="51"/>
+      <c r="A334" s="47"/>
     </row>
     <row r="335" spans="1:1" ht="12.7">
-      <c r="A335" s="51"/>
+      <c r="A335" s="47"/>
     </row>
     <row r="336" spans="1:1" ht="12.7">
-      <c r="A336" s="51"/>
+      <c r="A336" s="47"/>
     </row>
     <row r="337" spans="1:1" ht="12.7">
-      <c r="A337" s="51"/>
+      <c r="A337" s="47"/>
     </row>
     <row r="338" spans="1:1" ht="12.7">
-      <c r="A338" s="51"/>
+      <c r="A338" s="47"/>
     </row>
     <row r="339" spans="1:1" ht="12.7">
-      <c r="A339" s="51"/>
+      <c r="A339" s="47"/>
     </row>
     <row r="340" spans="1:1" ht="12.7">
-      <c r="A340" s="51"/>
+      <c r="A340" s="47"/>
     </row>
     <row r="341" spans="1:1" ht="12.7">
-      <c r="A341" s="51"/>
+      <c r="A341" s="47"/>
     </row>
     <row r="342" spans="1:1" ht="12.7">
-      <c r="A342" s="51"/>
+      <c r="A342" s="47"/>
     </row>
     <row r="343" spans="1:1" ht="12.7">
-      <c r="A343" s="51"/>
+      <c r="A343" s="47"/>
     </row>
     <row r="344" spans="1:1" ht="12.7">
-      <c r="A344" s="51"/>
+      <c r="A344" s="47"/>
     </row>
     <row r="345" spans="1:1" ht="12.7">
-      <c r="A345" s="51"/>
+      <c r="A345" s="47"/>
     </row>
     <row r="346" spans="1:1" ht="12.7">
-      <c r="A346" s="51"/>
+      <c r="A346" s="47"/>
     </row>
     <row r="347" spans="1:1" ht="12.7">
-      <c r="A347" s="51"/>
+      <c r="A347" s="47"/>
     </row>
     <row r="348" spans="1:1" ht="12.7">
-      <c r="A348" s="51"/>
+      <c r="A348" s="47"/>
     </row>
     <row r="349" spans="1:1" ht="12.7">
-      <c r="A349" s="51"/>
+      <c r="A349" s="47"/>
     </row>
     <row r="350" spans="1:1" ht="12.7">
-      <c r="A350" s="51"/>
+      <c r="A350" s="47"/>
     </row>
     <row r="351" spans="1:1" ht="12.7">
-      <c r="A351" s="51"/>
+      <c r="A351" s="47"/>
     </row>
     <row r="352" spans="1:1" ht="12.7">
-      <c r="A352" s="51"/>
+      <c r="A352" s="47"/>
     </row>
     <row r="353" spans="1:1" ht="12.7">
-      <c r="A353" s="51"/>
+      <c r="A353" s="47"/>
     </row>
     <row r="354" spans="1:1" ht="12.7">
-      <c r="A354" s="51"/>
+      <c r="A354" s="47"/>
     </row>
     <row r="355" spans="1:1" ht="12.7">
-      <c r="A355" s="51"/>
+      <c r="A355" s="47"/>
     </row>
     <row r="356" spans="1:1" ht="12.7">
-      <c r="A356" s="51"/>
+      <c r="A356" s="47"/>
     </row>
     <row r="357" spans="1:1" ht="12.7">
-      <c r="A357" s="51"/>
+      <c r="A357" s="47"/>
     </row>
     <row r="358" spans="1:1" ht="12.7">
-      <c r="A358" s="51"/>
+      <c r="A358" s="47"/>
     </row>
     <row r="359" spans="1:1" ht="12.7">
-      <c r="A359" s="51"/>
+      <c r="A359" s="47"/>
     </row>
     <row r="360" spans="1:1" ht="12.7">
-      <c r="A360" s="51"/>
+      <c r="A360" s="47"/>
     </row>
     <row r="361" spans="1:1" ht="12.7">
-      <c r="A361" s="51"/>
+      <c r="A361" s="47"/>
     </row>
     <row r="362" spans="1:1" ht="12.7">
-      <c r="A362" s="51"/>
+      <c r="A362" s="47"/>
     </row>
     <row r="363" spans="1:1" ht="12.7">
-      <c r="A363" s="51"/>
+      <c r="A363" s="47"/>
     </row>
     <row r="364" spans="1:1" ht="12.7">
-      <c r="A364" s="51"/>
+      <c r="A364" s="47"/>
     </row>
     <row r="365" spans="1:1" ht="12.7">
-      <c r="A365" s="51"/>
+      <c r="A365" s="47"/>
     </row>
     <row r="366" spans="1:1" ht="12.7">
-      <c r="A366" s="51"/>
+      <c r="A366" s="47"/>
     </row>
     <row r="367" spans="1:1" ht="12.7">
-      <c r="A367" s="51"/>
+      <c r="A367" s="47"/>
     </row>
     <row r="368" spans="1:1" ht="12.7">
-      <c r="A368" s="51"/>
+      <c r="A368" s="47"/>
     </row>
     <row r="369" spans="1:1" ht="12.7">
-      <c r="A369" s="51"/>
+      <c r="A369" s="47"/>
     </row>
     <row r="370" spans="1:1" ht="12.7">
-      <c r="A370" s="51"/>
+      <c r="A370" s="47"/>
     </row>
     <row r="371" spans="1:1" ht="12.7">
-      <c r="A371" s="51"/>
+      <c r="A371" s="47"/>
     </row>
     <row r="372" spans="1:1" ht="12.7">
-      <c r="A372" s="51"/>
+      <c r="A372" s="47"/>
     </row>
     <row r="373" spans="1:1" ht="12.7">
-      <c r="A373" s="51"/>
+      <c r="A373" s="47"/>
     </row>
     <row r="374" spans="1:1" ht="12.7">
-      <c r="A374" s="51"/>
+      <c r="A374" s="47"/>
     </row>
     <row r="375" spans="1:1" ht="12.7">
-      <c r="A375" s="51"/>
+      <c r="A375" s="47"/>
     </row>
     <row r="376" spans="1:1" ht="12.7">
-      <c r="A376" s="51"/>
+      <c r="A376" s="47"/>
     </row>
     <row r="377" spans="1:1" ht="12.7">
-      <c r="A377" s="51"/>
+      <c r="A377" s="47"/>
     </row>
     <row r="378" spans="1:1" ht="12.7">
-      <c r="A378" s="51"/>
+      <c r="A378" s="47"/>
     </row>
     <row r="379" spans="1:1" ht="12.7">
-      <c r="A379" s="51"/>
+      <c r="A379" s="47"/>
     </row>
     <row r="380" spans="1:1" ht="12.7">
-      <c r="A380" s="51"/>
+      <c r="A380" s="47"/>
     </row>
     <row r="381" spans="1:1" ht="12.7">
-      <c r="A381" s="51"/>
+      <c r="A381" s="47"/>
     </row>
     <row r="382" spans="1:1" ht="12.7">
-      <c r="A382" s="51"/>
+      <c r="A382" s="47"/>
     </row>
     <row r="383" spans="1:1" ht="12.7">
-      <c r="A383" s="51"/>
+      <c r="A383" s="47"/>
     </row>
     <row r="384" spans="1:1" ht="12.7">
-      <c r="A384" s="51"/>
+      <c r="A384" s="47"/>
     </row>
     <row r="385" spans="1:1" ht="12.7">
-      <c r="A385" s="51"/>
+      <c r="A385" s="47"/>
     </row>
     <row r="386" spans="1:1" ht="12.7">
-      <c r="A386" s="51"/>
+      <c r="A386" s="47"/>
     </row>
     <row r="387" spans="1:1" ht="12.7">
-      <c r="A387" s="51"/>
+      <c r="A387" s="47"/>
     </row>
     <row r="388" spans="1:1" ht="12.7">
-      <c r="A388" s="51"/>
+      <c r="A388" s="47"/>
     </row>
     <row r="389" spans="1:1" ht="12.7">
-      <c r="A389" s="51"/>
+      <c r="A389" s="47"/>
     </row>
     <row r="390" spans="1:1" ht="12.7">
-      <c r="A390" s="51"/>
+      <c r="A390" s="47"/>
     </row>
     <row r="391" spans="1:1" ht="12.7">
-      <c r="A391" s="51"/>
+      <c r="A391" s="47"/>
     </row>
     <row r="392" spans="1:1" ht="12.7">
-      <c r="A392" s="51"/>
+      <c r="A392" s="47"/>
     </row>
     <row r="393" spans="1:1" ht="12.7">
-      <c r="A393" s="51"/>
+      <c r="A393" s="47"/>
     </row>
     <row r="394" spans="1:1" ht="12.7">
-      <c r="A394" s="51"/>
+      <c r="A394" s="47"/>
     </row>
     <row r="395" spans="1:1" ht="12.7">
-      <c r="A395" s="51"/>
+      <c r="A395" s="47"/>
     </row>
     <row r="396" spans="1:1" ht="12.7">
-      <c r="A396" s="51"/>
+      <c r="A396" s="47"/>
     </row>
     <row r="397" spans="1:1" ht="12.7">
-      <c r="A397" s="51"/>
+      <c r="A397" s="47"/>
     </row>
     <row r="398" spans="1:1" ht="12.7">
-      <c r="A398" s="51"/>
+      <c r="A398" s="47"/>
     </row>
     <row r="399" spans="1:1" ht="12.7">
-      <c r="A399" s="51"/>
+      <c r="A399" s="47"/>
     </row>
     <row r="400" spans="1:1" ht="12.7">
-      <c r="A400" s="51"/>
+      <c r="A400" s="47"/>
     </row>
     <row r="401" spans="1:1" ht="12.7">
-      <c r="A401" s="51"/>
+      <c r="A401" s="47"/>
     </row>
     <row r="402" spans="1:1" ht="12.7">
-      <c r="A402" s="51"/>
+      <c r="A402" s="47"/>
     </row>
     <row r="403" spans="1:1" ht="12.7">
-      <c r="A403" s="51"/>
+      <c r="A403" s="47"/>
     </row>
     <row r="404" spans="1:1" ht="12.7">
-      <c r="A404" s="51"/>
+      <c r="A404" s="47"/>
     </row>
     <row r="405" spans="1:1" ht="12.7">
-      <c r="A405" s="51"/>
+      <c r="A405" s="47"/>
     </row>
     <row r="406" spans="1:1" ht="12.7">
-      <c r="A406" s="51"/>
+      <c r="A406" s="47"/>
     </row>
     <row r="407" spans="1:1" ht="12.7">
-      <c r="A407" s="51"/>
+      <c r="A407" s="47"/>
     </row>
     <row r="408" spans="1:1" ht="12.7">
-      <c r="A408" s="51"/>
+      <c r="A408" s="47"/>
     </row>
     <row r="409" spans="1:1" ht="12.7">
-      <c r="A409" s="51"/>
+      <c r="A409" s="47"/>
     </row>
     <row r="410" spans="1:1" ht="12.7">
-      <c r="A410" s="51"/>
+      <c r="A410" s="47"/>
     </row>
     <row r="411" spans="1:1" ht="12.7">
-      <c r="A411" s="51"/>
+      <c r="A411" s="47"/>
     </row>
     <row r="412" spans="1:1" ht="12.7">
-      <c r="A412" s="51"/>
+      <c r="A412" s="47"/>
     </row>
     <row r="413" spans="1:1" ht="12.7">
-      <c r="A413" s="51"/>
+      <c r="A413" s="47"/>
     </row>
     <row r="414" spans="1:1" ht="12.7">
-      <c r="A414" s="51"/>
+      <c r="A414" s="47"/>
     </row>
     <row r="415" spans="1:1" ht="12.7">
-      <c r="A415" s="51"/>
+      <c r="A415" s="47"/>
     </row>
     <row r="416" spans="1:1" ht="12.7">
-      <c r="A416" s="51"/>
+      <c r="A416" s="47"/>
     </row>
     <row r="417" spans="1:1" ht="12.7">
-      <c r="A417" s="51"/>
+      <c r="A417" s="47"/>
     </row>
     <row r="418" spans="1:1" ht="12.7">
-      <c r="A418" s="51"/>
+      <c r="A418" s="47"/>
     </row>
     <row r="419" spans="1:1" ht="12.7">
-      <c r="A419" s="51"/>
+      <c r="A419" s="47"/>
     </row>
     <row r="420" spans="1:1" ht="12.7">
-      <c r="A420" s="51"/>
+      <c r="A420" s="47"/>
     </row>
     <row r="421" spans="1:1" ht="12.7">
-      <c r="A421" s="51"/>
+      <c r="A421" s="47"/>
     </row>
     <row r="422" spans="1:1" ht="12.7">
-      <c r="A422" s="51"/>
+      <c r="A422" s="47"/>
     </row>
     <row r="423" spans="1:1" ht="12.7">
-      <c r="A423" s="51"/>
+      <c r="A423" s="47"/>
     </row>
     <row r="424" spans="1:1" ht="12.7">
-      <c r="A424" s="51"/>
+      <c r="A424" s="47"/>
     </row>
     <row r="425" spans="1:1" ht="12.7">
-      <c r="A425" s="51"/>
+      <c r="A425" s="47"/>
     </row>
     <row r="426" spans="1:1" ht="12.7">
-      <c r="A426" s="51"/>
+      <c r="A426" s="47"/>
     </row>
     <row r="427" spans="1:1" ht="12.7">
-      <c r="A427" s="51"/>
+      <c r="A427" s="47"/>
     </row>
     <row r="428" spans="1:1" ht="12.7">
-      <c r="A428" s="51"/>
+      <c r="A428" s="47"/>
     </row>
     <row r="429" spans="1:1" ht="12.7">
-      <c r="A429" s="51"/>
+      <c r="A429" s="47"/>
     </row>
     <row r="430" spans="1:1" ht="12.7">
-      <c r="A430" s="51"/>
+      <c r="A430" s="47"/>
     </row>
     <row r="431" spans="1:1" ht="12.7">
-      <c r="A431" s="51"/>
+      <c r="A431" s="47"/>
     </row>
     <row r="432" spans="1:1" ht="12.7">
-      <c r="A432" s="51"/>
+      <c r="A432" s="47"/>
     </row>
     <row r="433" spans="1:1" ht="12.7">
-      <c r="A433" s="51"/>
+      <c r="A433" s="47"/>
     </row>
     <row r="434" spans="1:1" ht="12.7">
-      <c r="A434" s="51"/>
+      <c r="A434" s="47"/>
     </row>
     <row r="435" spans="1:1" ht="12.7">
-      <c r="A435" s="51"/>
+      <c r="A435" s="47"/>
     </row>
     <row r="436" spans="1:1" ht="12.7">
-      <c r="A436" s="51"/>
+      <c r="A436" s="47"/>
     </row>
     <row r="437" spans="1:1" ht="12.7">
-      <c r="A437" s="51"/>
+      <c r="A437" s="47"/>
     </row>
     <row r="438" spans="1:1" ht="12.7">
-      <c r="A438" s="51"/>
+      <c r="A438" s="47"/>
     </row>
     <row r="439" spans="1:1" ht="12.7">
-      <c r="A439" s="51"/>
+      <c r="A439" s="47"/>
     </row>
     <row r="440" spans="1:1" ht="12.7">
-      <c r="A440" s="51"/>
+      <c r="A440" s="47"/>
     </row>
     <row r="441" spans="1:1" ht="12.7">
-      <c r="A441" s="51"/>
+      <c r="A441" s="47"/>
     </row>
     <row r="442" spans="1:1" ht="12.7">
-      <c r="A442" s="51"/>
+      <c r="A442" s="47"/>
     </row>
     <row r="443" spans="1:1" ht="12.7">
-      <c r="A443" s="51"/>
+      <c r="A443" s="47"/>
     </row>
     <row r="444" spans="1:1" ht="12.7">
-      <c r="A444" s="51"/>
+      <c r="A444" s="47"/>
     </row>
     <row r="445" spans="1:1" ht="12.7">
-      <c r="A445" s="51"/>
+      <c r="A445" s="47"/>
     </row>
     <row r="446" spans="1:1" ht="12.7">
-      <c r="A446" s="51"/>
+      <c r="A446" s="47"/>
     </row>
     <row r="447" spans="1:1" ht="12.7">
-      <c r="A447" s="51"/>
+      <c r="A447" s="47"/>
     </row>
     <row r="448" spans="1:1" ht="12.7">
-      <c r="A448" s="51"/>
+      <c r="A448" s="47"/>
     </row>
     <row r="449" spans="1:1" ht="12.7">
-      <c r="A449" s="51"/>
+      <c r="A449" s="47"/>
     </row>
     <row r="450" spans="1:1" ht="12.7">
-      <c r="A450" s="51"/>
+      <c r="A450" s="47"/>
     </row>
     <row r="451" spans="1:1" ht="12.7">
-      <c r="A451" s="51"/>
+      <c r="A451" s="47"/>
     </row>
     <row r="452" spans="1:1" ht="12.7">
-      <c r="A452" s="51"/>
+      <c r="A452" s="47"/>
     </row>
     <row r="453" spans="1:1" ht="12.7">
-      <c r="A453" s="51"/>
+      <c r="A453" s="47"/>
     </row>
     <row r="454" spans="1:1" ht="12.7">
-      <c r="A454" s="51"/>
+      <c r="A454" s="47"/>
     </row>
     <row r="455" spans="1:1" ht="12.7">
-      <c r="A455" s="51"/>
+      <c r="A455" s="47"/>
     </row>
     <row r="456" spans="1:1" ht="12.7">
-      <c r="A456" s="51"/>
+      <c r="A456" s="47"/>
     </row>
     <row r="457" spans="1:1" ht="12.7">
-      <c r="A457" s="51"/>
+      <c r="A457" s="47"/>
     </row>
     <row r="458" spans="1:1" ht="12.7">
-      <c r="A458" s="51"/>
+      <c r="A458" s="47"/>
     </row>
     <row r="459" spans="1:1" ht="12.7">
-      <c r="A459" s="51"/>
+      <c r="A459" s="47"/>
     </row>
     <row r="460" spans="1:1" ht="12.7">
-      <c r="A460" s="51"/>
+      <c r="A460" s="47"/>
     </row>
     <row r="461" spans="1:1" ht="12.7">
-      <c r="A461" s="51"/>
+      <c r="A461" s="47"/>
     </row>
     <row r="462" spans="1:1" ht="12.7">
-      <c r="A462" s="51"/>
+      <c r="A462" s="47"/>
     </row>
     <row r="463" spans="1:1" ht="12.7">
-      <c r="A463" s="51"/>
+      <c r="A463" s="47"/>
     </row>
     <row r="464" spans="1:1" ht="12.7">
-      <c r="A464" s="51"/>
+      <c r="A464" s="47"/>
     </row>
     <row r="465" spans="1:1" ht="12.7">
-      <c r="A465" s="51"/>
+      <c r="A465" s="47"/>
     </row>
     <row r="466" spans="1:1" ht="12.7">
-      <c r="A466" s="51"/>
+      <c r="A466" s="47"/>
     </row>
     <row r="467" spans="1:1" ht="12.7">
-      <c r="A467" s="51"/>
+      <c r="A467" s="47"/>
     </row>
     <row r="468" spans="1:1" ht="12.7">
-      <c r="A468" s="51"/>
+      <c r="A468" s="47"/>
     </row>
     <row r="469" spans="1:1" ht="12.7">
-      <c r="A469" s="51"/>
+      <c r="A469" s="47"/>
     </row>
     <row r="470" spans="1:1" ht="12.7">
-      <c r="A470" s="51"/>
+      <c r="A470" s="47"/>
     </row>
     <row r="471" spans="1:1" ht="12.7">
-      <c r="A471" s="51"/>
+      <c r="A471" s="47"/>
     </row>
     <row r="472" spans="1:1" ht="12.7">
-      <c r="A472" s="51"/>
+      <c r="A472" s="47"/>
     </row>
     <row r="473" spans="1:1" ht="12.7">
-      <c r="A473" s="51"/>
+      <c r="A473" s="47"/>
     </row>
     <row r="474" spans="1:1" ht="12.7">
-      <c r="A474" s="51"/>
+      <c r="A474" s="47"/>
     </row>
     <row r="475" spans="1:1" ht="12.7">
-      <c r="A475" s="51"/>
+      <c r="A475" s="47"/>
     </row>
     <row r="476" spans="1:1" ht="12.7">
-      <c r="A476" s="51"/>
+      <c r="A476" s="47"/>
     </row>
     <row r="477" spans="1:1" ht="12.7">
-      <c r="A477" s="51"/>
+      <c r="A477" s="47"/>
     </row>
     <row r="478" spans="1:1" ht="12.7">
-      <c r="A478" s="51"/>
+      <c r="A478" s="47"/>
     </row>
     <row r="479" spans="1:1" ht="12.7">
-      <c r="A479" s="51"/>
+      <c r="A479" s="47"/>
     </row>
     <row r="480" spans="1:1" ht="12.7">
-      <c r="A480" s="51"/>
+      <c r="A480" s="47"/>
     </row>
     <row r="481" spans="1:1" ht="12.7">
-      <c r="A481" s="51"/>
+      <c r="A481" s="47"/>
     </row>
     <row r="482" spans="1:1" ht="12.7">
-      <c r="A482" s="51"/>
+      <c r="A482" s="47"/>
     </row>
     <row r="483" spans="1:1" ht="12.7">
-      <c r="A483" s="51"/>
+      <c r="A483" s="47"/>
     </row>
     <row r="484" spans="1:1" ht="12.7">
-      <c r="A484" s="51"/>
+      <c r="A484" s="47"/>
     </row>
     <row r="485" spans="1:1" ht="12.7">
-      <c r="A485" s="51"/>
+      <c r="A485" s="47"/>
     </row>
     <row r="486" spans="1:1" ht="12.7">
-      <c r="A486" s="51"/>
+      <c r="A486" s="47"/>
     </row>
     <row r="487" spans="1:1" ht="12.7">
-      <c r="A487" s="51"/>
+      <c r="A487" s="47"/>
     </row>
     <row r="488" spans="1:1" ht="12.7">
-      <c r="A488" s="51"/>
+      <c r="A488" s="47"/>
     </row>
     <row r="489" spans="1:1" ht="12.7">
-      <c r="A489" s="51"/>
+      <c r="A489" s="47"/>
     </row>
     <row r="490" spans="1:1" ht="12.7">
-      <c r="A490" s="51"/>
+      <c r="A490" s="47"/>
     </row>
     <row r="491" spans="1:1" ht="12.7">
-      <c r="A491" s="51"/>
+      <c r="A491" s="47"/>
     </row>
     <row r="492" spans="1:1" ht="12.7">
-      <c r="A492" s="51"/>
+      <c r="A492" s="47"/>
     </row>
     <row r="493" spans="1:1" ht="12.7">
-      <c r="A493" s="51"/>
+      <c r="A493" s="47"/>
     </row>
     <row r="494" spans="1:1" ht="12.7">
-      <c r="A494" s="51"/>
+      <c r="A494" s="47"/>
     </row>
     <row r="495" spans="1:1" ht="12.7">
-      <c r="A495" s="51"/>
+      <c r="A495" s="47"/>
     </row>
     <row r="496" spans="1:1" ht="12.7">
-      <c r="A496" s="51"/>
+      <c r="A496" s="47"/>
     </row>
     <row r="497" spans="1:1" ht="12.7">
-      <c r="A497" s="51"/>
+      <c r="A497" s="47"/>
     </row>
     <row r="498" spans="1:1" ht="12.7">
-      <c r="A498" s="51"/>
+      <c r="A498" s="47"/>
     </row>
     <row r="499" spans="1:1" ht="12.7">
-      <c r="A499" s="51"/>
+      <c r="A499" s="47"/>
     </row>
     <row r="500" spans="1:1" ht="12.7">
-      <c r="A500" s="51"/>
+      <c r="A500" s="47"/>
     </row>
     <row r="501" spans="1:1" ht="12.7">
-      <c r="A501" s="51"/>
+      <c r="A501" s="47"/>
     </row>
     <row r="502" spans="1:1" ht="12.7">
-      <c r="A502" s="51"/>
+      <c r="A502" s="47"/>
     </row>
     <row r="503" spans="1:1" ht="12.7">
-      <c r="A503" s="51"/>
+      <c r="A503" s="47"/>
     </row>
     <row r="504" spans="1:1" ht="12.7">
-      <c r="A504" s="51"/>
+      <c r="A504" s="47"/>
     </row>
     <row r="505" spans="1:1" ht="12.7">
-      <c r="A505" s="51"/>
+      <c r="A505" s="47"/>
     </row>
     <row r="506" spans="1:1" ht="12.7">
-      <c r="A506" s="51"/>
+      <c r="A506" s="47"/>
     </row>
     <row r="507" spans="1:1" ht="12.7">
-      <c r="A507" s="51"/>
+      <c r="A507" s="47"/>
     </row>
     <row r="508" spans="1:1" ht="12.7">
-      <c r="A508" s="51"/>
+      <c r="A508" s="47"/>
     </row>
     <row r="509" spans="1:1" ht="12.7">
-      <c r="A509" s="51"/>
+      <c r="A509" s="47"/>
     </row>
     <row r="510" spans="1:1" ht="12.7">
-      <c r="A510" s="51"/>
+      <c r="A510" s="47"/>
     </row>
     <row r="511" spans="1:1" ht="12.7">
-      <c r="A511" s="51"/>
+      <c r="A511" s="47"/>
     </row>
     <row r="512" spans="1:1" ht="12.7">
-      <c r="A512" s="51"/>
+      <c r="A512" s="47"/>
     </row>
     <row r="513" spans="1:1" ht="12.7">
-      <c r="A513" s="51"/>
+      <c r="A513" s="47"/>
     </row>
     <row r="514" spans="1:1" ht="12.7">
-      <c r="A514" s="51"/>
+      <c r="A514" s="47"/>
     </row>
     <row r="515" spans="1:1" ht="12.7">
-      <c r="A515" s="51"/>
+      <c r="A515" s="47"/>
     </row>
     <row r="516" spans="1:1" ht="12.7">
-      <c r="A516" s="51"/>
+      <c r="A516" s="47"/>
     </row>
     <row r="517" spans="1:1" ht="12.7">
-      <c r="A517" s="51"/>
+      <c r="A517" s="47"/>
     </row>
     <row r="518" spans="1:1" ht="12.7">
-      <c r="A518" s="51"/>
+      <c r="A518" s="47"/>
     </row>
     <row r="519" spans="1:1" ht="12.7">
-      <c r="A519" s="51"/>
+      <c r="A519" s="47"/>
     </row>
     <row r="520" spans="1:1" ht="12.7">
-      <c r="A520" s="51"/>
+      <c r="A520" s="47"/>
     </row>
     <row r="521" spans="1:1" ht="12.7">
-      <c r="A521" s="51"/>
+      <c r="A521" s="47"/>
     </row>
     <row r="522" spans="1:1" ht="12.7">
-      <c r="A522" s="51"/>
+      <c r="A522" s="47"/>
     </row>
     <row r="523" spans="1:1" ht="12.7">
-      <c r="A523" s="51"/>
+      <c r="A523" s="47"/>
     </row>
     <row r="524" spans="1:1" ht="12.7">
-      <c r="A524" s="51"/>
+      <c r="A524" s="47"/>
     </row>
     <row r="525" spans="1:1" ht="12.7">
-      <c r="A525" s="51"/>
+      <c r="A525" s="47"/>
     </row>
     <row r="526" spans="1:1" ht="12.7">
-      <c r="A526" s="51"/>
+      <c r="A526" s="47"/>
     </row>
     <row r="527" spans="1:1" ht="12.7">
-      <c r="A527" s="51"/>
+      <c r="A527" s="47"/>
     </row>
     <row r="528" spans="1:1" ht="12.7">
-      <c r="A528" s="51"/>
+      <c r="A528" s="47"/>
     </row>
     <row r="529" spans="1:1" ht="12.7">
-      <c r="A529" s="51"/>
+      <c r="A529" s="47"/>
     </row>
     <row r="530" spans="1:1" ht="12.7">
-      <c r="A530" s="51"/>
+      <c r="A530" s="47"/>
     </row>
     <row r="531" spans="1:1" ht="12.7">
-      <c r="A531" s="51"/>
+      <c r="A531" s="47"/>
     </row>
     <row r="532" spans="1:1" ht="12.7">
-      <c r="A532" s="51"/>
+      <c r="A532" s="47"/>
     </row>
     <row r="533" spans="1:1" ht="12.7">
-      <c r="A533" s="51"/>
+      <c r="A533" s="47"/>
     </row>
     <row r="534" spans="1:1" ht="12.7">
-      <c r="A534" s="51"/>
+      <c r="A534" s="47"/>
     </row>
     <row r="535" spans="1:1" ht="12.7">
-      <c r="A535" s="51"/>
+      <c r="A535" s="47"/>
     </row>
     <row r="536" spans="1:1" ht="12.7">
-      <c r="A536" s="51"/>
+      <c r="A536" s="47"/>
     </row>
     <row r="537" spans="1:1" ht="12.7">
-      <c r="A537" s="51"/>
+      <c r="A537" s="47"/>
     </row>
     <row r="538" spans="1:1" ht="12.7">
-      <c r="A538" s="51"/>
+      <c r="A538" s="47"/>
     </row>
     <row r="539" spans="1:1" ht="12.7">
-      <c r="A539" s="51"/>
+      <c r="A539" s="47"/>
     </row>
     <row r="540" spans="1:1" ht="12.7">
-      <c r="A540" s="51"/>
+      <c r="A540" s="47"/>
     </row>
     <row r="541" spans="1:1" ht="12.7">
-      <c r="A541" s="51"/>
+      <c r="A541" s="47"/>
     </row>
     <row r="542" spans="1:1" ht="12.7">
-      <c r="A542" s="51"/>
+      <c r="A542" s="47"/>
     </row>
     <row r="543" spans="1:1" ht="12.7">
-      <c r="A543" s="51"/>
+      <c r="A543" s="47"/>
     </row>
     <row r="544" spans="1:1" ht="12.7">
-      <c r="A544" s="51"/>
+      <c r="A544" s="47"/>
     </row>
     <row r="545" spans="1:1" ht="12.7">
-      <c r="A545" s="51"/>
+      <c r="A545" s="47"/>
     </row>
     <row r="546" spans="1:1" ht="12.7">
-      <c r="A546" s="51"/>
+      <c r="A546" s="47"/>
     </row>
     <row r="547" spans="1:1" ht="12.7">
-      <c r="A547" s="51"/>
+      <c r="A547" s="47"/>
     </row>
     <row r="548" spans="1:1" ht="12.7">
-      <c r="A548" s="51"/>
+      <c r="A548" s="47"/>
     </row>
     <row r="549" spans="1:1" ht="12.7">
-      <c r="A549" s="51"/>
+      <c r="A549" s="47"/>
     </row>
     <row r="550" spans="1:1" ht="12.7">
-      <c r="A550" s="51"/>
+      <c r="A550" s="47"/>
     </row>
     <row r="551" spans="1:1" ht="12.7">
-      <c r="A551" s="51"/>
+      <c r="A551" s="47"/>
     </row>
     <row r="552" spans="1:1" ht="12.7">
-      <c r="A552" s="51"/>
+      <c r="A552" s="47"/>
     </row>
     <row r="553" spans="1:1" ht="12.7">
-      <c r="A553" s="51"/>
+      <c r="A553" s="47"/>
     </row>
     <row r="554" spans="1:1" ht="12.7">
-      <c r="A554" s="51"/>
+      <c r="A554" s="47"/>
     </row>
     <row r="555" spans="1:1" ht="12.7">
-      <c r="A555" s="51"/>
+      <c r="A555" s="47"/>
     </row>
     <row r="556" spans="1:1" ht="12.7">
-      <c r="A556" s="51"/>
+      <c r="A556" s="47"/>
     </row>
     <row r="557" spans="1:1" ht="12.7">
-      <c r="A557" s="51"/>
+      <c r="A557" s="47"/>
     </row>
     <row r="558" spans="1:1" ht="12.7">
-      <c r="A558" s="51"/>
+      <c r="A558" s="47"/>
     </row>
     <row r="559" spans="1:1" ht="12.7">
-      <c r="A559" s="51"/>
+      <c r="A559" s="47"/>
     </row>
     <row r="560" spans="1:1" ht="12.7">
-      <c r="A560" s="51"/>
+      <c r="A560" s="47"/>
     </row>
     <row r="561" spans="1:1" ht="12.7">
-      <c r="A561" s="51"/>
+      <c r="A561" s="47"/>
     </row>
     <row r="562" spans="1:1" ht="12.7">
-      <c r="A562" s="51"/>
+      <c r="A562" s="47"/>
     </row>
     <row r="563" spans="1:1" ht="12.7">
-      <c r="A563" s="51"/>
+      <c r="A563" s="47"/>
     </row>
     <row r="564" spans="1:1" ht="12.7">
-      <c r="A564" s="51"/>
+      <c r="A564" s="47"/>
     </row>
     <row r="565" spans="1:1" ht="12.7">
-      <c r="A565" s="51"/>
+      <c r="A565" s="47"/>
     </row>
     <row r="566" spans="1:1" ht="12.7">
-      <c r="A566" s="51"/>
+      <c r="A566" s="47"/>
     </row>
     <row r="567" spans="1:1" ht="12.7">
-      <c r="A567" s="51"/>
+      <c r="A567" s="47"/>
     </row>
     <row r="568" spans="1:1" ht="12.7">
-      <c r="A568" s="51"/>
+      <c r="A568" s="47"/>
     </row>
     <row r="569" spans="1:1" ht="12.7">
-      <c r="A569" s="51"/>
+      <c r="A569" s="47"/>
     </row>
     <row r="570" spans="1:1" ht="12.7">
-      <c r="A570" s="51"/>
+      <c r="A570" s="47"/>
     </row>
     <row r="571" spans="1:1" ht="12.7">
-      <c r="A571" s="51"/>
+      <c r="A571" s="47"/>
     </row>
     <row r="572" spans="1:1" ht="12.7">
-      <c r="A572" s="51"/>
+      <c r="A572" s="47"/>
     </row>
     <row r="573" spans="1:1" ht="12.7">
-      <c r="A573" s="51"/>
+      <c r="A573" s="47"/>
     </row>
     <row r="574" spans="1:1" ht="12.7">
-      <c r="A574" s="51"/>
+      <c r="A574" s="47"/>
     </row>
     <row r="575" spans="1:1" ht="12.7">
-      <c r="A575" s="51"/>
+      <c r="A575" s="47"/>
     </row>
     <row r="576" spans="1:1" ht="12.7">
-      <c r="A576" s="51"/>
+      <c r="A576" s="47"/>
     </row>
     <row r="577" spans="1:1" ht="12.7">
-      <c r="A577" s="51"/>
+      <c r="A577" s="47"/>
     </row>
     <row r="578" spans="1:1" ht="12.7">
-      <c r="A578" s="51"/>
+      <c r="A578" s="47"/>
     </row>
     <row r="579" spans="1:1" ht="12.7">
-      <c r="A579" s="51"/>
+      <c r="A579" s="47"/>
     </row>
     <row r="580" spans="1:1" ht="12.7">
-      <c r="A580" s="51"/>
+      <c r="A580" s="47"/>
     </row>
     <row r="581" spans="1:1" ht="12.7">
-      <c r="A581" s="51"/>
+      <c r="A581" s="47"/>
     </row>
     <row r="582" spans="1:1" ht="12.7">
-      <c r="A582" s="51"/>
+      <c r="A582" s="47"/>
     </row>
     <row r="583" spans="1:1" ht="12.7">
-      <c r="A583" s="51"/>
+      <c r="A583" s="47"/>
     </row>
     <row r="584" spans="1:1" ht="12.7">
-      <c r="A584" s="51"/>
+      <c r="A584" s="47"/>
     </row>
     <row r="585" spans="1:1" ht="12.7">
-      <c r="A585" s="51"/>
+      <c r="A585" s="47"/>
     </row>
     <row r="586" spans="1:1" ht="12.7">
-      <c r="A586" s="51"/>
+      <c r="A586" s="47"/>
     </row>
     <row r="587" spans="1:1" ht="12.7">
-      <c r="A587" s="51"/>
+      <c r="A587" s="47"/>
     </row>
     <row r="588" spans="1:1" ht="12.7">
-      <c r="A588" s="51"/>
+      <c r="A588" s="47"/>
     </row>
     <row r="589" spans="1:1" ht="12.7">
-      <c r="A589" s="51"/>
+      <c r="A589" s="47"/>
     </row>
     <row r="590" spans="1:1" ht="12.7">
-      <c r="A590" s="51"/>
+      <c r="A590" s="47"/>
     </row>
     <row r="591" spans="1:1" ht="12.7">
-      <c r="A591" s="51"/>
+      <c r="A591" s="47"/>
     </row>
     <row r="592" spans="1:1" ht="12.7">
-      <c r="A592" s="51"/>
+      <c r="A592" s="47"/>
     </row>
     <row r="593" spans="1:1" ht="12.7">
-      <c r="A593" s="51"/>
+      <c r="A593" s="47"/>
     </row>
     <row r="594" spans="1:1" ht="12.7">
-      <c r="A594" s="51"/>
+      <c r="A594" s="47"/>
     </row>
     <row r="595" spans="1:1" ht="12.7">
-      <c r="A595" s="51"/>
+      <c r="A595" s="47"/>
     </row>
     <row r="596" spans="1:1" ht="12.7">
-      <c r="A596" s="51"/>
+      <c r="A596" s="47"/>
     </row>
     <row r="597" spans="1:1" ht="12.7">
-      <c r="A597" s="51"/>
+      <c r="A597" s="47"/>
     </row>
     <row r="598" spans="1:1" ht="12.7">
-      <c r="A598" s="51"/>
+      <c r="A598" s="47"/>
     </row>
     <row r="599" spans="1:1" ht="12.7">
-      <c r="A599" s="51"/>
+      <c r="A599" s="47"/>
     </row>
     <row r="600" spans="1:1" ht="12.7">
-      <c r="A600" s="51"/>
+      <c r="A600" s="47"/>
     </row>
     <row r="601" spans="1:1" ht="12.7">
-      <c r="A601" s="51"/>
+      <c r="A601" s="47"/>
     </row>
     <row r="602" spans="1:1" ht="12.7">
-      <c r="A602" s="51"/>
+      <c r="A602" s="47"/>
     </row>
     <row r="603" spans="1:1" ht="12.7">
-      <c r="A603" s="51"/>
+      <c r="A603" s="47"/>
     </row>
     <row r="604" spans="1:1" ht="12.7">
-      <c r="A604" s="51"/>
+      <c r="A604" s="47"/>
     </row>
     <row r="605" spans="1:1" ht="12.7">
-      <c r="A605" s="51"/>
+      <c r="A605" s="47"/>
     </row>
     <row r="606" spans="1:1" ht="12.7">
-      <c r="A606" s="51"/>
+      <c r="A606" s="47"/>
     </row>
     <row r="607" spans="1:1" ht="12.7">
-      <c r="A607" s="51"/>
+      <c r="A607" s="47"/>
     </row>
     <row r="608" spans="1:1" ht="12.7">
-      <c r="A608" s="51"/>
+      <c r="A608" s="47"/>
     </row>
     <row r="609" spans="1:1" ht="12.7">
-      <c r="A609" s="51"/>
+      <c r="A609" s="47"/>
     </row>
     <row r="610" spans="1:1" ht="12.7">
-      <c r="A610" s="51"/>
+      <c r="A610" s="47"/>
     </row>
     <row r="611" spans="1:1" ht="12.7">
-      <c r="A611" s="51"/>
+      <c r="A611" s="47"/>
     </row>
     <row r="612" spans="1:1" ht="12.7">
-      <c r="A612" s="51"/>
+      <c r="A612" s="47"/>
     </row>
     <row r="613" spans="1:1" ht="12.7">
-      <c r="A613" s="51"/>
+      <c r="A613" s="47"/>
     </row>
     <row r="614" spans="1:1" ht="12.7">
-      <c r="A614" s="51"/>
+      <c r="A614" s="47"/>
     </row>
     <row r="615" spans="1:1" ht="12.7">
-      <c r="A615" s="51"/>
+      <c r="A615" s="47"/>
     </row>
     <row r="616" spans="1:1" ht="12.7">
-      <c r="A616" s="51"/>
+      <c r="A616" s="47"/>
     </row>
     <row r="617" spans="1:1" ht="12.7">
-      <c r="A617" s="51"/>
+      <c r="A617" s="47"/>
     </row>
     <row r="618" spans="1:1" ht="12.7">
-      <c r="A618" s="51"/>
+      <c r="A618" s="47"/>
     </row>
     <row r="619" spans="1:1" ht="12.7">
-      <c r="A619" s="51"/>
+      <c r="A619" s="47"/>
     </row>
     <row r="620" spans="1:1" ht="12.7">
-      <c r="A620" s="51"/>
+      <c r="A620" s="47"/>
     </row>
     <row r="621" spans="1:1" ht="12.7">
-      <c r="A621" s="51"/>
+      <c r="A621" s="47"/>
     </row>
     <row r="622" spans="1:1" ht="12.7">
-      <c r="A622" s="51"/>
+      <c r="A622" s="47"/>
     </row>
     <row r="623" spans="1:1" ht="12.7">
-      <c r="A623" s="51"/>
+      <c r="A623" s="47"/>
     </row>
     <row r="624" spans="1:1" ht="12.7">
-      <c r="A624" s="51"/>
+      <c r="A624" s="47"/>
     </row>
     <row r="625" spans="1:1" ht="12.7">
-      <c r="A625" s="51"/>
+      <c r="A625" s="47"/>
     </row>
     <row r="626" spans="1:1" ht="12.7">
-      <c r="A626" s="51"/>
+      <c r="A626" s="47"/>
     </row>
     <row r="627" spans="1:1" ht="12.7">
-      <c r="A627" s="51"/>
+      <c r="A627" s="47"/>
     </row>
     <row r="628" spans="1:1" ht="12.7">
-      <c r="A628" s="51"/>
+      <c r="A628" s="47"/>
     </row>
     <row r="629" spans="1:1" ht="12.7">
-      <c r="A629" s="51"/>
+      <c r="A629" s="47"/>
     </row>
     <row r="630" spans="1:1" ht="12.7">
-      <c r="A630" s="51"/>
+      <c r="A630" s="47"/>
     </row>
     <row r="631" spans="1:1" ht="12.7">
-      <c r="A631" s="51"/>
+      <c r="A631" s="47"/>
     </row>
     <row r="632" spans="1:1" ht="12.7">
-      <c r="A632" s="51"/>
+      <c r="A632" s="47"/>
     </row>
     <row r="633" spans="1:1" ht="12.7">
-      <c r="A633" s="51"/>
+      <c r="A633" s="47"/>
     </row>
     <row r="634" spans="1:1" ht="12.7">
-      <c r="A634" s="51"/>
+      <c r="A634" s="47"/>
     </row>
     <row r="635" spans="1:1" ht="12.7">
-      <c r="A635" s="51"/>
+      <c r="A635" s="47"/>
     </row>
     <row r="636" spans="1:1" ht="12.7">
-      <c r="A636" s="51"/>
+      <c r="A636" s="47"/>
     </row>
     <row r="637" spans="1:1" ht="12.7">
-      <c r="A637" s="51"/>
+      <c r="A637" s="47"/>
     </row>
     <row r="638" spans="1:1" ht="12.7">
-      <c r="A638" s="51"/>
+      <c r="A638" s="47"/>
     </row>
     <row r="639" spans="1:1" ht="12.7">
-      <c r="A639" s="51"/>
+      <c r="A639" s="47"/>
     </row>
     <row r="640" spans="1:1" ht="12.7">
-      <c r="A640" s="51"/>
+      <c r="A640" s="47"/>
     </row>
     <row r="641" spans="1:1" ht="12.7">
-      <c r="A641" s="51"/>
+      <c r="A641" s="47"/>
     </row>
     <row r="642" spans="1:1" ht="12.7">
-      <c r="A642" s="51"/>
+      <c r="A642" s="47"/>
     </row>
     <row r="643" spans="1:1" ht="12.7">
-      <c r="A643" s="51"/>
+      <c r="A643" s="47"/>
     </row>
     <row r="644" spans="1:1" ht="12.7">
-      <c r="A644" s="51"/>
+      <c r="A644" s="47"/>
     </row>
     <row r="645" spans="1:1" ht="12.7">
-      <c r="A645" s="51"/>
+      <c r="A645" s="47"/>
     </row>
     <row r="646" spans="1:1" ht="12.7">
-      <c r="A646" s="51"/>
+      <c r="A646" s="47"/>
     </row>
     <row r="647" spans="1:1" ht="12.7">
-      <c r="A647" s="51"/>
+      <c r="A647" s="47"/>
     </row>
     <row r="648" spans="1:1" ht="12.7">
-      <c r="A648" s="51"/>
+      <c r="A648" s="47"/>
     </row>
     <row r="649" spans="1:1" ht="12.7">
-      <c r="A649" s="51"/>
+      <c r="A649" s="47"/>
     </row>
     <row r="650" spans="1:1" ht="12.7">
-      <c r="A650" s="51"/>
+      <c r="A650" s="47"/>
     </row>
     <row r="651" spans="1:1" ht="12.7">
-      <c r="A651" s="51"/>
+      <c r="A651" s="47"/>
     </row>
     <row r="652" spans="1:1" ht="12.7">
-      <c r="A652" s="51"/>
+      <c r="A652" s="47"/>
     </row>
     <row r="653" spans="1:1" ht="12.7">
-      <c r="A653" s="51"/>
+      <c r="A653" s="47"/>
     </row>
     <row r="654" spans="1:1" ht="12.7">
-      <c r="A654" s="51"/>
+      <c r="A654" s="47"/>
     </row>
     <row r="655" spans="1:1" ht="12.7">
-      <c r="A655" s="51"/>
+      <c r="A655" s="47"/>
     </row>
     <row r="656" spans="1:1" ht="12.7">
-      <c r="A656" s="51"/>
+      <c r="A656" s="47"/>
     </row>
     <row r="657" spans="1:1" ht="12.7">
-      <c r="A657" s="51"/>
+      <c r="A657" s="47"/>
     </row>
     <row r="658" spans="1:1" ht="12.7">
-      <c r="A658" s="51"/>
+      <c r="A658" s="47"/>
     </row>
     <row r="659" spans="1:1" ht="12.7">
-      <c r="A659" s="51"/>
+      <c r="A659" s="47"/>
     </row>
     <row r="660" spans="1:1" ht="12.7">
-      <c r="A660" s="51"/>
+      <c r="A660" s="47"/>
     </row>
     <row r="661" spans="1:1" ht="12.7">
-      <c r="A661" s="51"/>
+      <c r="A661" s="47"/>
     </row>
     <row r="662" spans="1:1" ht="12.7">
-      <c r="A662" s="51"/>
+      <c r="A662" s="47"/>
     </row>
     <row r="663" spans="1:1" ht="12.7">
-      <c r="A663" s="51"/>
+      <c r="A663" s="47"/>
     </row>
     <row r="664" spans="1:1" ht="12.7">
-      <c r="A664" s="51"/>
+      <c r="A664" s="47"/>
     </row>
     <row r="665" spans="1:1" ht="12.7">
-      <c r="A665" s="51"/>
+      <c r="A665" s="47"/>
     </row>
     <row r="666" spans="1:1" ht="12.7">
-      <c r="A666" s="51"/>
+      <c r="A666" s="47"/>
     </row>
     <row r="667" spans="1:1" ht="12.7">
-      <c r="A667" s="51"/>
+      <c r="A667" s="47"/>
     </row>
     <row r="668" spans="1:1" ht="12.7">
-      <c r="A668" s="51"/>
+      <c r="A668" s="47"/>
     </row>
     <row r="669" spans="1:1" ht="12.7">
-      <c r="A669" s="51"/>
+      <c r="A669" s="47"/>
     </row>
     <row r="670" spans="1:1" ht="12.7">
-      <c r="A670" s="51"/>
+      <c r="A670" s="47"/>
     </row>
     <row r="671" spans="1:1" ht="12.7">
-      <c r="A671" s="51"/>
+      <c r="A671" s="47"/>
     </row>
     <row r="672" spans="1:1" ht="12.7">
-      <c r="A672" s="51"/>
+      <c r="A672" s="47"/>
     </row>
     <row r="673" spans="1:1" ht="12.7">
-      <c r="A673" s="51"/>
+      <c r="A673" s="47"/>
     </row>
     <row r="674" spans="1:1" ht="12.7">
-      <c r="A674" s="51"/>
+      <c r="A674" s="47"/>
     </row>
     <row r="675" spans="1:1" ht="12.7">
-      <c r="A675" s="51"/>
+      <c r="A675" s="47"/>
     </row>
     <row r="676" spans="1:1" ht="12.7">
-      <c r="A676" s="51"/>
+      <c r="A676" s="47"/>
     </row>
     <row r="677" spans="1:1" ht="12.7">
-      <c r="A677" s="51"/>
+      <c r="A677" s="47"/>
     </row>
     <row r="678" spans="1:1" ht="12.7">
-      <c r="A678" s="51"/>
+      <c r="A678" s="47"/>
     </row>
     <row r="679" spans="1:1" ht="12.7">
-      <c r="A679" s="51"/>
+      <c r="A679" s="47"/>
     </row>
     <row r="680" spans="1:1" ht="12.7">
-      <c r="A680" s="51"/>
+      <c r="A680" s="47"/>
     </row>
     <row r="681" spans="1:1" ht="12.7">
-      <c r="A681" s="51"/>
+      <c r="A681" s="47"/>
     </row>
     <row r="682" spans="1:1" ht="12.7">
-      <c r="A682" s="51"/>
+      <c r="A682" s="47"/>
     </row>
     <row r="683" spans="1:1" ht="12.7">
-      <c r="A683" s="51"/>
+      <c r="A683" s="47"/>
     </row>
     <row r="684" spans="1:1" ht="12.7">
-      <c r="A684" s="51"/>
+      <c r="A684" s="47"/>
     </row>
     <row r="685" spans="1:1" ht="12.7">
-      <c r="A685" s="51"/>
+      <c r="A685" s="47"/>
     </row>
     <row r="686" spans="1:1" ht="12.7">
-      <c r="A686" s="51"/>
+      <c r="A686" s="47"/>
     </row>
     <row r="687" spans="1:1" ht="12.7">
-      <c r="A687" s="51"/>
+      <c r="A687" s="47"/>
     </row>
     <row r="688" spans="1:1" ht="12.7">
-      <c r="A688" s="51"/>
+      <c r="A688" s="47"/>
     </row>
     <row r="689" spans="1:1" ht="12.7">
-      <c r="A689" s="51"/>
+      <c r="A689" s="47"/>
     </row>
     <row r="690" spans="1:1" ht="12.7">
-      <c r="A690" s="51"/>
+      <c r="A690" s="47"/>
     </row>
     <row r="691" spans="1:1" ht="12.7">
-      <c r="A691" s="51"/>
+      <c r="A691" s="47"/>
     </row>
     <row r="692" spans="1:1" ht="12.7">
-      <c r="A692" s="51"/>
+      <c r="A692" s="47"/>
     </row>
     <row r="693" spans="1:1" ht="12.7">
-      <c r="A693" s="51"/>
+      <c r="A693" s="47"/>
     </row>
     <row r="694" spans="1:1" ht="12.7">
-      <c r="A694" s="51"/>
+      <c r="A694" s="47"/>
     </row>
     <row r="695" spans="1:1" ht="12.7">
-      <c r="A695" s="51"/>
+      <c r="A695" s="47"/>
     </row>
     <row r="696" spans="1:1" ht="12.7">
-      <c r="A696" s="51"/>
+      <c r="A696" s="47"/>
     </row>
     <row r="697" spans="1:1" ht="12.7">
-      <c r="A697" s="51"/>
+      <c r="A697" s="47"/>
     </row>
     <row r="698" spans="1:1" ht="12.7">
-      <c r="A698" s="51"/>
+      <c r="A698" s="47"/>
     </row>
     <row r="699" spans="1:1" ht="12.7">
-      <c r="A699" s="51"/>
+      <c r="A699" s="47"/>
     </row>
     <row r="700" spans="1:1" ht="12.7">
-      <c r="A700" s="51"/>
+      <c r="A700" s="47"/>
     </row>
     <row r="701" spans="1:1" ht="12.7">
-      <c r="A701" s="51"/>
+      <c r="A701" s="47"/>
     </row>
     <row r="702" spans="1:1" ht="12.7">
-      <c r="A702" s="51"/>
+      <c r="A702" s="47"/>
     </row>
     <row r="703" spans="1:1" ht="12.7">
-      <c r="A703" s="51"/>
+      <c r="A703" s="47"/>
     </row>
     <row r="704" spans="1:1" ht="12.7">
-      <c r="A704" s="51"/>
+      <c r="A704" s="47"/>
     </row>
     <row r="705" spans="1:1" ht="12.7">
-      <c r="A705" s="51"/>
+      <c r="A705" s="47"/>
     </row>
     <row r="706" spans="1:1" ht="12.7">
-      <c r="A706" s="51"/>
+      <c r="A706" s="47"/>
     </row>
     <row r="707" spans="1:1" ht="12.7">
-      <c r="A707" s="51"/>
+      <c r="A707" s="47"/>
     </row>
     <row r="708" spans="1:1" ht="12.7">
-      <c r="A708" s="51"/>
+      <c r="A708" s="47"/>
     </row>
     <row r="709" spans="1:1" ht="12.7">
-      <c r="A709" s="51"/>
+      <c r="A709" s="47"/>
     </row>
     <row r="710" spans="1:1" ht="12.7">
-      <c r="A710" s="51"/>
+      <c r="A710" s="47"/>
     </row>
     <row r="711" spans="1:1" ht="12.7">
-      <c r="A711" s="51"/>
+      <c r="A711" s="47"/>
     </row>
     <row r="712" spans="1:1" ht="12.7">
-      <c r="A712" s="51"/>
+      <c r="A712" s="47"/>
     </row>
     <row r="713" spans="1:1" ht="12.7">
-      <c r="A713" s="51"/>
+      <c r="A713" s="47"/>
     </row>
     <row r="714" spans="1:1" ht="12.7">
-      <c r="A714" s="51"/>
+      <c r="A714" s="47"/>
     </row>
     <row r="715" spans="1:1" ht="12.7">
-      <c r="A715" s="51"/>
+      <c r="A715" s="47"/>
     </row>
     <row r="716" spans="1:1" ht="12.7">
-      <c r="A716" s="51"/>
+      <c r="A716" s="47"/>
     </row>
     <row r="717" spans="1:1" ht="12.7">
-      <c r="A717" s="51"/>
+      <c r="A717" s="47"/>
     </row>
     <row r="718" spans="1:1" ht="12.7">
-      <c r="A718" s="51"/>
+      <c r="A718" s="47"/>
     </row>
     <row r="719" spans="1:1" ht="12.7">
-      <c r="A719" s="51"/>
+      <c r="A719" s="47"/>
     </row>
     <row r="720" spans="1:1" ht="12.7">
-      <c r="A720" s="51"/>
+      <c r="A720" s="47"/>
     </row>
     <row r="721" spans="1:1" ht="12.7">
-      <c r="A721" s="51"/>
+      <c r="A721" s="47"/>
     </row>
     <row r="722" spans="1:1" ht="12.7">
-      <c r="A722" s="51"/>
+      <c r="A722" s="47"/>
     </row>
     <row r="723" spans="1:1" ht="12.7">
-      <c r="A723" s="51"/>
+      <c r="A723" s="47"/>
     </row>
     <row r="724" spans="1:1" ht="12.7">
-      <c r="A724" s="51"/>
+      <c r="A724" s="47"/>
     </row>
     <row r="725" spans="1:1" ht="12.7">
-      <c r="A725" s="51"/>
+      <c r="A725" s="47"/>
     </row>
     <row r="726" spans="1:1" ht="12.7">
-      <c r="A726" s="51"/>
+      <c r="A726" s="47"/>
     </row>
     <row r="727" spans="1:1" ht="12.7">
-      <c r="A727" s="51"/>
+      <c r="A727" s="47"/>
     </row>
     <row r="728" spans="1:1" ht="12.7">
-      <c r="A728" s="51"/>
+      <c r="A728" s="47"/>
     </row>
     <row r="729" spans="1:1" ht="12.7">
-      <c r="A729" s="51"/>
+      <c r="A729" s="47"/>
     </row>
     <row r="730" spans="1:1" ht="12.7">
-      <c r="A730" s="51"/>
+      <c r="A730" s="47"/>
     </row>
     <row r="731" spans="1:1" ht="12.7">
-      <c r="A731" s="51"/>
+      <c r="A731" s="47"/>
     </row>
     <row r="732" spans="1:1" ht="12.7">
-      <c r="A732" s="51"/>
+      <c r="A732" s="47"/>
     </row>
     <row r="733" spans="1:1" ht="12.7">
-      <c r="A733" s="51"/>
+      <c r="A733" s="47"/>
     </row>
     <row r="734" spans="1:1" ht="12.7">
-      <c r="A734" s="51"/>
+      <c r="A734" s="47"/>
     </row>
     <row r="735" spans="1:1" ht="12.7">
-      <c r="A735" s="51"/>
+      <c r="A735" s="47"/>
     </row>
     <row r="736" spans="1:1" ht="12.7">
-      <c r="A736" s="51"/>
+      <c r="A736" s="47"/>
     </row>
     <row r="737" spans="1:1" ht="12.7">
-      <c r="A737" s="51"/>
+      <c r="A737" s="47"/>
     </row>
     <row r="738" spans="1:1" ht="12.7">
-      <c r="A738" s="51"/>
+      <c r="A738" s="47"/>
     </row>
     <row r="739" spans="1:1" ht="12.7">
-      <c r="A739" s="51"/>
+      <c r="A739" s="47"/>
     </row>
     <row r="740" spans="1:1" ht="12.7">
-      <c r="A740" s="51"/>
+      <c r="A740" s="47"/>
     </row>
     <row r="741" spans="1:1" ht="12.7">
-      <c r="A741" s="51"/>
+      <c r="A741" s="47"/>
     </row>
     <row r="742" spans="1:1" ht="12.7">
-      <c r="A742" s="51"/>
+      <c r="A742" s="47"/>
     </row>
     <row r="743" spans="1:1" ht="12.7">
-      <c r="A743" s="51"/>
+      <c r="A743" s="47"/>
     </row>
     <row r="744" spans="1:1" ht="12.7">
-      <c r="A744" s="51"/>
+      <c r="A744" s="47"/>
     </row>
     <row r="745" spans="1:1" ht="12.7">
-      <c r="A745" s="51"/>
+      <c r="A745" s="47"/>
     </row>
     <row r="746" spans="1:1" ht="12.7">
-      <c r="A746" s="51"/>
+      <c r="A746" s="47"/>
     </row>
     <row r="747" spans="1:1" ht="12.7">
-      <c r="A747" s="51"/>
+      <c r="A747" s="47"/>
     </row>
     <row r="748" spans="1:1" ht="12.7">
-      <c r="A748" s="51"/>
+      <c r="A748" s="47"/>
     </row>
     <row r="749" spans="1:1" ht="12.7">
-      <c r="A749" s="51"/>
+      <c r="A749" s="47"/>
     </row>
     <row r="750" spans="1:1" ht="12.7">
-      <c r="A750" s="51"/>
+      <c r="A750" s="47"/>
     </row>
     <row r="751" spans="1:1" ht="12.7">
-      <c r="A751" s="51"/>
+      <c r="A751" s="47"/>
     </row>
     <row r="752" spans="1:1" ht="12.7">
-      <c r="A752" s="51"/>
+      <c r="A752" s="47"/>
     </row>
     <row r="753" spans="1:1" ht="12.7">
-      <c r="A753" s="51"/>
+      <c r="A753" s="47"/>
     </row>
     <row r="754" spans="1:1" ht="12.7">
-      <c r="A754" s="51"/>
+      <c r="A754" s="47"/>
     </row>
     <row r="755" spans="1:1" ht="12.7">
-      <c r="A755" s="51"/>
+      <c r="A755" s="47"/>
     </row>
     <row r="756" spans="1:1" ht="12.7">
-      <c r="A756" s="51"/>
+      <c r="A756" s="47"/>
     </row>
     <row r="757" spans="1:1" ht="12.7">
-      <c r="A757" s="51"/>
+      <c r="A757" s="47"/>
     </row>
     <row r="758" spans="1:1" ht="12.7">
-      <c r="A758" s="51"/>
+      <c r="A758" s="47"/>
     </row>
     <row r="759" spans="1:1" ht="12.7">
-      <c r="A759" s="51"/>
+      <c r="A759" s="47"/>
     </row>
     <row r="760" spans="1:1" ht="12.7">
-      <c r="A760" s="51"/>
+      <c r="A760" s="47"/>
     </row>
     <row r="761" spans="1:1" ht="12.7">
-      <c r="A761" s="51"/>
+      <c r="A761" s="47"/>
     </row>
     <row r="762" spans="1:1" ht="12.7">
-      <c r="A762" s="51"/>
+      <c r="A762" s="47"/>
     </row>
     <row r="763" spans="1:1" ht="12.7">
-      <c r="A763" s="51"/>
+      <c r="A763" s="47"/>
     </row>
     <row r="764" spans="1:1" ht="12.7">
-      <c r="A764" s="51"/>
+      <c r="A764" s="47"/>
     </row>
     <row r="765" spans="1:1" ht="12.7">
-      <c r="A765" s="51"/>
+      <c r="A765" s="47"/>
     </row>
     <row r="766" spans="1:1" ht="12.7">
-      <c r="A766" s="51"/>
+      <c r="A766" s="47"/>
     </row>
     <row r="767" spans="1:1" ht="12.7">
-      <c r="A767" s="51"/>
+      <c r="A767" s="47"/>
     </row>
     <row r="768" spans="1:1" ht="12.7">
-      <c r="A768" s="51"/>
+      <c r="A768" s="47"/>
     </row>
     <row r="769" spans="1:1" ht="12.7">
-      <c r="A769" s="51"/>
+      <c r="A769" s="47"/>
     </row>
     <row r="770" spans="1:1" ht="12.7">
-      <c r="A770" s="51"/>
+      <c r="A770" s="47"/>
     </row>
     <row r="771" spans="1:1" ht="12.7">
-      <c r="A771" s="51"/>
+      <c r="A771" s="47"/>
     </row>
     <row r="772" spans="1:1" ht="12.7">
-      <c r="A772" s="51"/>
+      <c r="A772" s="47"/>
     </row>
     <row r="773" spans="1:1" ht="12.7">
-      <c r="A773" s="51"/>
+      <c r="A773" s="47"/>
     </row>
     <row r="774" spans="1:1" ht="12.7">
-      <c r="A774" s="51"/>
+      <c r="A774" s="47"/>
     </row>
     <row r="775" spans="1:1" ht="12.7">
-      <c r="A775" s="51"/>
+      <c r="A775" s="47"/>
     </row>
     <row r="776" spans="1:1" ht="12.7">
-      <c r="A776" s="51"/>
+      <c r="A776" s="47"/>
     </row>
     <row r="777" spans="1:1" ht="12.7">
-      <c r="A777" s="51"/>
+      <c r="A777" s="47"/>
     </row>
     <row r="778" spans="1:1" ht="12.7">
-      <c r="A778" s="51"/>
+      <c r="A778" s="47"/>
     </row>
     <row r="779" spans="1:1" ht="12.7">
-      <c r="A779" s="51"/>
+      <c r="A779" s="47"/>
     </row>
     <row r="780" spans="1:1" ht="12.7">
-      <c r="A780" s="51"/>
+      <c r="A780" s="47"/>
     </row>
     <row r="781" spans="1:1" ht="12.7">
-      <c r="A781" s="51"/>
+      <c r="A781" s="47"/>
     </row>
     <row r="782" spans="1:1" ht="12.7">
-      <c r="A782" s="51"/>
+      <c r="A782" s="47"/>
     </row>
     <row r="783" spans="1:1" ht="12.7">
-      <c r="A783" s="51"/>
+      <c r="A783" s="47"/>
     </row>
     <row r="784" spans="1:1" ht="12.7">
-      <c r="A784" s="51"/>
+      <c r="A784" s="47"/>
     </row>
     <row r="785" spans="1:1" ht="12.7">
-      <c r="A785" s="51"/>
+      <c r="A785" s="47"/>
     </row>
     <row r="786" spans="1:1" ht="12.7">
-      <c r="A786" s="51"/>
+      <c r="A786" s="47"/>
     </row>
     <row r="787" spans="1:1" ht="12.7">
-      <c r="A787" s="51"/>
+      <c r="A787" s="47"/>
     </row>
     <row r="788" spans="1:1" ht="12.7">
-      <c r="A788" s="51"/>
+      <c r="A788" s="47"/>
     </row>
     <row r="789" spans="1:1" ht="12.7">
-      <c r="A789" s="51"/>
+      <c r="A789" s="47"/>
     </row>
     <row r="790" spans="1:1" ht="12.7">
-      <c r="A790" s="51"/>
+      <c r="A790" s="47"/>
     </row>
     <row r="791" spans="1:1" ht="12.7">
-      <c r="A791" s="51"/>
+      <c r="A791" s="47"/>
     </row>
     <row r="792" spans="1:1" ht="12.7">
-      <c r="A792" s="51"/>
+      <c r="A792" s="47"/>
     </row>
     <row r="793" spans="1:1" ht="12.7">
-      <c r="A793" s="51"/>
+      <c r="A793" s="47"/>
     </row>
     <row r="794" spans="1:1" ht="12.7">
-      <c r="A794" s="51"/>
+      <c r="A794" s="47"/>
     </row>
     <row r="795" spans="1:1" ht="12.7">
-      <c r="A795" s="51"/>
+      <c r="A795" s="47"/>
     </row>
     <row r="796" spans="1:1" ht="12.7">
-      <c r="A796" s="51"/>
+      <c r="A796" s="47"/>
     </row>
     <row r="797" spans="1:1" ht="12.7">
-      <c r="A797" s="51"/>
+      <c r="A797" s="47"/>
     </row>
     <row r="798" spans="1:1" ht="12.7">
-      <c r="A798" s="51"/>
+      <c r="A798" s="47"/>
     </row>
     <row r="799" spans="1:1" ht="12.7">
-      <c r="A799" s="51"/>
+      <c r="A799" s="47"/>
     </row>
     <row r="800" spans="1:1" ht="12.7">
-      <c r="A800" s="51"/>
+      <c r="A800" s="47"/>
     </row>
     <row r="801" spans="1:1" ht="12.7">
-      <c r="A801" s="51"/>
+      <c r="A801" s="47"/>
     </row>
     <row r="802" spans="1:1" ht="12.7">
-      <c r="A802" s="51"/>
+      <c r="A802" s="47"/>
     </row>
     <row r="803" spans="1:1" ht="12.7">
-      <c r="A803" s="51"/>
+      <c r="A803" s="47"/>
     </row>
     <row r="804" spans="1:1" ht="12.7">
-      <c r="A804" s="51"/>
+      <c r="A804" s="47"/>
     </row>
     <row r="805" spans="1:1" ht="12.7">
-      <c r="A805" s="51"/>
+      <c r="A805" s="47"/>
     </row>
     <row r="806" spans="1:1" ht="12.7">
-      <c r="A806" s="51"/>
+      <c r="A806" s="47"/>
     </row>
     <row r="807" spans="1:1" ht="12.7">
-      <c r="A807" s="51"/>
+      <c r="A807" s="47"/>
     </row>
     <row r="808" spans="1:1" ht="12.7">
-      <c r="A808" s="51"/>
+      <c r="A808" s="47"/>
     </row>
     <row r="809" spans="1:1" ht="12.7">
-      <c r="A809" s="51"/>
+      <c r="A809" s="47"/>
     </row>
     <row r="810" spans="1:1" ht="12.7">
-      <c r="A810" s="51"/>
+      <c r="A810" s="47"/>
     </row>
     <row r="811" spans="1:1" ht="12.7">
-      <c r="A811" s="51"/>
+      <c r="A811" s="47"/>
     </row>
     <row r="812" spans="1:1" ht="12.7">
-      <c r="A812" s="51"/>
+      <c r="A812" s="47"/>
     </row>
     <row r="813" spans="1:1" ht="12.7">
-      <c r="A813" s="51"/>
+      <c r="A813" s="47"/>
     </row>
     <row r="814" spans="1:1" ht="12.7">
-      <c r="A814" s="51"/>
+      <c r="A814" s="47"/>
     </row>
     <row r="815" spans="1:1" ht="12.7">
-      <c r="A815" s="51"/>
+      <c r="A815" s="47"/>
     </row>
     <row r="816" spans="1:1" ht="12.7">
-      <c r="A816" s="51"/>
+      <c r="A816" s="47"/>
     </row>
     <row r="817" spans="1:1" ht="12.7">
-      <c r="A817" s="51"/>
+      <c r="A817" s="47"/>
     </row>
     <row r="818" spans="1:1" ht="12.7">
-      <c r="A818" s="51"/>
+      <c r="A818" s="47"/>
     </row>
     <row r="819" spans="1:1" ht="12.7">
-      <c r="A819" s="51"/>
+      <c r="A819" s="47"/>
     </row>
     <row r="820" spans="1:1" ht="12.7">
-      <c r="A820" s="51"/>
+      <c r="A820" s="47"/>
     </row>
     <row r="821" spans="1:1" ht="12.7">
-      <c r="A821" s="51"/>
+      <c r="A821" s="47"/>
     </row>
     <row r="822" spans="1:1" ht="12.7">
-      <c r="A822" s="51"/>
+      <c r="A822" s="47"/>
     </row>
     <row r="823" spans="1:1" ht="12.7">
-      <c r="A823" s="51"/>
+      <c r="A823" s="47"/>
     </row>
     <row r="824" spans="1:1" ht="12.7">
-      <c r="A824" s="51"/>
+      <c r="A824" s="47"/>
     </row>
     <row r="825" spans="1:1" ht="12.7">
-      <c r="A825" s="51"/>
+      <c r="A825" s="47"/>
     </row>
     <row r="826" spans="1:1" ht="12.7">
-      <c r="A826" s="51"/>
+      <c r="A826" s="47"/>
     </row>
     <row r="827" spans="1:1" ht="12.7">
-      <c r="A827" s="51"/>
+      <c r="A827" s="47"/>
     </row>
     <row r="828" spans="1:1" ht="12.7">
-      <c r="A828" s="51"/>
+      <c r="A828" s="47"/>
     </row>
     <row r="829" spans="1:1" ht="12.7">
-      <c r="A829" s="51"/>
+      <c r="A829" s="47"/>
     </row>
     <row r="830" spans="1:1" ht="12.7">
-      <c r="A830" s="51"/>
+      <c r="A830" s="47"/>
     </row>
     <row r="831" spans="1:1" ht="12.7">
-      <c r="A831" s="51"/>
+      <c r="A831" s="47"/>
     </row>
     <row r="832" spans="1:1" ht="12.7">
-      <c r="A832" s="51"/>
+      <c r="A832" s="47"/>
     </row>
     <row r="833" spans="1:1" ht="12.7">
-      <c r="A833" s="51"/>
+      <c r="A833" s="47"/>
     </row>
     <row r="834" spans="1:1" ht="12.7">
-      <c r="A834" s="51"/>
+      <c r="A834" s="47"/>
     </row>
     <row r="835" spans="1:1" ht="12.7">
-      <c r="A835" s="51"/>
+      <c r="A835" s="47"/>
     </row>
     <row r="836" spans="1:1" ht="12.7">
-      <c r="A836" s="51"/>
+      <c r="A836" s="47"/>
     </row>
     <row r="837" spans="1:1" ht="12.7">
-      <c r="A837" s="51"/>
+      <c r="A837" s="47"/>
     </row>
     <row r="838" spans="1:1" ht="12.7">
-      <c r="A838" s="51"/>
+      <c r="A838" s="47"/>
     </row>
     <row r="839" spans="1:1" ht="12.7">
-      <c r="A839" s="51"/>
+      <c r="A839" s="47"/>
     </row>
     <row r="840" spans="1:1" ht="12.7">
-      <c r="A840" s="51"/>
+      <c r="A840" s="47"/>
     </row>
     <row r="841" spans="1:1" ht="12.7">
-      <c r="A841" s="51"/>
+      <c r="A841" s="47"/>
     </row>
     <row r="842" spans="1:1" ht="12.7">
-      <c r="A842" s="51"/>
+      <c r="A842" s="47"/>
     </row>
     <row r="843" spans="1:1" ht="12.7">
-      <c r="A843" s="51"/>
+      <c r="A843" s="47"/>
     </row>
     <row r="844" spans="1:1" ht="12.7">
-      <c r="A844" s="51"/>
+      <c r="A844" s="47"/>
     </row>
     <row r="845" spans="1:1" ht="12.7">
-      <c r="A845" s="51"/>
+      <c r="A845" s="47"/>
     </row>
     <row r="846" spans="1:1" ht="12.7">
-      <c r="A846" s="51"/>
+      <c r="A846" s="47"/>
     </row>
     <row r="847" spans="1:1" ht="12.7">
-      <c r="A847" s="51"/>
+      <c r="A847" s="47"/>
     </row>
     <row r="848" spans="1:1" ht="12.7">
-      <c r="A848" s="51"/>
+      <c r="A848" s="47"/>
     </row>
     <row r="849" spans="1:1" ht="12.7">
-      <c r="A849" s="51"/>
+      <c r="A849" s="47"/>
     </row>
     <row r="850" spans="1:1" ht="12.7">
-      <c r="A850" s="51"/>
+      <c r="A850" s="47"/>
     </row>
     <row r="851" spans="1:1" ht="12.7">
-      <c r="A851" s="51"/>
+      <c r="A851" s="47"/>
     </row>
     <row r="852" spans="1:1" ht="12.7">
-      <c r="A852" s="51"/>
+      <c r="A852" s="47"/>
     </row>
     <row r="853" spans="1:1" ht="12.7">
-      <c r="A853" s="51"/>
+      <c r="A853" s="47"/>
     </row>
     <row r="854" spans="1:1" ht="12.7">
-      <c r="A854" s="51"/>
+      <c r="A854" s="47"/>
     </row>
     <row r="855" spans="1:1" ht="12.7">
-      <c r="A855" s="51"/>
+      <c r="A855" s="47"/>
     </row>
     <row r="856" spans="1:1" ht="12.7">
-      <c r="A856" s="51"/>
+      <c r="A856" s="47"/>
     </row>
     <row r="857" spans="1:1" ht="12.7">
-      <c r="A857" s="51"/>
+      <c r="A857" s="47"/>
     </row>
     <row r="858" spans="1:1" ht="12.7">
-      <c r="A858" s="51"/>
+      <c r="A858" s="47"/>
     </row>
     <row r="859" spans="1:1" ht="12.7">
-      <c r="A859" s="51"/>
+      <c r="A859" s="47"/>
     </row>
     <row r="860" spans="1:1" ht="12.7">
-      <c r="A860" s="51"/>
+      <c r="A860" s="47"/>
     </row>
     <row r="861" spans="1:1" ht="12.7">
-      <c r="A861" s="51"/>
+      <c r="A861" s="47"/>
     </row>
     <row r="862" spans="1:1" ht="12.7">
-      <c r="A862" s="51"/>
+      <c r="A862" s="47"/>
     </row>
     <row r="863" spans="1:1" ht="12.7">
-      <c r="A863" s="51"/>
+      <c r="A863" s="47"/>
     </row>
     <row r="864" spans="1:1" ht="12.7">
-      <c r="A864" s="51"/>
+      <c r="A864" s="47"/>
     </row>
     <row r="865" spans="1:1" ht="12.7">
-      <c r="A865" s="51"/>
+      <c r="A865" s="47"/>
     </row>
     <row r="866" spans="1:1" ht="12.7">
-      <c r="A866" s="51"/>
+      <c r="A866" s="47"/>
     </row>
     <row r="867" spans="1:1" ht="12.7">
-      <c r="A867" s="51"/>
+      <c r="A867" s="47"/>
     </row>
     <row r="868" spans="1:1" ht="12.7">
-      <c r="A868" s="51"/>
+      <c r="A868" s="47"/>
     </row>
     <row r="869" spans="1:1" ht="12.7">
-      <c r="A869" s="51"/>
+      <c r="A869" s="47"/>
     </row>
     <row r="870" spans="1:1" ht="12.7">
-      <c r="A870" s="51"/>
+      <c r="A870" s="47"/>
     </row>
     <row r="871" spans="1:1" ht="12.7">
-      <c r="A871" s="51"/>
+      <c r="A871" s="47"/>
     </row>
     <row r="872" spans="1:1" ht="12.7">
-      <c r="A872" s="51"/>
+      <c r="A872" s="47"/>
     </row>
     <row r="873" spans="1:1" ht="12.7">
-      <c r="A873" s="51"/>
+      <c r="A873" s="47"/>
     </row>
     <row r="874" spans="1:1" ht="12.7">
-      <c r="A874" s="51"/>
+      <c r="A874" s="47"/>
     </row>
     <row r="875" spans="1:1" ht="12.7">
-      <c r="A875" s="51"/>
+      <c r="A875" s="47"/>
     </row>
     <row r="876" spans="1:1" ht="12.7">
-      <c r="A876" s="51"/>
+      <c r="A876" s="47"/>
     </row>
     <row r="877" spans="1:1" ht="12.7">
-      <c r="A877" s="51"/>
+      <c r="A877" s="47"/>
     </row>
     <row r="878" spans="1:1" ht="12.7">
-      <c r="A878" s="51"/>
+      <c r="A878" s="47"/>
     </row>
     <row r="879" spans="1:1" ht="12.7">
-      <c r="A879" s="51"/>
+      <c r="A879" s="47"/>
     </row>
     <row r="880" spans="1:1" ht="12.7">
-      <c r="A880" s="51"/>
+      <c r="A880" s="47"/>
     </row>
     <row r="881" spans="1:1" ht="12.7">
-      <c r="A881" s="51"/>
+      <c r="A881" s="47"/>
     </row>
     <row r="882" spans="1:1" ht="12.7">
-      <c r="A882" s="51"/>
+      <c r="A882" s="47"/>
     </row>
     <row r="883" spans="1:1" ht="12.7">
-      <c r="A883" s="51"/>
+      <c r="A883" s="47"/>
     </row>
     <row r="884" spans="1:1" ht="12.7">
-      <c r="A884" s="51"/>
+      <c r="A884" s="47"/>
     </row>
     <row r="885" spans="1:1" ht="12.7">
-      <c r="A885" s="51"/>
+      <c r="A885" s="47"/>
     </row>
     <row r="886" spans="1:1" ht="12.7">
-      <c r="A886" s="51"/>
+      <c r="A886" s="47"/>
     </row>
     <row r="887" spans="1:1" ht="12.7">
-      <c r="A887" s="51"/>
+      <c r="A887" s="47"/>
     </row>
     <row r="888" spans="1:1" ht="12.7">
-      <c r="A888" s="51"/>
+      <c r="A888" s="47"/>
     </row>
     <row r="889" spans="1:1" ht="12.7">
-      <c r="A889" s="51"/>
+      <c r="A889" s="47"/>
     </row>
     <row r="890" spans="1:1" ht="12.7">
-      <c r="A890" s="51"/>
+      <c r="A890" s="47"/>
     </row>
     <row r="891" spans="1:1" ht="12.7">
-      <c r="A891" s="51"/>
+      <c r="A891" s="47"/>
     </row>
     <row r="892" spans="1:1" ht="12.7">
-      <c r="A892" s="51"/>
+      <c r="A892" s="47"/>
     </row>
     <row r="893" spans="1:1" ht="12.7">
-      <c r="A893" s="51"/>
+      <c r="A893" s="47"/>
     </row>
     <row r="894" spans="1:1" ht="12.7">
-      <c r="A894" s="51"/>
+      <c r="A894" s="47"/>
     </row>
     <row r="895" spans="1:1" ht="12.7">
-      <c r="A895" s="51"/>
+      <c r="A895" s="47"/>
     </row>
     <row r="896" spans="1:1" ht="12.7">
-      <c r="A896" s="51"/>
+      <c r="A896" s="47"/>
     </row>
     <row r="897" spans="1:1" ht="12.7">
-      <c r="A897" s="51"/>
+      <c r="A897" s="47"/>
     </row>
     <row r="898" spans="1:1" ht="12.7">
-      <c r="A898" s="51"/>
+      <c r="A898" s="47"/>
     </row>
     <row r="899" spans="1:1" ht="12.7">
-      <c r="A899" s="51"/>
+      <c r="A899" s="47"/>
     </row>
     <row r="900" spans="1:1" ht="12.7">
-      <c r="A900" s="51"/>
+      <c r="A900" s="47"/>
     </row>
     <row r="901" spans="1:1" ht="12.7">
-      <c r="A901" s="51"/>
+      <c r="A901" s="47"/>
     </row>
     <row r="902" spans="1:1" ht="12.7">
-      <c r="A902" s="51"/>
+      <c r="A902" s="47"/>
     </row>
     <row r="903" spans="1:1" ht="12.7">
-      <c r="A903" s="51"/>
+      <c r="A903" s="47"/>
     </row>
     <row r="904" spans="1:1" ht="12.7">
-      <c r="A904" s="51"/>
+      <c r="A904" s="47"/>
     </row>
     <row r="905" spans="1:1" ht="12.7">
-      <c r="A905" s="51"/>
+      <c r="A905" s="47"/>
     </row>
     <row r="906" spans="1:1" ht="12.7">
-      <c r="A906" s="51"/>
+      <c r="A906" s="47"/>
     </row>
     <row r="907" spans="1:1" ht="12.7">
-      <c r="A907" s="51"/>
+      <c r="A907" s="47"/>
     </row>
     <row r="908" spans="1:1" ht="12.7">
-      <c r="A908" s="51"/>
+      <c r="A908" s="47"/>
     </row>
     <row r="909" spans="1:1" ht="12.7">
-      <c r="A909" s="51"/>
+      <c r="A909" s="47"/>
     </row>
     <row r="910" spans="1:1" ht="12.7">
-      <c r="A910" s="51"/>
+      <c r="A910" s="47"/>
     </row>
     <row r="911" spans="1:1" ht="12.7">
-      <c r="A911" s="51"/>
+      <c r="A911" s="47"/>
     </row>
     <row r="912" spans="1:1" ht="12.7">
-      <c r="A912" s="51"/>
+      <c r="A912" s="47"/>
     </row>
     <row r="913" spans="1:1" ht="12.7">
-      <c r="A913" s="51"/>
+      <c r="A913" s="47"/>
     </row>
     <row r="914" spans="1:1" ht="12.7">
-      <c r="A914" s="51"/>
+      <c r="A914" s="47"/>
     </row>
     <row r="915" spans="1:1" ht="12.7">
-      <c r="A915" s="51"/>
+      <c r="A915" s="47"/>
     </row>
     <row r="916" spans="1:1" ht="12.7">
-      <c r="A916" s="51"/>
+      <c r="A916" s="47"/>
     </row>
     <row r="917" spans="1:1" ht="12.7">
-      <c r="A917" s="51"/>
+      <c r="A917" s="47"/>
     </row>
     <row r="918" spans="1:1" ht="12.7">
-      <c r="A918" s="51"/>
+      <c r="A918" s="47"/>
     </row>
     <row r="919" spans="1:1" ht="12.7">
-      <c r="A919" s="51"/>
+      <c r="A919" s="47"/>
     </row>
     <row r="920" spans="1:1" ht="12.7">
-      <c r="A920" s="51"/>
+      <c r="A920" s="47"/>
     </row>
     <row r="921" spans="1:1" ht="12.7">
-      <c r="A921" s="51"/>
+      <c r="A921" s="47"/>
     </row>
     <row r="922" spans="1:1" ht="12.7">
-      <c r="A922" s="51"/>
+      <c r="A922" s="47"/>
     </row>
     <row r="923" spans="1:1" ht="12.7">
-      <c r="A923" s="51"/>
+      <c r="A923" s="47"/>
     </row>
     <row r="924" spans="1:1" ht="12.7">
-      <c r="A924" s="51"/>
+      <c r="A924" s="47"/>
     </row>
     <row r="925" spans="1:1" ht="12.7">
-      <c r="A925" s="51"/>
+      <c r="A925" s="47"/>
     </row>
     <row r="926" spans="1:1" ht="12.7">
-      <c r="A926" s="51"/>
+      <c r="A926" s="47"/>
     </row>
     <row r="927" spans="1:1" ht="12.7">
-      <c r="A927" s="51"/>
+      <c r="A927" s="47"/>
     </row>
     <row r="928" spans="1:1" ht="12.7">
-      <c r="A928" s="51"/>
+      <c r="A928" s="47"/>
     </row>
     <row r="929" spans="1:1" ht="12.7">
-      <c r="A929" s="51"/>
+      <c r="A929" s="47"/>
     </row>
     <row r="930" spans="1:1" ht="12.7">
-      <c r="A930" s="51"/>
+      <c r="A930" s="47"/>
     </row>
     <row r="931" spans="1:1" ht="12.7">
-      <c r="A931" s="51"/>
+      <c r="A931" s="47"/>
     </row>
     <row r="932" spans="1:1" ht="12.7">
-      <c r="A932" s="51"/>
+      <c r="A932" s="47"/>
     </row>
     <row r="933" spans="1:1" ht="12.7">
-      <c r="A933" s="51"/>
+      <c r="A933" s="47"/>
     </row>
     <row r="934" spans="1:1" ht="12.7">
-      <c r="A934" s="51"/>
+      <c r="A934" s="47"/>
     </row>
     <row r="935" spans="1:1" ht="12.7">
-      <c r="A935" s="51"/>
+      <c r="A935" s="47"/>
     </row>
     <row r="936" spans="1:1" ht="12.7">
-      <c r="A936" s="51"/>
+      <c r="A936" s="47"/>
     </row>
     <row r="937" spans="1:1" ht="12.7">
-      <c r="A937" s="51"/>
+      <c r="A937" s="47"/>
     </row>
     <row r="938" spans="1:1" ht="12.7">
-      <c r="A938" s="51"/>
+      <c r="A938" s="47"/>
     </row>
     <row r="939" spans="1:1" ht="12.7">
-      <c r="A939" s="51"/>
+      <c r="A939" s="47"/>
     </row>
     <row r="940" spans="1:1" ht="12.7">
-      <c r="A940" s="51"/>
+      <c r="A940" s="47"/>
     </row>
     <row r="941" spans="1:1" ht="12.7">
-      <c r="A941" s="51"/>
+      <c r="A941" s="47"/>
     </row>
     <row r="942" spans="1:1" ht="12.7">
-      <c r="A942" s="51"/>
+      <c r="A942" s="47"/>
     </row>
     <row r="943" spans="1:1" ht="12.7">
-      <c r="A943" s="51"/>
+      <c r="A943" s="47"/>
     </row>
     <row r="944" spans="1:1" ht="12.7">
-      <c r="A944" s="51"/>
+      <c r="A944" s="47"/>
     </row>
     <row r="945" spans="1:1" ht="12.7">
-      <c r="A945" s="51"/>
+      <c r="A945" s="47"/>
     </row>
     <row r="946" spans="1:1" ht="12.7">
-      <c r="A946" s="51"/>
+      <c r="A946" s="47"/>
     </row>
     <row r="947" spans="1:1" ht="12.7">
-      <c r="A947" s="51"/>
+      <c r="A947" s="47"/>
     </row>
     <row r="948" spans="1:1" ht="12.7">
-      <c r="A948" s="51"/>
+      <c r="A948" s="47"/>
     </row>
     <row r="949" spans="1:1" ht="12.7">
-      <c r="A949" s="51"/>
+      <c r="A949" s="47"/>
     </row>
     <row r="950" spans="1:1" ht="12.7">
-      <c r="A950" s="51"/>
+      <c r="A950" s="47"/>
     </row>
     <row r="951" spans="1:1" ht="12.7">
-      <c r="A951" s="51"/>
+      <c r="A951" s="47"/>
     </row>
     <row r="952" spans="1:1" ht="12.7">
-      <c r="A952" s="51"/>
+      <c r="A952" s="47"/>
     </row>
     <row r="953" spans="1:1" ht="12.7">
-      <c r="A953" s="51"/>
+      <c r="A953" s="47"/>
     </row>
     <row r="954" spans="1:1" ht="12.7">
-      <c r="A954" s="51"/>
+      <c r="A954" s="47"/>
     </row>
     <row r="955" spans="1:1" ht="12.7">
-      <c r="A955" s="51"/>
+      <c r="A955" s="47"/>
     </row>
     <row r="956" spans="1:1" ht="12.7">
-      <c r="A956" s="51"/>
+      <c r="A956" s="47"/>
     </row>
     <row r="957" spans="1:1" ht="12.7">
-      <c r="A957" s="51"/>
+      <c r="A957" s="47"/>
     </row>
     <row r="958" spans="1:1" ht="12.7">
-      <c r="A958" s="51"/>
+      <c r="A958" s="47"/>
     </row>
     <row r="959" spans="1:1" ht="12.7">
-      <c r="A959" s="51"/>
+      <c r="A959" s="47"/>
     </row>
     <row r="960" spans="1:1" ht="12.7">
-      <c r="A960" s="51"/>
+      <c r="A960" s="47"/>
     </row>
     <row r="961" spans="1:67" ht="12.7">
-      <c r="A961" s="51"/>
+      <c r="A961" s="47"/>
     </row>
     <row r="962" spans="1:67" ht="12.7">
-      <c r="A962" s="51"/>
+      <c r="A962" s="47"/>
     </row>
     <row r="963" spans="1:67" ht="12.7">
-      <c r="A963" s="51"/>
+      <c r="A963" s="47"/>
     </row>
     <row r="964" spans="1:67" ht="12.7">
-      <c r="A964" s="51"/>
+      <c r="A964" s="47"/>
     </row>
     <row r="965" spans="1:67" ht="12.7">
-      <c r="A965" s="51"/>
+      <c r="A965" s="47"/>
     </row>
     <row r="966" spans="1:67" ht="12.7">
-      <c r="A966" s="51"/>
+      <c r="A966" s="47"/>
     </row>
     <row r="967" spans="1:67" ht="12.7">
-      <c r="A967" s="51"/>
+      <c r="A967" s="47"/>
       <c r="H967" s="4"/>
       <c r="I967" s="4"/>
       <c r="J967" s="4"/>
@@ -9780,73 +9768,73 @@
       <c r="BO967" s="4"/>
     </row>
     <row r="968" spans="1:67" ht="12.7">
-      <c r="A968" s="51"/>
+      <c r="A968" s="47"/>
     </row>
     <row r="969" spans="1:67" ht="12.7">
-      <c r="A969" s="51"/>
+      <c r="A969" s="47"/>
     </row>
     <row r="970" spans="1:67" ht="12.7">
-      <c r="A970" s="51"/>
+      <c r="A970" s="47"/>
     </row>
     <row r="971" spans="1:67" ht="12.7">
-      <c r="A971" s="51"/>
+      <c r="A971" s="47"/>
     </row>
     <row r="972" spans="1:67" ht="12.7">
-      <c r="A972" s="51"/>
+      <c r="A972" s="47"/>
     </row>
     <row r="973" spans="1:67" ht="12.7">
-      <c r="A973" s="51"/>
+      <c r="A973" s="47"/>
     </row>
     <row r="974" spans="1:67" ht="12.7">
-      <c r="A974" s="51"/>
+      <c r="A974" s="47"/>
     </row>
     <row r="975" spans="1:67" ht="12.7">
-      <c r="A975" s="51"/>
+      <c r="A975" s="47"/>
     </row>
     <row r="976" spans="1:67" ht="12.7">
-      <c r="A976" s="51"/>
+      <c r="A976" s="47"/>
     </row>
     <row r="977" spans="1:7" ht="12.7">
-      <c r="A977" s="51"/>
+      <c r="A977" s="47"/>
     </row>
     <row r="978" spans="1:7" ht="12.7">
-      <c r="A978" s="51"/>
+      <c r="A978" s="47"/>
     </row>
     <row r="979" spans="1:7" ht="12.7">
-      <c r="A979" s="51"/>
+      <c r="A979" s="47"/>
     </row>
     <row r="980" spans="1:7" ht="12.7">
-      <c r="A980" s="51"/>
+      <c r="A980" s="47"/>
     </row>
     <row r="981" spans="1:7" ht="12.7">
-      <c r="A981" s="51"/>
+      <c r="A981" s="47"/>
     </row>
     <row r="982" spans="1:7" ht="12.7">
-      <c r="A982" s="51"/>
+      <c r="A982" s="47"/>
     </row>
     <row r="983" spans="1:7" ht="12.7">
-      <c r="A983" s="51"/>
+      <c r="A983" s="47"/>
     </row>
     <row r="984" spans="1:7" ht="12.7">
-      <c r="A984" s="51"/>
+      <c r="A984" s="47"/>
     </row>
     <row r="985" spans="1:7" ht="12.7">
-      <c r="A985" s="51"/>
+      <c r="A985" s="47"/>
     </row>
     <row r="986" spans="1:7" ht="12.7">
-      <c r="A986" s="51"/>
+      <c r="A986" s="47"/>
     </row>
     <row r="987" spans="1:7" ht="12.7">
-      <c r="A987" s="51"/>
+      <c r="A987" s="47"/>
     </row>
     <row r="988" spans="1:7" ht="12.7">
-      <c r="A988" s="51"/>
+      <c r="A988" s="47"/>
     </row>
     <row r="989" spans="1:7" ht="12.7">
-      <c r="A989" s="51"/>
+      <c r="A989" s="47"/>
     </row>
     <row r="990" spans="1:7" ht="12.7">
-      <c r="A990" s="71"/>
+      <c r="A990" s="67"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -9856,13 +9844,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9879,8 +9860,15 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G9:G14 G16:G20 G22:G25">
+  <conditionalFormatting sqref="G22:G25 G16:G20 G9:G14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/documentation/ProjectGanttChart.xlsx
+++ b/documentation/ProjectGanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\448\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1B8E27-F8BF-4647-B92E-95DA894BAE57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD9653-53ED-44D5-8E4E-0E6A7936DE1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -694,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -778,7 +778,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,6 +853,10 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,23 +869,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2730,9 +2733,9 @@
       <c r="D3" s="40"/>
       <c r="E3" s="40"/>
       <c r="F3" s="40"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
@@ -2838,80 +2841,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.35">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="I6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="J6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="88"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="88" t="s">
+      <c r="K6" s="89"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="87" t="s">
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="88" t="s">
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="87" t="s">
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
       <c r="AJ6" s="43"/>
     </row>
     <row r="7" spans="1:36" ht="14.35">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -2940,7 +2943,7 @@
       <c r="AJ7" s="43"/>
     </row>
     <row r="8" spans="1:36" ht="15.7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16"/>
@@ -2952,63 +2955,63 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
-      <c r="AI8" s="48"/>
-      <c r="AJ8" s="48"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
+      <c r="AI8" s="47"/>
+      <c r="AJ8" s="47"/>
     </row>
     <row r="9" spans="1:36" ht="14.35">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>43105</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="53">
         <f t="shared" ref="D9:D13" si="0">DAY(C9)</f>
         <v>5</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <v>43108</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <f>DATEDIF(C9,E9,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="55">
         <f>SUM(F9*J9)</f>
         <v>4</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="70">
         <f>SUM(F9-G9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="54">
         <v>1</v>
       </c>
       <c r="K9" s="2"/>
@@ -3039,35 +3042,35 @@
       <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:36" ht="14.35">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>43108</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>43111</v>
       </c>
-      <c r="F10" s="70">
+      <c r="F10" s="69">
         <f t="shared" ref="F10:F29" si="1">DATEDIF(C10,E10,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="55">
         <f t="shared" ref="G10:G29" si="2">SUM(F10*J10)</f>
         <v>3.2</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="70">
         <f t="shared" ref="H10:H29" si="3">SUM(F10-G10)</f>
         <v>0.79999999999999982</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="58">
+      <c r="J10" s="57">
         <v>0.8</v>
       </c>
       <c r="K10" s="2"/>
@@ -3098,35 +3101,35 @@
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36" ht="14.35">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="61">
         <v>43111</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <v>43116</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="55">
         <f t="shared" si="2"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="70">
         <f t="shared" si="3"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="I11" s="51" t="s">
+      <c r="I11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="54">
         <v>0.6</v>
       </c>
       <c r="K11" s="2"/>
@@ -3157,539 +3160,539 @@
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" ht="14.35">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>43114</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>43119</v>
       </c>
-      <c r="F12" s="70">
+      <c r="F12" s="69">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="55">
         <f t="shared" si="2"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="70">
         <f t="shared" si="3"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="59">
+      <c r="J12" s="58">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="14.35">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <v>43117</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="62">
         <v>43123</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="55">
         <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="70">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="I13" s="51" t="s">
+      <c r="I13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="59">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.7">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:36" ht="14.35">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>43109</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="53">
         <f t="shared" ref="D15:D18" si="4">DAY(C15)</f>
         <v>9</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="62">
         <v>43112</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="55">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="64">
+      <c r="J15" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="14.35">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="61">
         <v>43112</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="62">
         <v>43119</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="55">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="70">
         <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="65">
+      <c r="J16" s="64">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.35">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="61">
         <v>43117</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="53">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="62">
         <v>43119</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="69">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="55">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="70">
         <f t="shared" si="3"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="I17" s="51" t="s">
+      <c r="I17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="66">
+      <c r="J17" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.35">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <v>43122</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="53">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="62">
         <v>43126</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="69">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="55">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="70">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="66">
+      <c r="J18" s="65">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.7">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
     </row>
     <row r="20" spans="1:10" ht="14.35">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="61">
         <v>43115</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <f t="shared" ref="D20:D24" si="5">DAY(C20)</f>
         <v>15</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="62">
         <v>43119</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="55">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="66">
+      <c r="J20" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.35">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="61">
         <v>43122</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="53">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="62">
         <v>43123</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="55">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="70">
         <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="I21" s="51" t="s">
+      <c r="I21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.35">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="61">
         <v>43122</v>
       </c>
-      <c r="D22" s="54">
+      <c r="D22" s="53">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="62">
         <v>43126</v>
       </c>
-      <c r="F22" s="70">
+      <c r="F22" s="69">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="55">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="66">
+      <c r="J22" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.35">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="61">
         <v>43126</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="53">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="62">
         <v>43129</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="55">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="70">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="I23" s="51" t="s">
+      <c r="I23" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="66">
+      <c r="J23" s="65">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.35">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="61">
         <v>43122</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="53">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="62">
         <v>43125</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="69">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="55">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="70">
         <f t="shared" si="3"/>
         <v>3.2</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="66">
+      <c r="J24" s="65">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.7">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:10" ht="14.35">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <v>43115</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="53">
         <f t="shared" ref="D26:D29" si="6">DAY(C26)</f>
         <v>15</v>
       </c>
-      <c r="E26" s="63">
+      <c r="E26" s="62">
         <v>43124</v>
       </c>
-      <c r="F26" s="70">
+      <c r="F26" s="69">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="55">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="61">
         <v>43125</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="53">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="62">
         <v>43130</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="69">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="55">
         <f t="shared" si="2"/>
         <v>4.8000000000000007</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="70">
         <f t="shared" si="3"/>
         <v>1.1999999999999993</v>
       </c>
-      <c r="I27" s="51" t="s">
+      <c r="I27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="66">
+      <c r="J27" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="61">
         <v>43124</v>
       </c>
-      <c r="D28" s="54">
+      <c r="D28" s="53">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="62">
         <v>43130</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="69">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="55">
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="70">
         <f t="shared" si="3"/>
         <v>2.8</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="66">
+      <c r="J28" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.35">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="61">
         <v>43130</v>
       </c>
-      <c r="D29" s="54">
+      <c r="D29" s="53">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="E29" s="63">
+      <c r="E29" s="62">
         <v>43131</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="70">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I29" s="51" t="s">
+      <c r="I29" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="J29" s="66">
+      <c r="J29" s="65">
         <v>0</v>
       </c>
     </row>
@@ -3746,6 +3749,13 @@
     <row r="50" ht="12.7"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -3754,13 +3764,6 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J15:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="1">
@@ -3884,16 +3887,16 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" ht="30" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3995,72 +3998,72 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="14.35">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="G6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="88" t="s">
+      <c r="I6" s="89"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="87" t="s">
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="88" t="s">
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="87" t="s">
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
       <c r="AH6" s="43"/>
     </row>
     <row r="7" spans="1:34" ht="14.35">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
@@ -4089,7 +4092,7 @@
       <c r="AH7" s="43"/>
     </row>
     <row r="8" spans="1:34" ht="15.7">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="45" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="16"/>
@@ -4099,55 +4102,55 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="48"/>
-      <c r="AG8" s="48"/>
-      <c r="AH8" s="48"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="47"/>
+      <c r="AF8" s="47"/>
+      <c r="AG8" s="47"/>
+      <c r="AH8" s="47"/>
     </row>
     <row r="9" spans="1:34" ht="14.35">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C9" s="51">
         <v>43105</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="52">
         <v>43108</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="53">
         <f t="shared" ref="E9:E13" si="0">INT(C9)-INT($C$9)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="70">
         <f>DATEDIF(C9,D9,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="54">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
@@ -4178,27 +4181,27 @@
       <c r="AH9" s="2"/>
     </row>
     <row r="10" spans="1:34" ht="14.35">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="51">
         <v>43108</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="56">
         <v>43111</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="70">
         <f t="shared" ref="F10:F29" si="1">DATEDIF(C10,D10,"d")+1</f>
         <v>4</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="57">
         <v>0.8</v>
       </c>
       <c r="I10" s="2"/>
@@ -4229,27 +4232,27 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" ht="14.35">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="51">
         <v>43111</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="52">
         <v>43116</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="54">
         <v>0.6</v>
       </c>
       <c r="I11" s="2"/>
@@ -4280,413 +4283,413 @@
       <c r="AH11" s="2"/>
     </row>
     <row r="12" spans="1:34" ht="14.35">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="51">
         <v>43114</v>
       </c>
-      <c r="D12" s="53">
+      <c r="D12" s="52">
         <v>43119</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="58">
         <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14.35">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="51">
         <v>43117</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="52">
         <v>43123</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="70">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.7">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:34" ht="14.35">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>43109</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="62">
         <v>43112</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="53">
         <f t="shared" ref="E15:E18" si="2">INT(C15)-INT($C$9)</f>
         <v>4</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="64">
+      <c r="H15" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="14.35">
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="61">
         <v>43112</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>43119</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="53">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="70">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="64">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.35">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="61">
         <v>43117</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="62">
         <v>43119</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="53">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.35">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="61">
         <v>43122</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="62">
         <v>43126</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="53">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="65">
         <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.7">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="14.35">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="61">
         <v>43115</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="62">
         <v>43119</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="53">
         <f t="shared" ref="E20:E24" si="3">INT(C20)-INT($C$9)</f>
         <v>10</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.35">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="61">
         <v>43122</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <v>43123</v>
       </c>
-      <c r="E21" s="54">
+      <c r="E21" s="53">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="70">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.35">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="61">
         <v>43122</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="62">
         <v>43126</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22" s="53">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F22" s="71">
+      <c r="F22" s="70">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="66">
+      <c r="H22" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.35">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="61">
         <v>43126</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="62">
         <v>43129</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="53">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="F23" s="71">
+      <c r="F23" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="65">
         <v>0.4</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.35">
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="61">
         <v>43122</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="62">
         <v>43125</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="53">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="F24" s="71">
+      <c r="F24" s="70">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="65">
         <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.7">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="14.35">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <v>43115</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="62">
         <v>43124</v>
       </c>
-      <c r="E26" s="54">
+      <c r="E26" s="53">
         <f t="shared" ref="E26:E29" si="4">INT(C26)-INT($C$9)</f>
         <v>10</v>
       </c>
-      <c r="F26" s="71">
+      <c r="F26" s="70">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14.35">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="61">
         <v>43125</v>
       </c>
-      <c r="D27" s="63">
+      <c r="D27" s="62">
         <v>43130</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="53">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="70">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="65">
         <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="61">
         <v>43124</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="62">
         <v>43130</v>
       </c>
-      <c r="E28" s="54">
+      <c r="E28" s="53">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="F28" s="71">
+      <c r="F28" s="70">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="65">
         <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.35">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="61">
         <v>43130</v>
       </c>
-      <c r="D29" s="63">
+      <c r="D29" s="62">
         <v>43131</v>
       </c>
-      <c r="E29" s="54">
+      <c r="E29" s="53">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="F29" s="71">
+      <c r="F29" s="70">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="65">
         <v>0</v>
       </c>
     </row>
@@ -4737,11 +4740,6 @@
     <row r="50" ht="12.7"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -4751,6 +4749,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -4780,7 +4783,7 @@
   <dimension ref="A1:BO990"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46875" defaultRowHeight="15.75" customHeight="1"/>
@@ -4933,15 +4936,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -5142,118 +5145,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.35">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="96" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="94" t="s">
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="96" t="s">
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="94" t="s">
+      <c r="X6" s="93"/>
+      <c r="Y6" s="93"/>
+      <c r="Z6" s="93"/>
+      <c r="AA6" s="93"/>
+      <c r="AB6" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="96" t="s">
+      <c r="AC6" s="93"/>
+      <c r="AD6" s="93"/>
+      <c r="AE6" s="93"/>
+      <c r="AF6" s="93"/>
+      <c r="AG6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="94" t="s">
+      <c r="AH6" s="93"/>
+      <c r="AI6" s="93"/>
+      <c r="AJ6" s="93"/>
+      <c r="AK6" s="93"/>
+      <c r="AL6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="95"/>
-      <c r="AN6" s="95"/>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96" t="s">
+      <c r="AM6" s="93"/>
+      <c r="AN6" s="93"/>
+      <c r="AO6" s="93"/>
+      <c r="AP6" s="93"/>
+      <c r="AQ6" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="95"/>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="95"/>
-      <c r="AU6" s="95"/>
-      <c r="AV6" s="94" t="s">
+      <c r="AR6" s="93"/>
+      <c r="AS6" s="93"/>
+      <c r="AT6" s="93"/>
+      <c r="AU6" s="93"/>
+      <c r="AV6" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="95"/>
-      <c r="AX6" s="95"/>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96" t="s">
+      <c r="AW6" s="93"/>
+      <c r="AX6" s="93"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="93"/>
+      <c r="BA6" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="95"/>
-      <c r="BC6" s="95"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="95"/>
-      <c r="BF6" s="94" t="s">
+      <c r="BB6" s="93"/>
+      <c r="BC6" s="93"/>
+      <c r="BD6" s="93"/>
+      <c r="BE6" s="93"/>
+      <c r="BF6" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="95"/>
-      <c r="BJ6" s="95"/>
-      <c r="BK6" s="96" t="s">
+      <c r="BG6" s="93"/>
+      <c r="BH6" s="93"/>
+      <c r="BI6" s="93"/>
+      <c r="BJ6" s="93"/>
+      <c r="BK6" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="95"/>
-      <c r="BM6" s="95"/>
-      <c r="BN6" s="95"/>
-      <c r="BO6" s="95"/>
+      <c r="BL6" s="93"/>
+      <c r="BM6" s="93"/>
+      <c r="BN6" s="93"/>
+      <c r="BO6" s="93"/>
     </row>
     <row r="7" spans="1:67" ht="14.35">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="99"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="96"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5440,11 +5443,11 @@
         <v>69</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -5530,13 +5533,13 @@
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="80"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="79"/>
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
@@ -5610,14 +5613,14 @@
       <c r="H10" s="23"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="83"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82"/>
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
@@ -5692,13 +5695,13 @@
       <c r="I11" s="24"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -5775,11 +5778,11 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="26"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
@@ -5856,13 +5859,13 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="26"/>
@@ -5937,14 +5940,14 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="26"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="25"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
@@ -5997,22 +6000,22 @@
         <v>70</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="31"/>
       <c r="I15" s="32"/>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
       <c r="U15" s="31"/>
@@ -6090,10 +6093,10 @@
       <c r="L16" s="25"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
@@ -6172,10 +6175,10 @@
       <c r="M17" s="26"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="72"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="71"/>
       <c r="T17" s="25"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
@@ -6249,13 +6252,13 @@
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -6306,7 +6309,7 @@
       <c r="BN18" s="26"/>
       <c r="BO18" s="28"/>
     </row>
-    <row r="19" spans="1:67" s="69" customFormat="1" ht="14.35">
+    <row r="19" spans="1:67" s="68" customFormat="1" ht="14.35">
       <c r="B19" s="19" t="s">
         <v>76</v>
       </c>
@@ -6330,13 +6333,13 @@
       <c r="I19" s="24"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
       <c r="U19" s="25"/>
@@ -6411,13 +6414,13 @@
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -6473,11 +6476,11 @@
         <v>77</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
       <c r="J21" s="33"/>
@@ -6544,14 +6547,14 @@
         <v>78</v>
       </c>
       <c r="C22" s="34">
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="D22" s="34">
-        <v>43782</v>
+        <v>43799</v>
       </c>
       <c r="E22" s="21">
         <f>NETWORKDAYS(C22,D22)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>79</v>
@@ -6625,14 +6628,14 @@
         <v>80</v>
       </c>
       <c r="C23" s="34">
-        <v>43773</v>
+        <v>43781</v>
       </c>
       <c r="D23" s="34">
-        <v>43782</v>
+        <v>43799</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" ref="E23:E25" si="2">NETWORKDAYS(C23,D23)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>79</v>
@@ -6706,14 +6709,14 @@
         <v>81</v>
       </c>
       <c r="C24" s="34">
-        <v>43773</v>
+        <v>43783</v>
       </c>
       <c r="D24" s="34">
-        <v>43782</v>
+        <v>43800</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>79</v>
@@ -6787,14 +6790,14 @@
         <v>82</v>
       </c>
       <c r="C25" s="34">
-        <v>43773</v>
+        <v>43782</v>
       </c>
       <c r="D25" s="34">
-        <v>43782</v>
+        <v>43800</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>79</v>
@@ -6863,2849 +6866,3289 @@
       <c r="BN25" s="26"/>
       <c r="BO25" s="28"/>
     </row>
-    <row r="26" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:67" ht="15.75" customHeight="1">
-      <c r="A29" s="47"/>
-    </row>
-    <row r="30" spans="1:67" ht="12.7">
-      <c r="A30" s="47"/>
-    </row>
-    <row r="31" spans="1:67" ht="12.7">
-      <c r="A31" s="47"/>
+    <row r="26" spans="1:67" s="84" customFormat="1" ht="15.7">
+      <c r="A26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="85"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="31"/>
+      <c r="AB26" s="31"/>
+      <c r="AC26" s="31"/>
+      <c r="AD26" s="31"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="31"/>
+      <c r="AI26" s="31"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="31"/>
+      <c r="AL26" s="31"/>
+      <c r="AM26" s="31"/>
+      <c r="AN26" s="31"/>
+      <c r="AO26" s="31"/>
+      <c r="AP26" s="31"/>
+      <c r="AQ26" s="31"/>
+      <c r="AR26" s="31"/>
+      <c r="AS26" s="31"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
+      <c r="AV26" s="31"/>
+      <c r="AW26" s="31"/>
+      <c r="AX26" s="31"/>
+      <c r="AY26" s="31"/>
+      <c r="AZ26" s="31"/>
+      <c r="BA26" s="31"/>
+      <c r="BB26" s="31"/>
+      <c r="BC26" s="31"/>
+      <c r="BD26" s="31"/>
+      <c r="BE26" s="31"/>
+      <c r="BF26" s="31"/>
+      <c r="BG26" s="31"/>
+      <c r="BH26" s="31"/>
+      <c r="BI26" s="31"/>
+      <c r="BJ26" s="31"/>
+      <c r="BK26" s="31"/>
+      <c r="BL26" s="31"/>
+      <c r="BM26" s="31"/>
+      <c r="BN26" s="31"/>
+      <c r="BO26" s="31"/>
+    </row>
+    <row r="27" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B27" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="34">
+        <v>43780</v>
+      </c>
+      <c r="D27" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E27" s="21">
+        <f>NETWORKDAYS(C27,D27)</f>
+        <v>15</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0</v>
+      </c>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="27"/>
+      <c r="BG27" s="27"/>
+      <c r="BH27" s="27"/>
+      <c r="BI27" s="27"/>
+      <c r="BJ27" s="27"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
+      <c r="BO27" s="28"/>
+    </row>
+    <row r="28" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B28" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="34">
+        <v>43781</v>
+      </c>
+      <c r="D28" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" ref="E28:E31" si="3">NETWORKDAYS(C28,D28)</f>
+        <v>14</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="35">
+        <v>0</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="27"/>
+      <c r="BG28" s="27"/>
+      <c r="BH28" s="27"/>
+      <c r="BI28" s="27"/>
+      <c r="BJ28" s="27"/>
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="26"/>
+      <c r="BO28" s="28"/>
+    </row>
+    <row r="29" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="34">
+        <v>43780</v>
+      </c>
+      <c r="D29" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+      <c r="BC29" s="26"/>
+      <c r="BD29" s="26"/>
+      <c r="BE29" s="26"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="27"/>
+      <c r="BK29" s="26"/>
+      <c r="BL29" s="26"/>
+      <c r="BM29" s="26"/>
+      <c r="BN29" s="26"/>
+      <c r="BO29" s="28"/>
+    </row>
+    <row r="30" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B30" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="34">
+        <v>43783</v>
+      </c>
+      <c r="D30" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="26"/>
+      <c r="BB30" s="26"/>
+      <c r="BC30" s="26"/>
+      <c r="BD30" s="26"/>
+      <c r="BE30" s="26"/>
+      <c r="BF30" s="27"/>
+      <c r="BG30" s="27"/>
+      <c r="BH30" s="27"/>
+      <c r="BI30" s="27"/>
+      <c r="BJ30" s="27"/>
+      <c r="BK30" s="26"/>
+      <c r="BL30" s="26"/>
+      <c r="BM30" s="26"/>
+      <c r="BN30" s="26"/>
+      <c r="BO30" s="28"/>
+    </row>
+    <row r="31" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="34">
+        <v>43784</v>
+      </c>
+      <c r="D31" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="35">
+        <v>0</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="26"/>
+      <c r="BB31" s="26"/>
+      <c r="BC31" s="26"/>
+      <c r="BD31" s="26"/>
+      <c r="BE31" s="26"/>
+      <c r="BF31" s="27"/>
+      <c r="BG31" s="27"/>
+      <c r="BH31" s="27"/>
+      <c r="BI31" s="27"/>
+      <c r="BJ31" s="27"/>
+      <c r="BK31" s="26"/>
+      <c r="BL31" s="26"/>
+      <c r="BM31" s="26"/>
+      <c r="BN31" s="26"/>
+      <c r="BO31" s="28"/>
     </row>
     <row r="32" spans="1:67" ht="12.7">
-      <c r="A32" s="47"/>
+      <c r="A32" s="46"/>
     </row>
     <row r="33" spans="1:1" ht="12.7">
-      <c r="A33" s="47"/>
+      <c r="A33" s="46"/>
     </row>
     <row r="34" spans="1:1" ht="12.7">
-      <c r="A34" s="47"/>
+      <c r="A34" s="46"/>
     </row>
     <row r="35" spans="1:1" ht="12.7">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
     </row>
     <row r="36" spans="1:1" ht="12.7">
-      <c r="A36" s="47"/>
+      <c r="A36" s="46"/>
     </row>
     <row r="37" spans="1:1" ht="12.7">
-      <c r="A37" s="47"/>
+      <c r="A37" s="46"/>
     </row>
     <row r="38" spans="1:1" ht="12.7">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
     </row>
     <row r="39" spans="1:1" ht="12.7">
-      <c r="A39" s="47"/>
+      <c r="A39" s="46"/>
     </row>
     <row r="40" spans="1:1" ht="12.7">
-      <c r="A40" s="47"/>
+      <c r="A40" s="46"/>
     </row>
     <row r="41" spans="1:1" ht="12.7">
-      <c r="A41" s="47"/>
+      <c r="A41" s="46"/>
     </row>
     <row r="42" spans="1:1" ht="12.7">
-      <c r="A42" s="47"/>
+      <c r="A42" s="46"/>
     </row>
     <row r="43" spans="1:1" ht="12.7">
-      <c r="A43" s="47"/>
+      <c r="A43" s="46"/>
     </row>
     <row r="44" spans="1:1" ht="12.7">
-      <c r="A44" s="47"/>
+      <c r="A44" s="46"/>
     </row>
     <row r="45" spans="1:1" ht="12.7">
-      <c r="A45" s="47"/>
+      <c r="A45" s="46"/>
     </row>
     <row r="46" spans="1:1" ht="12.7">
-      <c r="A46" s="47"/>
+      <c r="A46" s="46"/>
     </row>
     <row r="47" spans="1:1" ht="12.7">
-      <c r="A47" s="47"/>
+      <c r="A47" s="46"/>
     </row>
     <row r="48" spans="1:1" ht="12.7">
-      <c r="A48" s="47"/>
+      <c r="A48" s="46"/>
     </row>
     <row r="49" spans="1:1" ht="12.7">
-      <c r="A49" s="47"/>
+      <c r="A49" s="46"/>
     </row>
     <row r="50" spans="1:1" ht="12.7">
-      <c r="A50" s="47"/>
+      <c r="A50" s="46"/>
     </row>
     <row r="51" spans="1:1" ht="12.7">
-      <c r="A51" s="47"/>
+      <c r="A51" s="46"/>
     </row>
     <row r="52" spans="1:1" ht="12.7">
-      <c r="A52" s="47"/>
+      <c r="A52" s="46"/>
     </row>
     <row r="53" spans="1:1" ht="12.7">
-      <c r="A53" s="47"/>
+      <c r="A53" s="46"/>
     </row>
     <row r="54" spans="1:1" ht="12.7">
-      <c r="A54" s="47"/>
+      <c r="A54" s="46"/>
     </row>
     <row r="55" spans="1:1" ht="12.7">
-      <c r="A55" s="47"/>
+      <c r="A55" s="46"/>
     </row>
     <row r="56" spans="1:1" ht="12.7">
-      <c r="A56" s="47"/>
+      <c r="A56" s="46"/>
     </row>
     <row r="57" spans="1:1" ht="12.7">
-      <c r="A57" s="47"/>
+      <c r="A57" s="46"/>
     </row>
     <row r="58" spans="1:1" ht="12.7">
-      <c r="A58" s="47"/>
+      <c r="A58" s="46"/>
     </row>
     <row r="59" spans="1:1" ht="12.7">
-      <c r="A59" s="47"/>
+      <c r="A59" s="46"/>
     </row>
     <row r="60" spans="1:1" ht="12.7">
-      <c r="A60" s="47"/>
+      <c r="A60" s="46"/>
     </row>
     <row r="61" spans="1:1" ht="12.7">
-      <c r="A61" s="47"/>
+      <c r="A61" s="46"/>
     </row>
     <row r="62" spans="1:1" ht="12.7">
-      <c r="A62" s="47"/>
+      <c r="A62" s="46"/>
     </row>
     <row r="63" spans="1:1" ht="12.7">
-      <c r="A63" s="47"/>
+      <c r="A63" s="46"/>
     </row>
     <row r="64" spans="1:1" ht="12.7">
-      <c r="A64" s="47"/>
+      <c r="A64" s="46"/>
     </row>
     <row r="65" spans="1:1" ht="12.7">
-      <c r="A65" s="47"/>
+      <c r="A65" s="46"/>
     </row>
     <row r="66" spans="1:1" ht="12.7">
-      <c r="A66" s="47"/>
+      <c r="A66" s="46"/>
     </row>
     <row r="67" spans="1:1" ht="12.7">
-      <c r="A67" s="47"/>
+      <c r="A67" s="46"/>
     </row>
     <row r="68" spans="1:1" ht="12.7">
-      <c r="A68" s="47"/>
+      <c r="A68" s="46"/>
     </row>
     <row r="69" spans="1:1" ht="12.7">
-      <c r="A69" s="47"/>
+      <c r="A69" s="46"/>
     </row>
     <row r="70" spans="1:1" ht="12.7">
-      <c r="A70" s="47"/>
+      <c r="A70" s="46"/>
     </row>
     <row r="71" spans="1:1" ht="12.7">
-      <c r="A71" s="47"/>
+      <c r="A71" s="46"/>
     </row>
     <row r="72" spans="1:1" ht="12.7">
-      <c r="A72" s="47"/>
+      <c r="A72" s="46"/>
     </row>
     <row r="73" spans="1:1" ht="12.7">
-      <c r="A73" s="47"/>
+      <c r="A73" s="46"/>
     </row>
     <row r="74" spans="1:1" ht="12.7">
-      <c r="A74" s="47"/>
+      <c r="A74" s="46"/>
     </row>
     <row r="75" spans="1:1" ht="12.7">
-      <c r="A75" s="47"/>
+      <c r="A75" s="46"/>
     </row>
     <row r="76" spans="1:1" ht="12.7">
-      <c r="A76" s="47"/>
+      <c r="A76" s="46"/>
     </row>
     <row r="77" spans="1:1" ht="12.7">
-      <c r="A77" s="47"/>
+      <c r="A77" s="46"/>
     </row>
     <row r="78" spans="1:1" ht="12.7">
-      <c r="A78" s="47"/>
+      <c r="A78" s="46"/>
     </row>
     <row r="79" spans="1:1" ht="12.7">
-      <c r="A79" s="47"/>
+      <c r="A79" s="46"/>
     </row>
     <row r="80" spans="1:1" ht="12.7">
-      <c r="A80" s="47"/>
+      <c r="A80" s="46"/>
     </row>
     <row r="81" spans="1:1" ht="12.7">
-      <c r="A81" s="47"/>
+      <c r="A81" s="46"/>
     </row>
     <row r="82" spans="1:1" ht="12.7">
-      <c r="A82" s="47"/>
+      <c r="A82" s="46"/>
     </row>
     <row r="83" spans="1:1" ht="12.7">
-      <c r="A83" s="47"/>
+      <c r="A83" s="46"/>
     </row>
     <row r="84" spans="1:1" ht="12.7">
-      <c r="A84" s="47"/>
+      <c r="A84" s="46"/>
     </row>
     <row r="85" spans="1:1" ht="12.7">
-      <c r="A85" s="47"/>
+      <c r="A85" s="46"/>
     </row>
     <row r="86" spans="1:1" ht="12.7">
-      <c r="A86" s="47"/>
+      <c r="A86" s="46"/>
     </row>
     <row r="87" spans="1:1" ht="12.7">
-      <c r="A87" s="47"/>
+      <c r="A87" s="46"/>
     </row>
     <row r="88" spans="1:1" ht="12.7">
-      <c r="A88" s="47"/>
+      <c r="A88" s="46"/>
     </row>
     <row r="89" spans="1:1" ht="12.7">
-      <c r="A89" s="47"/>
+      <c r="A89" s="46"/>
     </row>
     <row r="90" spans="1:1" ht="12.7">
-      <c r="A90" s="47"/>
+      <c r="A90" s="46"/>
     </row>
     <row r="91" spans="1:1" ht="12.7">
-      <c r="A91" s="47"/>
+      <c r="A91" s="46"/>
     </row>
     <row r="92" spans="1:1" ht="12.7">
-      <c r="A92" s="47"/>
+      <c r="A92" s="46"/>
     </row>
     <row r="93" spans="1:1" ht="12.7">
-      <c r="A93" s="47"/>
+      <c r="A93" s="46"/>
     </row>
     <row r="94" spans="1:1" ht="12.7">
-      <c r="A94" s="47"/>
+      <c r="A94" s="46"/>
     </row>
     <row r="95" spans="1:1" ht="12.7">
-      <c r="A95" s="47"/>
+      <c r="A95" s="46"/>
     </row>
     <row r="96" spans="1:1" ht="12.7">
-      <c r="A96" s="47"/>
+      <c r="A96" s="46"/>
     </row>
     <row r="97" spans="1:1" ht="12.7">
-      <c r="A97" s="47"/>
+      <c r="A97" s="46"/>
     </row>
     <row r="98" spans="1:1" ht="12.7">
-      <c r="A98" s="47"/>
+      <c r="A98" s="46"/>
     </row>
     <row r="99" spans="1:1" ht="12.7">
-      <c r="A99" s="47"/>
+      <c r="A99" s="46"/>
     </row>
     <row r="100" spans="1:1" ht="12.7">
-      <c r="A100" s="47"/>
+      <c r="A100" s="46"/>
     </row>
     <row r="101" spans="1:1" ht="12.7">
-      <c r="A101" s="47"/>
+      <c r="A101" s="46"/>
     </row>
     <row r="102" spans="1:1" ht="12.7">
-      <c r="A102" s="47"/>
+      <c r="A102" s="46"/>
     </row>
     <row r="103" spans="1:1" ht="12.7">
-      <c r="A103" s="47"/>
+      <c r="A103" s="46"/>
     </row>
     <row r="104" spans="1:1" ht="12.7">
-      <c r="A104" s="47"/>
+      <c r="A104" s="46"/>
     </row>
     <row r="105" spans="1:1" ht="12.7">
-      <c r="A105" s="47"/>
+      <c r="A105" s="46"/>
     </row>
     <row r="106" spans="1:1" ht="12.7">
-      <c r="A106" s="47"/>
+      <c r="A106" s="46"/>
     </row>
     <row r="107" spans="1:1" ht="12.7">
-      <c r="A107" s="47"/>
+      <c r="A107" s="46"/>
     </row>
     <row r="108" spans="1:1" ht="12.7">
-      <c r="A108" s="47"/>
+      <c r="A108" s="46"/>
     </row>
     <row r="109" spans="1:1" ht="12.7">
-      <c r="A109" s="47"/>
+      <c r="A109" s="46"/>
     </row>
     <row r="110" spans="1:1" ht="12.7">
-      <c r="A110" s="47"/>
+      <c r="A110" s="46"/>
     </row>
     <row r="111" spans="1:1" ht="12.7">
-      <c r="A111" s="47"/>
+      <c r="A111" s="46"/>
     </row>
     <row r="112" spans="1:1" ht="12.7">
-      <c r="A112" s="47"/>
+      <c r="A112" s="46"/>
     </row>
     <row r="113" spans="1:1" ht="12.7">
-      <c r="A113" s="47"/>
+      <c r="A113" s="46"/>
     </row>
     <row r="114" spans="1:1" ht="12.7">
-      <c r="A114" s="47"/>
+      <c r="A114" s="46"/>
     </row>
     <row r="115" spans="1:1" ht="12.7">
-      <c r="A115" s="47"/>
+      <c r="A115" s="46"/>
     </row>
     <row r="116" spans="1:1" ht="12.7">
-      <c r="A116" s="47"/>
+      <c r="A116" s="46"/>
     </row>
     <row r="117" spans="1:1" ht="12.7">
-      <c r="A117" s="47"/>
+      <c r="A117" s="46"/>
     </row>
     <row r="118" spans="1:1" ht="12.7">
-      <c r="A118" s="47"/>
+      <c r="A118" s="46"/>
     </row>
     <row r="119" spans="1:1" ht="12.7">
-      <c r="A119" s="47"/>
+      <c r="A119" s="46"/>
     </row>
     <row r="120" spans="1:1" ht="12.7">
-      <c r="A120" s="47"/>
+      <c r="A120" s="46"/>
     </row>
     <row r="121" spans="1:1" ht="12.7">
-      <c r="A121" s="47"/>
+      <c r="A121" s="46"/>
     </row>
     <row r="122" spans="1:1" ht="12.7">
-      <c r="A122" s="47"/>
+      <c r="A122" s="46"/>
     </row>
     <row r="123" spans="1:1" ht="12.7">
-      <c r="A123" s="47"/>
+      <c r="A123" s="46"/>
     </row>
     <row r="124" spans="1:1" ht="12.7">
-      <c r="A124" s="47"/>
+      <c r="A124" s="46"/>
     </row>
     <row r="125" spans="1:1" ht="12.7">
-      <c r="A125" s="47"/>
+      <c r="A125" s="46"/>
     </row>
     <row r="126" spans="1:1" ht="12.7">
-      <c r="A126" s="47"/>
+      <c r="A126" s="46"/>
     </row>
     <row r="127" spans="1:1" ht="12.7">
-      <c r="A127" s="47"/>
+      <c r="A127" s="46"/>
     </row>
     <row r="128" spans="1:1" ht="12.7">
-      <c r="A128" s="47"/>
+      <c r="A128" s="46"/>
     </row>
     <row r="129" spans="1:1" ht="12.7">
-      <c r="A129" s="47"/>
+      <c r="A129" s="46"/>
     </row>
     <row r="130" spans="1:1" ht="12.7">
-      <c r="A130" s="47"/>
+      <c r="A130" s="46"/>
     </row>
     <row r="131" spans="1:1" ht="12.7">
-      <c r="A131" s="47"/>
+      <c r="A131" s="46"/>
     </row>
     <row r="132" spans="1:1" ht="12.7">
-      <c r="A132" s="47"/>
+      <c r="A132" s="46"/>
     </row>
     <row r="133" spans="1:1" ht="12.7">
-      <c r="A133" s="47"/>
+      <c r="A133" s="46"/>
     </row>
     <row r="134" spans="1:1" ht="12.7">
-      <c r="A134" s="47"/>
+      <c r="A134" s="46"/>
     </row>
     <row r="135" spans="1:1" ht="12.7">
-      <c r="A135" s="47"/>
+      <c r="A135" s="46"/>
     </row>
     <row r="136" spans="1:1" ht="12.7">
-      <c r="A136" s="47"/>
+      <c r="A136" s="46"/>
     </row>
     <row r="137" spans="1:1" ht="12.7">
-      <c r="A137" s="47"/>
+      <c r="A137" s="46"/>
     </row>
     <row r="138" spans="1:1" ht="12.7">
-      <c r="A138" s="47"/>
+      <c r="A138" s="46"/>
     </row>
     <row r="139" spans="1:1" ht="12.7">
-      <c r="A139" s="47"/>
+      <c r="A139" s="46"/>
     </row>
     <row r="140" spans="1:1" ht="12.7">
-      <c r="A140" s="47"/>
+      <c r="A140" s="46"/>
     </row>
     <row r="141" spans="1:1" ht="12.7">
-      <c r="A141" s="47"/>
+      <c r="A141" s="46"/>
     </row>
     <row r="142" spans="1:1" ht="12.7">
-      <c r="A142" s="47"/>
+      <c r="A142" s="46"/>
     </row>
     <row r="143" spans="1:1" ht="12.7">
-      <c r="A143" s="47"/>
+      <c r="A143" s="46"/>
     </row>
     <row r="144" spans="1:1" ht="12.7">
-      <c r="A144" s="47"/>
+      <c r="A144" s="46"/>
     </row>
     <row r="145" spans="1:1" ht="12.7">
-      <c r="A145" s="47"/>
+      <c r="A145" s="46"/>
     </row>
     <row r="146" spans="1:1" ht="12.7">
-      <c r="A146" s="47"/>
+      <c r="A146" s="46"/>
     </row>
     <row r="147" spans="1:1" ht="12.7">
-      <c r="A147" s="47"/>
+      <c r="A147" s="46"/>
     </row>
     <row r="148" spans="1:1" ht="12.7">
-      <c r="A148" s="47"/>
+      <c r="A148" s="46"/>
     </row>
     <row r="149" spans="1:1" ht="12.7">
-      <c r="A149" s="47"/>
+      <c r="A149" s="46"/>
     </row>
     <row r="150" spans="1:1" ht="12.7">
-      <c r="A150" s="47"/>
+      <c r="A150" s="46"/>
     </row>
     <row r="151" spans="1:1" ht="12.7">
-      <c r="A151" s="47"/>
+      <c r="A151" s="46"/>
     </row>
     <row r="152" spans="1:1" ht="12.7">
-      <c r="A152" s="47"/>
+      <c r="A152" s="46"/>
     </row>
     <row r="153" spans="1:1" ht="12.7">
-      <c r="A153" s="47"/>
+      <c r="A153" s="46"/>
     </row>
     <row r="154" spans="1:1" ht="12.7">
-      <c r="A154" s="47"/>
+      <c r="A154" s="46"/>
     </row>
     <row r="155" spans="1:1" ht="12.7">
-      <c r="A155" s="47"/>
+      <c r="A155" s="46"/>
     </row>
     <row r="156" spans="1:1" ht="12.7">
-      <c r="A156" s="47"/>
+      <c r="A156" s="46"/>
     </row>
     <row r="157" spans="1:1" ht="12.7">
-      <c r="A157" s="47"/>
+      <c r="A157" s="46"/>
     </row>
     <row r="158" spans="1:1" ht="12.7">
-      <c r="A158" s="47"/>
+      <c r="A158" s="46"/>
     </row>
     <row r="159" spans="1:1" ht="12.7">
-      <c r="A159" s="47"/>
+      <c r="A159" s="46"/>
     </row>
     <row r="160" spans="1:1" ht="12.7">
-      <c r="A160" s="47"/>
+      <c r="A160" s="46"/>
     </row>
     <row r="161" spans="1:1" ht="12.7">
-      <c r="A161" s="47"/>
+      <c r="A161" s="46"/>
     </row>
     <row r="162" spans="1:1" ht="12.7">
-      <c r="A162" s="47"/>
+      <c r="A162" s="46"/>
     </row>
     <row r="163" spans="1:1" ht="12.7">
-      <c r="A163" s="47"/>
+      <c r="A163" s="46"/>
     </row>
     <row r="164" spans="1:1" ht="12.7">
-      <c r="A164" s="47"/>
+      <c r="A164" s="46"/>
     </row>
     <row r="165" spans="1:1" ht="12.7">
-      <c r="A165" s="47"/>
+      <c r="A165" s="46"/>
     </row>
     <row r="166" spans="1:1" ht="12.7">
-      <c r="A166" s="47"/>
+      <c r="A166" s="46"/>
     </row>
     <row r="167" spans="1:1" ht="12.7">
-      <c r="A167" s="47"/>
+      <c r="A167" s="46"/>
     </row>
     <row r="168" spans="1:1" ht="12.7">
-      <c r="A168" s="47"/>
+      <c r="A168" s="46"/>
     </row>
     <row r="169" spans="1:1" ht="12.7">
-      <c r="A169" s="47"/>
+      <c r="A169" s="46"/>
     </row>
     <row r="170" spans="1:1" ht="12.7">
-      <c r="A170" s="47"/>
+      <c r="A170" s="46"/>
     </row>
     <row r="171" spans="1:1" ht="12.7">
-      <c r="A171" s="47"/>
+      <c r="A171" s="46"/>
     </row>
     <row r="172" spans="1:1" ht="12.7">
-      <c r="A172" s="47"/>
+      <c r="A172" s="46"/>
     </row>
     <row r="173" spans="1:1" ht="12.7">
-      <c r="A173" s="47"/>
+      <c r="A173" s="46"/>
     </row>
     <row r="174" spans="1:1" ht="12.7">
-      <c r="A174" s="47"/>
+      <c r="A174" s="46"/>
     </row>
     <row r="175" spans="1:1" ht="12.7">
-      <c r="A175" s="47"/>
+      <c r="A175" s="46"/>
     </row>
     <row r="176" spans="1:1" ht="12.7">
-      <c r="A176" s="47"/>
+      <c r="A176" s="46"/>
     </row>
     <row r="177" spans="1:1" ht="12.7">
-      <c r="A177" s="47"/>
+      <c r="A177" s="46"/>
     </row>
     <row r="178" spans="1:1" ht="12.7">
-      <c r="A178" s="47"/>
+      <c r="A178" s="46"/>
     </row>
     <row r="179" spans="1:1" ht="12.7">
-      <c r="A179" s="47"/>
+      <c r="A179" s="46"/>
     </row>
     <row r="180" spans="1:1" ht="12.7">
-      <c r="A180" s="47"/>
+      <c r="A180" s="46"/>
     </row>
     <row r="181" spans="1:1" ht="12.7">
-      <c r="A181" s="47"/>
+      <c r="A181" s="46"/>
     </row>
     <row r="182" spans="1:1" ht="12.7">
-      <c r="A182" s="47"/>
+      <c r="A182" s="46"/>
     </row>
     <row r="183" spans="1:1" ht="12.7">
-      <c r="A183" s="47"/>
+      <c r="A183" s="46"/>
     </row>
     <row r="184" spans="1:1" ht="12.7">
-      <c r="A184" s="47"/>
+      <c r="A184" s="46"/>
     </row>
     <row r="185" spans="1:1" ht="12.7">
-      <c r="A185" s="47"/>
+      <c r="A185" s="46"/>
     </row>
     <row r="186" spans="1:1" ht="12.7">
-      <c r="A186" s="47"/>
+      <c r="A186" s="46"/>
     </row>
     <row r="187" spans="1:1" ht="12.7">
-      <c r="A187" s="47"/>
+      <c r="A187" s="46"/>
     </row>
     <row r="188" spans="1:1" ht="12.7">
-      <c r="A188" s="47"/>
+      <c r="A188" s="46"/>
     </row>
     <row r="189" spans="1:1" ht="12.7">
-      <c r="A189" s="47"/>
+      <c r="A189" s="46"/>
     </row>
     <row r="190" spans="1:1" ht="12.7">
-      <c r="A190" s="47"/>
+      <c r="A190" s="46"/>
     </row>
     <row r="191" spans="1:1" ht="12.7">
-      <c r="A191" s="47"/>
+      <c r="A191" s="46"/>
     </row>
     <row r="192" spans="1:1" ht="12.7">
-      <c r="A192" s="47"/>
+      <c r="A192" s="46"/>
     </row>
     <row r="193" spans="1:1" ht="12.7">
-      <c r="A193" s="47"/>
+      <c r="A193" s="46"/>
     </row>
     <row r="194" spans="1:1" ht="12.7">
-      <c r="A194" s="47"/>
+      <c r="A194" s="46"/>
     </row>
     <row r="195" spans="1:1" ht="12.7">
-      <c r="A195" s="47"/>
+      <c r="A195" s="46"/>
     </row>
     <row r="196" spans="1:1" ht="12.7">
-      <c r="A196" s="47"/>
+      <c r="A196" s="46"/>
     </row>
     <row r="197" spans="1:1" ht="12.7">
-      <c r="A197" s="47"/>
+      <c r="A197" s="46"/>
     </row>
     <row r="198" spans="1:1" ht="12.7">
-      <c r="A198" s="47"/>
+      <c r="A198" s="46"/>
     </row>
     <row r="199" spans="1:1" ht="12.7">
-      <c r="A199" s="47"/>
+      <c r="A199" s="46"/>
     </row>
     <row r="200" spans="1:1" ht="12.7">
-      <c r="A200" s="47"/>
+      <c r="A200" s="46"/>
     </row>
     <row r="201" spans="1:1" ht="12.7">
-      <c r="A201" s="47"/>
+      <c r="A201" s="46"/>
     </row>
     <row r="202" spans="1:1" ht="12.7">
-      <c r="A202" s="47"/>
+      <c r="A202" s="46"/>
     </row>
     <row r="203" spans="1:1" ht="12.7">
-      <c r="A203" s="47"/>
+      <c r="A203" s="46"/>
     </row>
     <row r="204" spans="1:1" ht="12.7">
-      <c r="A204" s="47"/>
+      <c r="A204" s="46"/>
     </row>
     <row r="205" spans="1:1" ht="12.7">
-      <c r="A205" s="47"/>
+      <c r="A205" s="46"/>
     </row>
     <row r="206" spans="1:1" ht="12.7">
-      <c r="A206" s="47"/>
+      <c r="A206" s="46"/>
     </row>
     <row r="207" spans="1:1" ht="12.7">
-      <c r="A207" s="47"/>
+      <c r="A207" s="46"/>
     </row>
     <row r="208" spans="1:1" ht="12.7">
-      <c r="A208" s="47"/>
+      <c r="A208" s="46"/>
     </row>
     <row r="209" spans="1:1" ht="12.7">
-      <c r="A209" s="47"/>
+      <c r="A209" s="46"/>
     </row>
     <row r="210" spans="1:1" ht="12.7">
-      <c r="A210" s="47"/>
+      <c r="A210" s="46"/>
     </row>
     <row r="211" spans="1:1" ht="12.7">
-      <c r="A211" s="47"/>
+      <c r="A211" s="46"/>
     </row>
     <row r="212" spans="1:1" ht="12.7">
-      <c r="A212" s="47"/>
+      <c r="A212" s="46"/>
     </row>
     <row r="213" spans="1:1" ht="12.7">
-      <c r="A213" s="47"/>
+      <c r="A213" s="46"/>
     </row>
     <row r="214" spans="1:1" ht="12.7">
-      <c r="A214" s="47"/>
+      <c r="A214" s="46"/>
     </row>
     <row r="215" spans="1:1" ht="12.7">
-      <c r="A215" s="47"/>
+      <c r="A215" s="46"/>
     </row>
     <row r="216" spans="1:1" ht="12.7">
-      <c r="A216" s="47"/>
+      <c r="A216" s="46"/>
     </row>
     <row r="217" spans="1:1" ht="12.7">
-      <c r="A217" s="47"/>
+      <c r="A217" s="46"/>
     </row>
     <row r="218" spans="1:1" ht="12.7">
-      <c r="A218" s="47"/>
+      <c r="A218" s="46"/>
     </row>
     <row r="219" spans="1:1" ht="12.7">
-      <c r="A219" s="47"/>
+      <c r="A219" s="46"/>
     </row>
     <row r="220" spans="1:1" ht="12.7">
-      <c r="A220" s="47"/>
+      <c r="A220" s="46"/>
     </row>
     <row r="221" spans="1:1" ht="12.7">
-      <c r="A221" s="47"/>
+      <c r="A221" s="46"/>
     </row>
     <row r="222" spans="1:1" ht="12.7">
-      <c r="A222" s="47"/>
+      <c r="A222" s="46"/>
     </row>
     <row r="223" spans="1:1" ht="12.7">
-      <c r="A223" s="47"/>
+      <c r="A223" s="46"/>
     </row>
     <row r="224" spans="1:1" ht="12.7">
-      <c r="A224" s="47"/>
+      <c r="A224" s="46"/>
     </row>
     <row r="225" spans="1:1" ht="12.7">
-      <c r="A225" s="47"/>
+      <c r="A225" s="46"/>
     </row>
     <row r="226" spans="1:1" ht="12.7">
-      <c r="A226" s="47"/>
+      <c r="A226" s="46"/>
     </row>
     <row r="227" spans="1:1" ht="12.7">
-      <c r="A227" s="47"/>
+      <c r="A227" s="46"/>
     </row>
     <row r="228" spans="1:1" ht="12.7">
-      <c r="A228" s="47"/>
+      <c r="A228" s="46"/>
     </row>
     <row r="229" spans="1:1" ht="12.7">
-      <c r="A229" s="47"/>
+      <c r="A229" s="46"/>
     </row>
     <row r="230" spans="1:1" ht="12.7">
-      <c r="A230" s="47"/>
+      <c r="A230" s="46"/>
     </row>
     <row r="231" spans="1:1" ht="12.7">
-      <c r="A231" s="47"/>
+      <c r="A231" s="46"/>
     </row>
     <row r="232" spans="1:1" ht="12.7">
-      <c r="A232" s="47"/>
+      <c r="A232" s="46"/>
     </row>
     <row r="233" spans="1:1" ht="12.7">
-      <c r="A233" s="47"/>
+      <c r="A233" s="46"/>
     </row>
     <row r="234" spans="1:1" ht="12.7">
-      <c r="A234" s="47"/>
+      <c r="A234" s="46"/>
     </row>
     <row r="235" spans="1:1" ht="12.7">
-      <c r="A235" s="47"/>
+      <c r="A235" s="46"/>
     </row>
     <row r="236" spans="1:1" ht="12.7">
-      <c r="A236" s="47"/>
+      <c r="A236" s="46"/>
     </row>
     <row r="237" spans="1:1" ht="12.7">
-      <c r="A237" s="47"/>
+      <c r="A237" s="46"/>
     </row>
     <row r="238" spans="1:1" ht="12.7">
-      <c r="A238" s="47"/>
+      <c r="A238" s="46"/>
     </row>
     <row r="239" spans="1:1" ht="12.7">
-      <c r="A239" s="47"/>
+      <c r="A239" s="46"/>
     </row>
     <row r="240" spans="1:1" ht="12.7">
-      <c r="A240" s="47"/>
+      <c r="A240" s="46"/>
     </row>
     <row r="241" spans="1:1" ht="12.7">
-      <c r="A241" s="47"/>
+      <c r="A241" s="46"/>
     </row>
     <row r="242" spans="1:1" ht="12.7">
-      <c r="A242" s="47"/>
+      <c r="A242" s="46"/>
     </row>
     <row r="243" spans="1:1" ht="12.7">
-      <c r="A243" s="47"/>
+      <c r="A243" s="46"/>
     </row>
     <row r="244" spans="1:1" ht="12.7">
-      <c r="A244" s="47"/>
+      <c r="A244" s="46"/>
     </row>
     <row r="245" spans="1:1" ht="12.7">
-      <c r="A245" s="47"/>
+      <c r="A245" s="46"/>
     </row>
     <row r="246" spans="1:1" ht="12.7">
-      <c r="A246" s="47"/>
+      <c r="A246" s="46"/>
     </row>
     <row r="247" spans="1:1" ht="12.7">
-      <c r="A247" s="47"/>
+      <c r="A247" s="46"/>
     </row>
     <row r="248" spans="1:1" ht="12.7">
-      <c r="A248" s="47"/>
+      <c r="A248" s="46"/>
     </row>
     <row r="249" spans="1:1" ht="12.7">
-      <c r="A249" s="47"/>
+      <c r="A249" s="46"/>
     </row>
     <row r="250" spans="1:1" ht="12.7">
-      <c r="A250" s="47"/>
+      <c r="A250" s="46"/>
     </row>
     <row r="251" spans="1:1" ht="12.7">
-      <c r="A251" s="47"/>
+      <c r="A251" s="46"/>
     </row>
     <row r="252" spans="1:1" ht="12.7">
-      <c r="A252" s="47"/>
+      <c r="A252" s="46"/>
     </row>
     <row r="253" spans="1:1" ht="12.7">
-      <c r="A253" s="47"/>
+      <c r="A253" s="46"/>
     </row>
     <row r="254" spans="1:1" ht="12.7">
-      <c r="A254" s="47"/>
+      <c r="A254" s="46"/>
     </row>
     <row r="255" spans="1:1" ht="12.7">
-      <c r="A255" s="47"/>
+      <c r="A255" s="46"/>
     </row>
     <row r="256" spans="1:1" ht="12.7">
-      <c r="A256" s="47"/>
+      <c r="A256" s="46"/>
     </row>
     <row r="257" spans="1:1" ht="12.7">
-      <c r="A257" s="47"/>
+      <c r="A257" s="46"/>
     </row>
     <row r="258" spans="1:1" ht="12.7">
-      <c r="A258" s="47"/>
+      <c r="A258" s="46"/>
     </row>
     <row r="259" spans="1:1" ht="12.7">
-      <c r="A259" s="47"/>
+      <c r="A259" s="46"/>
     </row>
     <row r="260" spans="1:1" ht="12.7">
-      <c r="A260" s="47"/>
+      <c r="A260" s="46"/>
     </row>
     <row r="261" spans="1:1" ht="12.7">
-      <c r="A261" s="47"/>
+      <c r="A261" s="46"/>
     </row>
     <row r="262" spans="1:1" ht="12.7">
-      <c r="A262" s="47"/>
+      <c r="A262" s="46"/>
     </row>
     <row r="263" spans="1:1" ht="12.7">
-      <c r="A263" s="47"/>
+      <c r="A263" s="46"/>
     </row>
     <row r="264" spans="1:1" ht="12.7">
-      <c r="A264" s="47"/>
+      <c r="A264" s="46"/>
     </row>
     <row r="265" spans="1:1" ht="12.7">
-      <c r="A265" s="47"/>
+      <c r="A265" s="46"/>
     </row>
     <row r="266" spans="1:1" ht="12.7">
-      <c r="A266" s="47"/>
+      <c r="A266" s="46"/>
     </row>
     <row r="267" spans="1:1" ht="12.7">
-      <c r="A267" s="47"/>
+      <c r="A267" s="46"/>
     </row>
     <row r="268" spans="1:1" ht="12.7">
-      <c r="A268" s="47"/>
+      <c r="A268" s="46"/>
     </row>
     <row r="269" spans="1:1" ht="12.7">
-      <c r="A269" s="47"/>
+      <c r="A269" s="46"/>
     </row>
     <row r="270" spans="1:1" ht="12.7">
-      <c r="A270" s="47"/>
+      <c r="A270" s="46"/>
     </row>
     <row r="271" spans="1:1" ht="12.7">
-      <c r="A271" s="47"/>
+      <c r="A271" s="46"/>
     </row>
     <row r="272" spans="1:1" ht="12.7">
-      <c r="A272" s="47"/>
+      <c r="A272" s="46"/>
     </row>
     <row r="273" spans="1:1" ht="12.7">
-      <c r="A273" s="47"/>
+      <c r="A273" s="46"/>
     </row>
     <row r="274" spans="1:1" ht="12.7">
-      <c r="A274" s="47"/>
+      <c r="A274" s="46"/>
     </row>
     <row r="275" spans="1:1" ht="12.7">
-      <c r="A275" s="47"/>
+      <c r="A275" s="46"/>
     </row>
     <row r="276" spans="1:1" ht="12.7">
-      <c r="A276" s="47"/>
+      <c r="A276" s="46"/>
     </row>
     <row r="277" spans="1:1" ht="12.7">
-      <c r="A277" s="47"/>
+      <c r="A277" s="46"/>
     </row>
     <row r="278" spans="1:1" ht="12.7">
-      <c r="A278" s="47"/>
+      <c r="A278" s="46"/>
     </row>
     <row r="279" spans="1:1" ht="12.7">
-      <c r="A279" s="47"/>
+      <c r="A279" s="46"/>
     </row>
     <row r="280" spans="1:1" ht="12.7">
-      <c r="A280" s="47"/>
+      <c r="A280" s="46"/>
     </row>
     <row r="281" spans="1:1" ht="12.7">
-      <c r="A281" s="47"/>
+      <c r="A281" s="46"/>
     </row>
     <row r="282" spans="1:1" ht="12.7">
-      <c r="A282" s="47"/>
+      <c r="A282" s="46"/>
     </row>
     <row r="283" spans="1:1" ht="12.7">
-      <c r="A283" s="47"/>
+      <c r="A283" s="46"/>
     </row>
     <row r="284" spans="1:1" ht="12.7">
-      <c r="A284" s="47"/>
+      <c r="A284" s="46"/>
     </row>
     <row r="285" spans="1:1" ht="12.7">
-      <c r="A285" s="47"/>
+      <c r="A285" s="46"/>
     </row>
     <row r="286" spans="1:1" ht="12.7">
-      <c r="A286" s="47"/>
+      <c r="A286" s="46"/>
     </row>
     <row r="287" spans="1:1" ht="12.7">
-      <c r="A287" s="47"/>
+      <c r="A287" s="46"/>
     </row>
     <row r="288" spans="1:1" ht="12.7">
-      <c r="A288" s="47"/>
+      <c r="A288" s="46"/>
     </row>
     <row r="289" spans="1:1" ht="12.7">
-      <c r="A289" s="47"/>
+      <c r="A289" s="46"/>
     </row>
     <row r="290" spans="1:1" ht="12.7">
-      <c r="A290" s="47"/>
+      <c r="A290" s="46"/>
     </row>
     <row r="291" spans="1:1" ht="12.7">
-      <c r="A291" s="47"/>
+      <c r="A291" s="46"/>
     </row>
     <row r="292" spans="1:1" ht="12.7">
-      <c r="A292" s="47"/>
+      <c r="A292" s="46"/>
     </row>
     <row r="293" spans="1:1" ht="12.7">
-      <c r="A293" s="47"/>
+      <c r="A293" s="46"/>
     </row>
     <row r="294" spans="1:1" ht="12.7">
-      <c r="A294" s="47"/>
+      <c r="A294" s="46"/>
     </row>
     <row r="295" spans="1:1" ht="12.7">
-      <c r="A295" s="47"/>
+      <c r="A295" s="46"/>
     </row>
     <row r="296" spans="1:1" ht="12.7">
-      <c r="A296" s="47"/>
+      <c r="A296" s="46"/>
     </row>
     <row r="297" spans="1:1" ht="12.7">
-      <c r="A297" s="47"/>
+      <c r="A297" s="46"/>
     </row>
     <row r="298" spans="1:1" ht="12.7">
-      <c r="A298" s="47"/>
+      <c r="A298" s="46"/>
     </row>
     <row r="299" spans="1:1" ht="12.7">
-      <c r="A299" s="47"/>
+      <c r="A299" s="46"/>
     </row>
     <row r="300" spans="1:1" ht="12.7">
-      <c r="A300" s="47"/>
+      <c r="A300" s="46"/>
     </row>
     <row r="301" spans="1:1" ht="12.7">
-      <c r="A301" s="47"/>
+      <c r="A301" s="46"/>
     </row>
     <row r="302" spans="1:1" ht="12.7">
-      <c r="A302" s="47"/>
+      <c r="A302" s="46"/>
     </row>
     <row r="303" spans="1:1" ht="12.7">
-      <c r="A303" s="47"/>
+      <c r="A303" s="46"/>
     </row>
     <row r="304" spans="1:1" ht="12.7">
-      <c r="A304" s="47"/>
+      <c r="A304" s="46"/>
     </row>
     <row r="305" spans="1:1" ht="12.7">
-      <c r="A305" s="47"/>
+      <c r="A305" s="46"/>
     </row>
     <row r="306" spans="1:1" ht="12.7">
-      <c r="A306" s="47"/>
+      <c r="A306" s="46"/>
     </row>
     <row r="307" spans="1:1" ht="12.7">
-      <c r="A307" s="47"/>
+      <c r="A307" s="46"/>
     </row>
     <row r="308" spans="1:1" ht="12.7">
-      <c r="A308" s="47"/>
+      <c r="A308" s="46"/>
     </row>
     <row r="309" spans="1:1" ht="12.7">
-      <c r="A309" s="47"/>
+      <c r="A309" s="46"/>
     </row>
     <row r="310" spans="1:1" ht="12.7">
-      <c r="A310" s="47"/>
+      <c r="A310" s="46"/>
     </row>
     <row r="311" spans="1:1" ht="12.7">
-      <c r="A311" s="47"/>
+      <c r="A311" s="46"/>
     </row>
     <row r="312" spans="1:1" ht="12.7">
-      <c r="A312" s="47"/>
+      <c r="A312" s="46"/>
     </row>
     <row r="313" spans="1:1" ht="12.7">
-      <c r="A313" s="47"/>
+      <c r="A313" s="46"/>
     </row>
     <row r="314" spans="1:1" ht="12.7">
-      <c r="A314" s="47"/>
+      <c r="A314" s="46"/>
     </row>
     <row r="315" spans="1:1" ht="12.7">
-      <c r="A315" s="47"/>
+      <c r="A315" s="46"/>
     </row>
     <row r="316" spans="1:1" ht="12.7">
-      <c r="A316" s="47"/>
+      <c r="A316" s="46"/>
     </row>
     <row r="317" spans="1:1" ht="12.7">
-      <c r="A317" s="47"/>
+      <c r="A317" s="46"/>
     </row>
     <row r="318" spans="1:1" ht="12.7">
-      <c r="A318" s="47"/>
+      <c r="A318" s="46"/>
     </row>
     <row r="319" spans="1:1" ht="12.7">
-      <c r="A319" s="47"/>
+      <c r="A319" s="46"/>
     </row>
     <row r="320" spans="1:1" ht="12.7">
-      <c r="A320" s="47"/>
+      <c r="A320" s="46"/>
     </row>
     <row r="321" spans="1:1" ht="12.7">
-      <c r="A321" s="47"/>
+      <c r="A321" s="46"/>
     </row>
     <row r="322" spans="1:1" ht="12.7">
-      <c r="A322" s="47"/>
+      <c r="A322" s="46"/>
     </row>
     <row r="323" spans="1:1" ht="12.7">
-      <c r="A323" s="47"/>
+      <c r="A323" s="46"/>
     </row>
     <row r="324" spans="1:1" ht="12.7">
-      <c r="A324" s="47"/>
+      <c r="A324" s="46"/>
     </row>
     <row r="325" spans="1:1" ht="12.7">
-      <c r="A325" s="47"/>
+      <c r="A325" s="46"/>
     </row>
     <row r="326" spans="1:1" ht="12.7">
-      <c r="A326" s="47"/>
+      <c r="A326" s="46"/>
     </row>
     <row r="327" spans="1:1" ht="12.7">
-      <c r="A327" s="47"/>
+      <c r="A327" s="46"/>
     </row>
     <row r="328" spans="1:1" ht="12.7">
-      <c r="A328" s="47"/>
+      <c r="A328" s="46"/>
     </row>
     <row r="329" spans="1:1" ht="12.7">
-      <c r="A329" s="47"/>
+      <c r="A329" s="46"/>
     </row>
     <row r="330" spans="1:1" ht="12.7">
-      <c r="A330" s="47"/>
+      <c r="A330" s="46"/>
     </row>
     <row r="331" spans="1:1" ht="12.7">
-      <c r="A331" s="47"/>
+      <c r="A331" s="46"/>
     </row>
     <row r="332" spans="1:1" ht="12.7">
-      <c r="A332" s="47"/>
+      <c r="A332" s="46"/>
     </row>
     <row r="333" spans="1:1" ht="12.7">
-      <c r="A333" s="47"/>
+      <c r="A333" s="46"/>
     </row>
     <row r="334" spans="1:1" ht="12.7">
-      <c r="A334" s="47"/>
+      <c r="A334" s="46"/>
     </row>
     <row r="335" spans="1:1" ht="12.7">
-      <c r="A335" s="47"/>
+      <c r="A335" s="46"/>
     </row>
     <row r="336" spans="1:1" ht="12.7">
-      <c r="A336" s="47"/>
+      <c r="A336" s="46"/>
     </row>
     <row r="337" spans="1:1" ht="12.7">
-      <c r="A337" s="47"/>
+      <c r="A337" s="46"/>
     </row>
     <row r="338" spans="1:1" ht="12.7">
-      <c r="A338" s="47"/>
+      <c r="A338" s="46"/>
     </row>
     <row r="339" spans="1:1" ht="12.7">
-      <c r="A339" s="47"/>
+      <c r="A339" s="46"/>
     </row>
     <row r="340" spans="1:1" ht="12.7">
-      <c r="A340" s="47"/>
+      <c r="A340" s="46"/>
     </row>
     <row r="341" spans="1:1" ht="12.7">
-      <c r="A341" s="47"/>
+      <c r="A341" s="46"/>
     </row>
     <row r="342" spans="1:1" ht="12.7">
-      <c r="A342" s="47"/>
+      <c r="A342" s="46"/>
     </row>
     <row r="343" spans="1:1" ht="12.7">
-      <c r="A343" s="47"/>
+      <c r="A343" s="46"/>
     </row>
     <row r="344" spans="1:1" ht="12.7">
-      <c r="A344" s="47"/>
+      <c r="A344" s="46"/>
     </row>
     <row r="345" spans="1:1" ht="12.7">
-      <c r="A345" s="47"/>
+      <c r="A345" s="46"/>
     </row>
     <row r="346" spans="1:1" ht="12.7">
-      <c r="A346" s="47"/>
+      <c r="A346" s="46"/>
     </row>
     <row r="347" spans="1:1" ht="12.7">
-      <c r="A347" s="47"/>
+      <c r="A347" s="46"/>
     </row>
     <row r="348" spans="1:1" ht="12.7">
-      <c r="A348" s="47"/>
+      <c r="A348" s="46"/>
     </row>
     <row r="349" spans="1:1" ht="12.7">
-      <c r="A349" s="47"/>
+      <c r="A349" s="46"/>
     </row>
     <row r="350" spans="1:1" ht="12.7">
-      <c r="A350" s="47"/>
+      <c r="A350" s="46"/>
     </row>
     <row r="351" spans="1:1" ht="12.7">
-      <c r="A351" s="47"/>
+      <c r="A351" s="46"/>
     </row>
     <row r="352" spans="1:1" ht="12.7">
-      <c r="A352" s="47"/>
+      <c r="A352" s="46"/>
     </row>
     <row r="353" spans="1:1" ht="12.7">
-      <c r="A353" s="47"/>
+      <c r="A353" s="46"/>
     </row>
     <row r="354" spans="1:1" ht="12.7">
-      <c r="A354" s="47"/>
+      <c r="A354" s="46"/>
     </row>
     <row r="355" spans="1:1" ht="12.7">
-      <c r="A355" s="47"/>
+      <c r="A355" s="46"/>
     </row>
     <row r="356" spans="1:1" ht="12.7">
-      <c r="A356" s="47"/>
+      <c r="A356" s="46"/>
     </row>
     <row r="357" spans="1:1" ht="12.7">
-      <c r="A357" s="47"/>
+      <c r="A357" s="46"/>
     </row>
     <row r="358" spans="1:1" ht="12.7">
-      <c r="A358" s="47"/>
+      <c r="A358" s="46"/>
     </row>
     <row r="359" spans="1:1" ht="12.7">
-      <c r="A359" s="47"/>
+      <c r="A359" s="46"/>
     </row>
     <row r="360" spans="1:1" ht="12.7">
-      <c r="A360" s="47"/>
+      <c r="A360" s="46"/>
     </row>
     <row r="361" spans="1:1" ht="12.7">
-      <c r="A361" s="47"/>
+      <c r="A361" s="46"/>
     </row>
     <row r="362" spans="1:1" ht="12.7">
-      <c r="A362" s="47"/>
+      <c r="A362" s="46"/>
     </row>
     <row r="363" spans="1:1" ht="12.7">
-      <c r="A363" s="47"/>
+      <c r="A363" s="46"/>
     </row>
     <row r="364" spans="1:1" ht="12.7">
-      <c r="A364" s="47"/>
+      <c r="A364" s="46"/>
     </row>
     <row r="365" spans="1:1" ht="12.7">
-      <c r="A365" s="47"/>
+      <c r="A365" s="46"/>
     </row>
     <row r="366" spans="1:1" ht="12.7">
-      <c r="A366" s="47"/>
+      <c r="A366" s="46"/>
     </row>
     <row r="367" spans="1:1" ht="12.7">
-      <c r="A367" s="47"/>
+      <c r="A367" s="46"/>
     </row>
     <row r="368" spans="1:1" ht="12.7">
-      <c r="A368" s="47"/>
+      <c r="A368" s="46"/>
     </row>
     <row r="369" spans="1:1" ht="12.7">
-      <c r="A369" s="47"/>
+      <c r="A369" s="46"/>
     </row>
     <row r="370" spans="1:1" ht="12.7">
-      <c r="A370" s="47"/>
+      <c r="A370" s="46"/>
     </row>
     <row r="371" spans="1:1" ht="12.7">
-      <c r="A371" s="47"/>
+      <c r="A371" s="46"/>
     </row>
     <row r="372" spans="1:1" ht="12.7">
-      <c r="A372" s="47"/>
+      <c r="A372" s="46"/>
     </row>
     <row r="373" spans="1:1" ht="12.7">
-      <c r="A373" s="47"/>
+      <c r="A373" s="46"/>
     </row>
     <row r="374" spans="1:1" ht="12.7">
-      <c r="A374" s="47"/>
+      <c r="A374" s="46"/>
     </row>
     <row r="375" spans="1:1" ht="12.7">
-      <c r="A375" s="47"/>
+      <c r="A375" s="46"/>
     </row>
     <row r="376" spans="1:1" ht="12.7">
-      <c r="A376" s="47"/>
+      <c r="A376" s="46"/>
     </row>
     <row r="377" spans="1:1" ht="12.7">
-      <c r="A377" s="47"/>
+      <c r="A377" s="46"/>
     </row>
     <row r="378" spans="1:1" ht="12.7">
-      <c r="A378" s="47"/>
+      <c r="A378" s="46"/>
     </row>
     <row r="379" spans="1:1" ht="12.7">
-      <c r="A379" s="47"/>
+      <c r="A379" s="46"/>
     </row>
     <row r="380" spans="1:1" ht="12.7">
-      <c r="A380" s="47"/>
+      <c r="A380" s="46"/>
     </row>
     <row r="381" spans="1:1" ht="12.7">
-      <c r="A381" s="47"/>
+      <c r="A381" s="46"/>
     </row>
     <row r="382" spans="1:1" ht="12.7">
-      <c r="A382" s="47"/>
+      <c r="A382" s="46"/>
     </row>
     <row r="383" spans="1:1" ht="12.7">
-      <c r="A383" s="47"/>
+      <c r="A383" s="46"/>
     </row>
     <row r="384" spans="1:1" ht="12.7">
-      <c r="A384" s="47"/>
+      <c r="A384" s="46"/>
     </row>
     <row r="385" spans="1:1" ht="12.7">
-      <c r="A385" s="47"/>
+      <c r="A385" s="46"/>
     </row>
     <row r="386" spans="1:1" ht="12.7">
-      <c r="A386" s="47"/>
+      <c r="A386" s="46"/>
     </row>
     <row r="387" spans="1:1" ht="12.7">
-      <c r="A387" s="47"/>
+      <c r="A387" s="46"/>
     </row>
     <row r="388" spans="1:1" ht="12.7">
-      <c r="A388" s="47"/>
+      <c r="A388" s="46"/>
     </row>
     <row r="389" spans="1:1" ht="12.7">
-      <c r="A389" s="47"/>
+      <c r="A389" s="46"/>
     </row>
     <row r="390" spans="1:1" ht="12.7">
-      <c r="A390" s="47"/>
+      <c r="A390" s="46"/>
     </row>
     <row r="391" spans="1:1" ht="12.7">
-      <c r="A391" s="47"/>
+      <c r="A391" s="46"/>
     </row>
     <row r="392" spans="1:1" ht="12.7">
-      <c r="A392" s="47"/>
+      <c r="A392" s="46"/>
     </row>
     <row r="393" spans="1:1" ht="12.7">
-      <c r="A393" s="47"/>
+      <c r="A393" s="46"/>
     </row>
     <row r="394" spans="1:1" ht="12.7">
-      <c r="A394" s="47"/>
+      <c r="A394" s="46"/>
     </row>
     <row r="395" spans="1:1" ht="12.7">
-      <c r="A395" s="47"/>
+      <c r="A395" s="46"/>
     </row>
     <row r="396" spans="1:1" ht="12.7">
-      <c r="A396" s="47"/>
+      <c r="A396" s="46"/>
     </row>
     <row r="397" spans="1:1" ht="12.7">
-      <c r="A397" s="47"/>
+      <c r="A397" s="46"/>
     </row>
     <row r="398" spans="1:1" ht="12.7">
-      <c r="A398" s="47"/>
+      <c r="A398" s="46"/>
     </row>
     <row r="399" spans="1:1" ht="12.7">
-      <c r="A399" s="47"/>
+      <c r="A399" s="46"/>
     </row>
     <row r="400" spans="1:1" ht="12.7">
-      <c r="A400" s="47"/>
+      <c r="A400" s="46"/>
     </row>
     <row r="401" spans="1:1" ht="12.7">
-      <c r="A401" s="47"/>
+      <c r="A401" s="46"/>
     </row>
     <row r="402" spans="1:1" ht="12.7">
-      <c r="A402" s="47"/>
+      <c r="A402" s="46"/>
     </row>
     <row r="403" spans="1:1" ht="12.7">
-      <c r="A403" s="47"/>
+      <c r="A403" s="46"/>
     </row>
     <row r="404" spans="1:1" ht="12.7">
-      <c r="A404" s="47"/>
+      <c r="A404" s="46"/>
     </row>
     <row r="405" spans="1:1" ht="12.7">
-      <c r="A405" s="47"/>
+      <c r="A405" s="46"/>
     </row>
     <row r="406" spans="1:1" ht="12.7">
-      <c r="A406" s="47"/>
+      <c r="A406" s="46"/>
     </row>
     <row r="407" spans="1:1" ht="12.7">
-      <c r="A407" s="47"/>
+      <c r="A407" s="46"/>
     </row>
     <row r="408" spans="1:1" ht="12.7">
-      <c r="A408" s="47"/>
+      <c r="A408" s="46"/>
     </row>
     <row r="409" spans="1:1" ht="12.7">
-      <c r="A409" s="47"/>
+      <c r="A409" s="46"/>
     </row>
     <row r="410" spans="1:1" ht="12.7">
-      <c r="A410" s="47"/>
+      <c r="A410" s="46"/>
     </row>
     <row r="411" spans="1:1" ht="12.7">
-      <c r="A411" s="47"/>
+      <c r="A411" s="46"/>
     </row>
     <row r="412" spans="1:1" ht="12.7">
-      <c r="A412" s="47"/>
+      <c r="A412" s="46"/>
     </row>
     <row r="413" spans="1:1" ht="12.7">
-      <c r="A413" s="47"/>
+      <c r="A413" s="46"/>
     </row>
     <row r="414" spans="1:1" ht="12.7">
-      <c r="A414" s="47"/>
+      <c r="A414" s="46"/>
     </row>
     <row r="415" spans="1:1" ht="12.7">
-      <c r="A415" s="47"/>
+      <c r="A415" s="46"/>
     </row>
     <row r="416" spans="1:1" ht="12.7">
-      <c r="A416" s="47"/>
+      <c r="A416" s="46"/>
     </row>
     <row r="417" spans="1:1" ht="12.7">
-      <c r="A417" s="47"/>
+      <c r="A417" s="46"/>
     </row>
     <row r="418" spans="1:1" ht="12.7">
-      <c r="A418" s="47"/>
+      <c r="A418" s="46"/>
     </row>
     <row r="419" spans="1:1" ht="12.7">
-      <c r="A419" s="47"/>
+      <c r="A419" s="46"/>
     </row>
     <row r="420" spans="1:1" ht="12.7">
-      <c r="A420" s="47"/>
+      <c r="A420" s="46"/>
     </row>
     <row r="421" spans="1:1" ht="12.7">
-      <c r="A421" s="47"/>
+      <c r="A421" s="46"/>
     </row>
     <row r="422" spans="1:1" ht="12.7">
-      <c r="A422" s="47"/>
+      <c r="A422" s="46"/>
     </row>
     <row r="423" spans="1:1" ht="12.7">
-      <c r="A423" s="47"/>
+      <c r="A423" s="46"/>
     </row>
     <row r="424" spans="1:1" ht="12.7">
-      <c r="A424" s="47"/>
+      <c r="A424" s="46"/>
     </row>
     <row r="425" spans="1:1" ht="12.7">
-      <c r="A425" s="47"/>
+      <c r="A425" s="46"/>
     </row>
     <row r="426" spans="1:1" ht="12.7">
-      <c r="A426" s="47"/>
+      <c r="A426" s="46"/>
     </row>
     <row r="427" spans="1:1" ht="12.7">
-      <c r="A427" s="47"/>
+      <c r="A427" s="46"/>
     </row>
     <row r="428" spans="1:1" ht="12.7">
-      <c r="A428" s="47"/>
+      <c r="A428" s="46"/>
     </row>
     <row r="429" spans="1:1" ht="12.7">
-      <c r="A429" s="47"/>
+      <c r="A429" s="46"/>
     </row>
     <row r="430" spans="1:1" ht="12.7">
-      <c r="A430" s="47"/>
+      <c r="A430" s="46"/>
     </row>
     <row r="431" spans="1:1" ht="12.7">
-      <c r="A431" s="47"/>
+      <c r="A431" s="46"/>
     </row>
     <row r="432" spans="1:1" ht="12.7">
-      <c r="A432" s="47"/>
+      <c r="A432" s="46"/>
     </row>
     <row r="433" spans="1:1" ht="12.7">
-      <c r="A433" s="47"/>
+      <c r="A433" s="46"/>
     </row>
     <row r="434" spans="1:1" ht="12.7">
-      <c r="A434" s="47"/>
+      <c r="A434" s="46"/>
     </row>
     <row r="435" spans="1:1" ht="12.7">
-      <c r="A435" s="47"/>
+      <c r="A435" s="46"/>
     </row>
     <row r="436" spans="1:1" ht="12.7">
-      <c r="A436" s="47"/>
+      <c r="A436" s="46"/>
     </row>
     <row r="437" spans="1:1" ht="12.7">
-      <c r="A437" s="47"/>
+      <c r="A437" s="46"/>
     </row>
     <row r="438" spans="1:1" ht="12.7">
-      <c r="A438" s="47"/>
+      <c r="A438" s="46"/>
     </row>
     <row r="439" spans="1:1" ht="12.7">
-      <c r="A439" s="47"/>
+      <c r="A439" s="46"/>
     </row>
     <row r="440" spans="1:1" ht="12.7">
-      <c r="A440" s="47"/>
+      <c r="A440" s="46"/>
     </row>
     <row r="441" spans="1:1" ht="12.7">
-      <c r="A441" s="47"/>
+      <c r="A441" s="46"/>
     </row>
     <row r="442" spans="1:1" ht="12.7">
-      <c r="A442" s="47"/>
+      <c r="A442" s="46"/>
     </row>
     <row r="443" spans="1:1" ht="12.7">
-      <c r="A443" s="47"/>
+      <c r="A443" s="46"/>
     </row>
     <row r="444" spans="1:1" ht="12.7">
-      <c r="A444" s="47"/>
+      <c r="A444" s="46"/>
     </row>
     <row r="445" spans="1:1" ht="12.7">
-      <c r="A445" s="47"/>
+      <c r="A445" s="46"/>
     </row>
     <row r="446" spans="1:1" ht="12.7">
-      <c r="A446" s="47"/>
+      <c r="A446" s="46"/>
     </row>
     <row r="447" spans="1:1" ht="12.7">
-      <c r="A447" s="47"/>
+      <c r="A447" s="46"/>
     </row>
     <row r="448" spans="1:1" ht="12.7">
-      <c r="A448" s="47"/>
+      <c r="A448" s="46"/>
     </row>
     <row r="449" spans="1:1" ht="12.7">
-      <c r="A449" s="47"/>
+      <c r="A449" s="46"/>
     </row>
     <row r="450" spans="1:1" ht="12.7">
-      <c r="A450" s="47"/>
+      <c r="A450" s="46"/>
     </row>
     <row r="451" spans="1:1" ht="12.7">
-      <c r="A451" s="47"/>
+      <c r="A451" s="46"/>
     </row>
     <row r="452" spans="1:1" ht="12.7">
-      <c r="A452" s="47"/>
+      <c r="A452" s="46"/>
     </row>
     <row r="453" spans="1:1" ht="12.7">
-      <c r="A453" s="47"/>
+      <c r="A453" s="46"/>
     </row>
     <row r="454" spans="1:1" ht="12.7">
-      <c r="A454" s="47"/>
+      <c r="A454" s="46"/>
     </row>
     <row r="455" spans="1:1" ht="12.7">
-      <c r="A455" s="47"/>
+      <c r="A455" s="46"/>
     </row>
     <row r="456" spans="1:1" ht="12.7">
-      <c r="A456" s="47"/>
+      <c r="A456" s="46"/>
     </row>
     <row r="457" spans="1:1" ht="12.7">
-      <c r="A457" s="47"/>
+      <c r="A457" s="46"/>
     </row>
     <row r="458" spans="1:1" ht="12.7">
-      <c r="A458" s="47"/>
+      <c r="A458" s="46"/>
     </row>
     <row r="459" spans="1:1" ht="12.7">
-      <c r="A459" s="47"/>
+      <c r="A459" s="46"/>
     </row>
     <row r="460" spans="1:1" ht="12.7">
-      <c r="A460" s="47"/>
+      <c r="A460" s="46"/>
     </row>
     <row r="461" spans="1:1" ht="12.7">
-      <c r="A461" s="47"/>
+      <c r="A461" s="46"/>
     </row>
     <row r="462" spans="1:1" ht="12.7">
-      <c r="A462" s="47"/>
+      <c r="A462" s="46"/>
     </row>
     <row r="463" spans="1:1" ht="12.7">
-      <c r="A463" s="47"/>
+      <c r="A463" s="46"/>
     </row>
     <row r="464" spans="1:1" ht="12.7">
-      <c r="A464" s="47"/>
+      <c r="A464" s="46"/>
     </row>
     <row r="465" spans="1:1" ht="12.7">
-      <c r="A465" s="47"/>
+      <c r="A465" s="46"/>
     </row>
     <row r="466" spans="1:1" ht="12.7">
-      <c r="A466" s="47"/>
+      <c r="A466" s="46"/>
     </row>
     <row r="467" spans="1:1" ht="12.7">
-      <c r="A467" s="47"/>
+      <c r="A467" s="46"/>
     </row>
     <row r="468" spans="1:1" ht="12.7">
-      <c r="A468" s="47"/>
+      <c r="A468" s="46"/>
     </row>
     <row r="469" spans="1:1" ht="12.7">
-      <c r="A469" s="47"/>
+      <c r="A469" s="46"/>
     </row>
     <row r="470" spans="1:1" ht="12.7">
-      <c r="A470" s="47"/>
+      <c r="A470" s="46"/>
     </row>
     <row r="471" spans="1:1" ht="12.7">
-      <c r="A471" s="47"/>
+      <c r="A471" s="46"/>
     </row>
     <row r="472" spans="1:1" ht="12.7">
-      <c r="A472" s="47"/>
+      <c r="A472" s="46"/>
     </row>
     <row r="473" spans="1:1" ht="12.7">
-      <c r="A473" s="47"/>
+      <c r="A473" s="46"/>
     </row>
     <row r="474" spans="1:1" ht="12.7">
-      <c r="A474" s="47"/>
+      <c r="A474" s="46"/>
     </row>
     <row r="475" spans="1:1" ht="12.7">
-      <c r="A475" s="47"/>
+      <c r="A475" s="46"/>
     </row>
     <row r="476" spans="1:1" ht="12.7">
-      <c r="A476" s="47"/>
+      <c r="A476" s="46"/>
     </row>
     <row r="477" spans="1:1" ht="12.7">
-      <c r="A477" s="47"/>
+      <c r="A477" s="46"/>
     </row>
     <row r="478" spans="1:1" ht="12.7">
-      <c r="A478" s="47"/>
+      <c r="A478" s="46"/>
     </row>
     <row r="479" spans="1:1" ht="12.7">
-      <c r="A479" s="47"/>
+      <c r="A479" s="46"/>
     </row>
     <row r="480" spans="1:1" ht="12.7">
-      <c r="A480" s="47"/>
+      <c r="A480" s="46"/>
     </row>
     <row r="481" spans="1:1" ht="12.7">
-      <c r="A481" s="47"/>
+      <c r="A481" s="46"/>
     </row>
     <row r="482" spans="1:1" ht="12.7">
-      <c r="A482" s="47"/>
+      <c r="A482" s="46"/>
     </row>
     <row r="483" spans="1:1" ht="12.7">
-      <c r="A483" s="47"/>
+      <c r="A483" s="46"/>
     </row>
     <row r="484" spans="1:1" ht="12.7">
-      <c r="A484" s="47"/>
+      <c r="A484" s="46"/>
     </row>
     <row r="485" spans="1:1" ht="12.7">
-      <c r="A485" s="47"/>
+      <c r="A485" s="46"/>
     </row>
     <row r="486" spans="1:1" ht="12.7">
-      <c r="A486" s="47"/>
+      <c r="A486" s="46"/>
     </row>
     <row r="487" spans="1:1" ht="12.7">
-      <c r="A487" s="47"/>
+      <c r="A487" s="46"/>
     </row>
     <row r="488" spans="1:1" ht="12.7">
-      <c r="A488" s="47"/>
+      <c r="A488" s="46"/>
     </row>
     <row r="489" spans="1:1" ht="12.7">
-      <c r="A489" s="47"/>
+      <c r="A489" s="46"/>
     </row>
     <row r="490" spans="1:1" ht="12.7">
-      <c r="A490" s="47"/>
+      <c r="A490" s="46"/>
     </row>
     <row r="491" spans="1:1" ht="12.7">
-      <c r="A491" s="47"/>
+      <c r="A491" s="46"/>
     </row>
     <row r="492" spans="1:1" ht="12.7">
-      <c r="A492" s="47"/>
+      <c r="A492" s="46"/>
     </row>
     <row r="493" spans="1:1" ht="12.7">
-      <c r="A493" s="47"/>
+      <c r="A493" s="46"/>
     </row>
     <row r="494" spans="1:1" ht="12.7">
-      <c r="A494" s="47"/>
+      <c r="A494" s="46"/>
     </row>
     <row r="495" spans="1:1" ht="12.7">
-      <c r="A495" s="47"/>
+      <c r="A495" s="46"/>
     </row>
     <row r="496" spans="1:1" ht="12.7">
-      <c r="A496" s="47"/>
+      <c r="A496" s="46"/>
     </row>
     <row r="497" spans="1:1" ht="12.7">
-      <c r="A497" s="47"/>
+      <c r="A497" s="46"/>
     </row>
     <row r="498" spans="1:1" ht="12.7">
-      <c r="A498" s="47"/>
+      <c r="A498" s="46"/>
     </row>
     <row r="499" spans="1:1" ht="12.7">
-      <c r="A499" s="47"/>
+      <c r="A499" s="46"/>
     </row>
     <row r="500" spans="1:1" ht="12.7">
-      <c r="A500" s="47"/>
+      <c r="A500" s="46"/>
     </row>
     <row r="501" spans="1:1" ht="12.7">
-      <c r="A501" s="47"/>
+      <c r="A501" s="46"/>
     </row>
     <row r="502" spans="1:1" ht="12.7">
-      <c r="A502" s="47"/>
+      <c r="A502" s="46"/>
     </row>
     <row r="503" spans="1:1" ht="12.7">
-      <c r="A503" s="47"/>
+      <c r="A503" s="46"/>
     </row>
     <row r="504" spans="1:1" ht="12.7">
-      <c r="A504" s="47"/>
+      <c r="A504" s="46"/>
     </row>
     <row r="505" spans="1:1" ht="12.7">
-      <c r="A505" s="47"/>
+      <c r="A505" s="46"/>
     </row>
     <row r="506" spans="1:1" ht="12.7">
-      <c r="A506" s="47"/>
+      <c r="A506" s="46"/>
     </row>
     <row r="507" spans="1:1" ht="12.7">
-      <c r="A507" s="47"/>
+      <c r="A507" s="46"/>
     </row>
     <row r="508" spans="1:1" ht="12.7">
-      <c r="A508" s="47"/>
+      <c r="A508" s="46"/>
     </row>
     <row r="509" spans="1:1" ht="12.7">
-      <c r="A509" s="47"/>
+      <c r="A509" s="46"/>
     </row>
     <row r="510" spans="1:1" ht="12.7">
-      <c r="A510" s="47"/>
+      <c r="A510" s="46"/>
     </row>
     <row r="511" spans="1:1" ht="12.7">
-      <c r="A511" s="47"/>
+      <c r="A511" s="46"/>
     </row>
     <row r="512" spans="1:1" ht="12.7">
-      <c r="A512" s="47"/>
+      <c r="A512" s="46"/>
     </row>
     <row r="513" spans="1:1" ht="12.7">
-      <c r="A513" s="47"/>
+      <c r="A513" s="46"/>
     </row>
     <row r="514" spans="1:1" ht="12.7">
-      <c r="A514" s="47"/>
+      <c r="A514" s="46"/>
     </row>
     <row r="515" spans="1:1" ht="12.7">
-      <c r="A515" s="47"/>
+      <c r="A515" s="46"/>
     </row>
     <row r="516" spans="1:1" ht="12.7">
-      <c r="A516" s="47"/>
+      <c r="A516" s="46"/>
     </row>
     <row r="517" spans="1:1" ht="12.7">
-      <c r="A517" s="47"/>
+      <c r="A517" s="46"/>
     </row>
     <row r="518" spans="1:1" ht="12.7">
-      <c r="A518" s="47"/>
+      <c r="A518" s="46"/>
     </row>
     <row r="519" spans="1:1" ht="12.7">
-      <c r="A519" s="47"/>
+      <c r="A519" s="46"/>
     </row>
     <row r="520" spans="1:1" ht="12.7">
-      <c r="A520" s="47"/>
+      <c r="A520" s="46"/>
     </row>
     <row r="521" spans="1:1" ht="12.7">
-      <c r="A521" s="47"/>
+      <c r="A521" s="46"/>
     </row>
     <row r="522" spans="1:1" ht="12.7">
-      <c r="A522" s="47"/>
+      <c r="A522" s="46"/>
     </row>
     <row r="523" spans="1:1" ht="12.7">
-      <c r="A523" s="47"/>
+      <c r="A523" s="46"/>
     </row>
     <row r="524" spans="1:1" ht="12.7">
-      <c r="A524" s="47"/>
+      <c r="A524" s="46"/>
     </row>
     <row r="525" spans="1:1" ht="12.7">
-      <c r="A525" s="47"/>
+      <c r="A525" s="46"/>
     </row>
     <row r="526" spans="1:1" ht="12.7">
-      <c r="A526" s="47"/>
+      <c r="A526" s="46"/>
     </row>
     <row r="527" spans="1:1" ht="12.7">
-      <c r="A527" s="47"/>
+      <c r="A527" s="46"/>
     </row>
     <row r="528" spans="1:1" ht="12.7">
-      <c r="A528" s="47"/>
+      <c r="A528" s="46"/>
     </row>
     <row r="529" spans="1:1" ht="12.7">
-      <c r="A529" s="47"/>
+      <c r="A529" s="46"/>
     </row>
     <row r="530" spans="1:1" ht="12.7">
-      <c r="A530" s="47"/>
+      <c r="A530" s="46"/>
     </row>
     <row r="531" spans="1:1" ht="12.7">
-      <c r="A531" s="47"/>
+      <c r="A531" s="46"/>
     </row>
     <row r="532" spans="1:1" ht="12.7">
-      <c r="A532" s="47"/>
+      <c r="A532" s="46"/>
     </row>
     <row r="533" spans="1:1" ht="12.7">
-      <c r="A533" s="47"/>
+      <c r="A533" s="46"/>
     </row>
     <row r="534" spans="1:1" ht="12.7">
-      <c r="A534" s="47"/>
+      <c r="A534" s="46"/>
     </row>
     <row r="535" spans="1:1" ht="12.7">
-      <c r="A535" s="47"/>
+      <c r="A535" s="46"/>
     </row>
     <row r="536" spans="1:1" ht="12.7">
-      <c r="A536" s="47"/>
+      <c r="A536" s="46"/>
     </row>
     <row r="537" spans="1:1" ht="12.7">
-      <c r="A537" s="47"/>
+      <c r="A537" s="46"/>
     </row>
     <row r="538" spans="1:1" ht="12.7">
-      <c r="A538" s="47"/>
+      <c r="A538" s="46"/>
     </row>
     <row r="539" spans="1:1" ht="12.7">
-      <c r="A539" s="47"/>
+      <c r="A539" s="46"/>
     </row>
     <row r="540" spans="1:1" ht="12.7">
-      <c r="A540" s="47"/>
+      <c r="A540" s="46"/>
     </row>
     <row r="541" spans="1:1" ht="12.7">
-      <c r="A541" s="47"/>
+      <c r="A541" s="46"/>
     </row>
     <row r="542" spans="1:1" ht="12.7">
-      <c r="A542" s="47"/>
+      <c r="A542" s="46"/>
     </row>
     <row r="543" spans="1:1" ht="12.7">
-      <c r="A543" s="47"/>
+      <c r="A543" s="46"/>
     </row>
     <row r="544" spans="1:1" ht="12.7">
-      <c r="A544" s="47"/>
+      <c r="A544" s="46"/>
     </row>
     <row r="545" spans="1:1" ht="12.7">
-      <c r="A545" s="47"/>
+      <c r="A545" s="46"/>
     </row>
     <row r="546" spans="1:1" ht="12.7">
-      <c r="A546" s="47"/>
+      <c r="A546" s="46"/>
     </row>
     <row r="547" spans="1:1" ht="12.7">
-      <c r="A547" s="47"/>
+      <c r="A547" s="46"/>
     </row>
     <row r="548" spans="1:1" ht="12.7">
-      <c r="A548" s="47"/>
+      <c r="A548" s="46"/>
     </row>
     <row r="549" spans="1:1" ht="12.7">
-      <c r="A549" s="47"/>
+      <c r="A549" s="46"/>
     </row>
     <row r="550" spans="1:1" ht="12.7">
-      <c r="A550" s="47"/>
+      <c r="A550" s="46"/>
     </row>
     <row r="551" spans="1:1" ht="12.7">
-      <c r="A551" s="47"/>
+      <c r="A551" s="46"/>
     </row>
     <row r="552" spans="1:1" ht="12.7">
-      <c r="A552" s="47"/>
+      <c r="A552" s="46"/>
     </row>
     <row r="553" spans="1:1" ht="12.7">
-      <c r="A553" s="47"/>
+      <c r="A553" s="46"/>
     </row>
     <row r="554" spans="1:1" ht="12.7">
-      <c r="A554" s="47"/>
+      <c r="A554" s="46"/>
     </row>
     <row r="555" spans="1:1" ht="12.7">
-      <c r="A555" s="47"/>
+      <c r="A555" s="46"/>
     </row>
     <row r="556" spans="1:1" ht="12.7">
-      <c r="A556" s="47"/>
+      <c r="A556" s="46"/>
     </row>
     <row r="557" spans="1:1" ht="12.7">
-      <c r="A557" s="47"/>
+      <c r="A557" s="46"/>
     </row>
     <row r="558" spans="1:1" ht="12.7">
-      <c r="A558" s="47"/>
+      <c r="A558" s="46"/>
     </row>
     <row r="559" spans="1:1" ht="12.7">
-      <c r="A559" s="47"/>
+      <c r="A559" s="46"/>
     </row>
     <row r="560" spans="1:1" ht="12.7">
-      <c r="A560" s="47"/>
+      <c r="A560" s="46"/>
     </row>
     <row r="561" spans="1:1" ht="12.7">
-      <c r="A561" s="47"/>
+      <c r="A561" s="46"/>
     </row>
     <row r="562" spans="1:1" ht="12.7">
-      <c r="A562" s="47"/>
+      <c r="A562" s="46"/>
     </row>
     <row r="563" spans="1:1" ht="12.7">
-      <c r="A563" s="47"/>
+      <c r="A563" s="46"/>
     </row>
     <row r="564" spans="1:1" ht="12.7">
-      <c r="A564" s="47"/>
+      <c r="A564" s="46"/>
     </row>
     <row r="565" spans="1:1" ht="12.7">
-      <c r="A565" s="47"/>
+      <c r="A565" s="46"/>
     </row>
     <row r="566" spans="1:1" ht="12.7">
-      <c r="A566" s="47"/>
+      <c r="A566" s="46"/>
     </row>
     <row r="567" spans="1:1" ht="12.7">
-      <c r="A567" s="47"/>
+      <c r="A567" s="46"/>
     </row>
     <row r="568" spans="1:1" ht="12.7">
-      <c r="A568" s="47"/>
+      <c r="A568" s="46"/>
     </row>
     <row r="569" spans="1:1" ht="12.7">
-      <c r="A569" s="47"/>
+      <c r="A569" s="46"/>
     </row>
     <row r="570" spans="1:1" ht="12.7">
-      <c r="A570" s="47"/>
+      <c r="A570" s="46"/>
     </row>
     <row r="571" spans="1:1" ht="12.7">
-      <c r="A571" s="47"/>
+      <c r="A571" s="46"/>
     </row>
     <row r="572" spans="1:1" ht="12.7">
-      <c r="A572" s="47"/>
+      <c r="A572" s="46"/>
     </row>
     <row r="573" spans="1:1" ht="12.7">
-      <c r="A573" s="47"/>
+      <c r="A573" s="46"/>
     </row>
     <row r="574" spans="1:1" ht="12.7">
-      <c r="A574" s="47"/>
+      <c r="A574" s="46"/>
     </row>
     <row r="575" spans="1:1" ht="12.7">
-      <c r="A575" s="47"/>
+      <c r="A575" s="46"/>
     </row>
     <row r="576" spans="1:1" ht="12.7">
-      <c r="A576" s="47"/>
+      <c r="A576" s="46"/>
     </row>
     <row r="577" spans="1:1" ht="12.7">
-      <c r="A577" s="47"/>
+      <c r="A577" s="46"/>
     </row>
     <row r="578" spans="1:1" ht="12.7">
-      <c r="A578" s="47"/>
+      <c r="A578" s="46"/>
     </row>
     <row r="579" spans="1:1" ht="12.7">
-      <c r="A579" s="47"/>
+      <c r="A579" s="46"/>
     </row>
     <row r="580" spans="1:1" ht="12.7">
-      <c r="A580" s="47"/>
+      <c r="A580" s="46"/>
     </row>
     <row r="581" spans="1:1" ht="12.7">
-      <c r="A581" s="47"/>
+      <c r="A581" s="46"/>
     </row>
     <row r="582" spans="1:1" ht="12.7">
-      <c r="A582" s="47"/>
+      <c r="A582" s="46"/>
     </row>
     <row r="583" spans="1:1" ht="12.7">
-      <c r="A583" s="47"/>
+      <c r="A583" s="46"/>
     </row>
     <row r="584" spans="1:1" ht="12.7">
-      <c r="A584" s="47"/>
+      <c r="A584" s="46"/>
     </row>
     <row r="585" spans="1:1" ht="12.7">
-      <c r="A585" s="47"/>
+      <c r="A585" s="46"/>
     </row>
     <row r="586" spans="1:1" ht="12.7">
-      <c r="A586" s="47"/>
+      <c r="A586" s="46"/>
     </row>
     <row r="587" spans="1:1" ht="12.7">
-      <c r="A587" s="47"/>
+      <c r="A587" s="46"/>
     </row>
     <row r="588" spans="1:1" ht="12.7">
-      <c r="A588" s="47"/>
+      <c r="A588" s="46"/>
     </row>
     <row r="589" spans="1:1" ht="12.7">
-      <c r="A589" s="47"/>
+      <c r="A589" s="46"/>
     </row>
     <row r="590" spans="1:1" ht="12.7">
-      <c r="A590" s="47"/>
+      <c r="A590" s="46"/>
     </row>
     <row r="591" spans="1:1" ht="12.7">
-      <c r="A591" s="47"/>
+      <c r="A591" s="46"/>
     </row>
     <row r="592" spans="1:1" ht="12.7">
-      <c r="A592" s="47"/>
+      <c r="A592" s="46"/>
     </row>
     <row r="593" spans="1:1" ht="12.7">
-      <c r="A593" s="47"/>
+      <c r="A593" s="46"/>
     </row>
     <row r="594" spans="1:1" ht="12.7">
-      <c r="A594" s="47"/>
+      <c r="A594" s="46"/>
     </row>
     <row r="595" spans="1:1" ht="12.7">
-      <c r="A595" s="47"/>
+      <c r="A595" s="46"/>
     </row>
     <row r="596" spans="1:1" ht="12.7">
-      <c r="A596" s="47"/>
+      <c r="A596" s="46"/>
     </row>
     <row r="597" spans="1:1" ht="12.7">
-      <c r="A597" s="47"/>
+      <c r="A597" s="46"/>
     </row>
     <row r="598" spans="1:1" ht="12.7">
-      <c r="A598" s="47"/>
+      <c r="A598" s="46"/>
     </row>
     <row r="599" spans="1:1" ht="12.7">
-      <c r="A599" s="47"/>
+      <c r="A599" s="46"/>
     </row>
     <row r="600" spans="1:1" ht="12.7">
-      <c r="A600" s="47"/>
+      <c r="A600" s="46"/>
     </row>
     <row r="601" spans="1:1" ht="12.7">
-      <c r="A601" s="47"/>
+      <c r="A601" s="46"/>
     </row>
     <row r="602" spans="1:1" ht="12.7">
-      <c r="A602" s="47"/>
+      <c r="A602" s="46"/>
     </row>
     <row r="603" spans="1:1" ht="12.7">
-      <c r="A603" s="47"/>
+      <c r="A603" s="46"/>
     </row>
     <row r="604" spans="1:1" ht="12.7">
-      <c r="A604" s="47"/>
+      <c r="A604" s="46"/>
     </row>
     <row r="605" spans="1:1" ht="12.7">
-      <c r="A605" s="47"/>
+      <c r="A605" s="46"/>
     </row>
     <row r="606" spans="1:1" ht="12.7">
-      <c r="A606" s="47"/>
+      <c r="A606" s="46"/>
     </row>
     <row r="607" spans="1:1" ht="12.7">
-      <c r="A607" s="47"/>
+      <c r="A607" s="46"/>
     </row>
     <row r="608" spans="1:1" ht="12.7">
-      <c r="A608" s="47"/>
+      <c r="A608" s="46"/>
     </row>
     <row r="609" spans="1:1" ht="12.7">
-      <c r="A609" s="47"/>
+      <c r="A609" s="46"/>
     </row>
     <row r="610" spans="1:1" ht="12.7">
-      <c r="A610" s="47"/>
+      <c r="A610" s="46"/>
     </row>
     <row r="611" spans="1:1" ht="12.7">
-      <c r="A611" s="47"/>
+      <c r="A611" s="46"/>
     </row>
     <row r="612" spans="1:1" ht="12.7">
-      <c r="A612" s="47"/>
+      <c r="A612" s="46"/>
     </row>
     <row r="613" spans="1:1" ht="12.7">
-      <c r="A613" s="47"/>
+      <c r="A613" s="46"/>
     </row>
     <row r="614" spans="1:1" ht="12.7">
-      <c r="A614" s="47"/>
+      <c r="A614" s="46"/>
     </row>
     <row r="615" spans="1:1" ht="12.7">
-      <c r="A615" s="47"/>
+      <c r="A615" s="46"/>
     </row>
     <row r="616" spans="1:1" ht="12.7">
-      <c r="A616" s="47"/>
+      <c r="A616" s="46"/>
     </row>
     <row r="617" spans="1:1" ht="12.7">
-      <c r="A617" s="47"/>
+      <c r="A617" s="46"/>
     </row>
     <row r="618" spans="1:1" ht="12.7">
-      <c r="A618" s="47"/>
+      <c r="A618" s="46"/>
     </row>
     <row r="619" spans="1:1" ht="12.7">
-      <c r="A619" s="47"/>
+      <c r="A619" s="46"/>
     </row>
     <row r="620" spans="1:1" ht="12.7">
-      <c r="A620" s="47"/>
+      <c r="A620" s="46"/>
     </row>
     <row r="621" spans="1:1" ht="12.7">
-      <c r="A621" s="47"/>
+      <c r="A621" s="46"/>
     </row>
     <row r="622" spans="1:1" ht="12.7">
-      <c r="A622" s="47"/>
+      <c r="A622" s="46"/>
     </row>
     <row r="623" spans="1:1" ht="12.7">
-      <c r="A623" s="47"/>
+      <c r="A623" s="46"/>
     </row>
     <row r="624" spans="1:1" ht="12.7">
-      <c r="A624" s="47"/>
+      <c r="A624" s="46"/>
     </row>
     <row r="625" spans="1:1" ht="12.7">
-      <c r="A625" s="47"/>
+      <c r="A625" s="46"/>
     </row>
     <row r="626" spans="1:1" ht="12.7">
-      <c r="A626" s="47"/>
+      <c r="A626" s="46"/>
     </row>
     <row r="627" spans="1:1" ht="12.7">
-      <c r="A627" s="47"/>
+      <c r="A627" s="46"/>
     </row>
     <row r="628" spans="1:1" ht="12.7">
-      <c r="A628" s="47"/>
+      <c r="A628" s="46"/>
     </row>
     <row r="629" spans="1:1" ht="12.7">
-      <c r="A629" s="47"/>
+      <c r="A629" s="46"/>
     </row>
     <row r="630" spans="1:1" ht="12.7">
-      <c r="A630" s="47"/>
+      <c r="A630" s="46"/>
     </row>
     <row r="631" spans="1:1" ht="12.7">
-      <c r="A631" s="47"/>
+      <c r="A631" s="46"/>
     </row>
     <row r="632" spans="1:1" ht="12.7">
-      <c r="A632" s="47"/>
+      <c r="A632" s="46"/>
     </row>
     <row r="633" spans="1:1" ht="12.7">
-      <c r="A633" s="47"/>
+      <c r="A633" s="46"/>
     </row>
     <row r="634" spans="1:1" ht="12.7">
-      <c r="A634" s="47"/>
+      <c r="A634" s="46"/>
     </row>
     <row r="635" spans="1:1" ht="12.7">
-      <c r="A635" s="47"/>
+      <c r="A635" s="46"/>
     </row>
     <row r="636" spans="1:1" ht="12.7">
-      <c r="A636" s="47"/>
+      <c r="A636" s="46"/>
     </row>
     <row r="637" spans="1:1" ht="12.7">
-      <c r="A637" s="47"/>
+      <c r="A637" s="46"/>
     </row>
     <row r="638" spans="1:1" ht="12.7">
-      <c r="A638" s="47"/>
+      <c r="A638" s="46"/>
     </row>
     <row r="639" spans="1:1" ht="12.7">
-      <c r="A639" s="47"/>
+      <c r="A639" s="46"/>
     </row>
     <row r="640" spans="1:1" ht="12.7">
-      <c r="A640" s="47"/>
+      <c r="A640" s="46"/>
     </row>
     <row r="641" spans="1:1" ht="12.7">
-      <c r="A641" s="47"/>
+      <c r="A641" s="46"/>
     </row>
     <row r="642" spans="1:1" ht="12.7">
-      <c r="A642" s="47"/>
+      <c r="A642" s="46"/>
     </row>
     <row r="643" spans="1:1" ht="12.7">
-      <c r="A643" s="47"/>
+      <c r="A643" s="46"/>
     </row>
     <row r="644" spans="1:1" ht="12.7">
-      <c r="A644" s="47"/>
+      <c r="A644" s="46"/>
     </row>
     <row r="645" spans="1:1" ht="12.7">
-      <c r="A645" s="47"/>
+      <c r="A645" s="46"/>
     </row>
     <row r="646" spans="1:1" ht="12.7">
-      <c r="A646" s="47"/>
+      <c r="A646" s="46"/>
     </row>
     <row r="647" spans="1:1" ht="12.7">
-      <c r="A647" s="47"/>
+      <c r="A647" s="46"/>
     </row>
     <row r="648" spans="1:1" ht="12.7">
-      <c r="A648" s="47"/>
+      <c r="A648" s="46"/>
     </row>
     <row r="649" spans="1:1" ht="12.7">
-      <c r="A649" s="47"/>
+      <c r="A649" s="46"/>
     </row>
     <row r="650" spans="1:1" ht="12.7">
-      <c r="A650" s="47"/>
+      <c r="A650" s="46"/>
     </row>
     <row r="651" spans="1:1" ht="12.7">
-      <c r="A651" s="47"/>
+      <c r="A651" s="46"/>
     </row>
     <row r="652" spans="1:1" ht="12.7">
-      <c r="A652" s="47"/>
+      <c r="A652" s="46"/>
     </row>
     <row r="653" spans="1:1" ht="12.7">
-      <c r="A653" s="47"/>
+      <c r="A653" s="46"/>
     </row>
     <row r="654" spans="1:1" ht="12.7">
-      <c r="A654" s="47"/>
+      <c r="A654" s="46"/>
     </row>
     <row r="655" spans="1:1" ht="12.7">
-      <c r="A655" s="47"/>
+      <c r="A655" s="46"/>
     </row>
     <row r="656" spans="1:1" ht="12.7">
-      <c r="A656" s="47"/>
+      <c r="A656" s="46"/>
     </row>
     <row r="657" spans="1:1" ht="12.7">
-      <c r="A657" s="47"/>
+      <c r="A657" s="46"/>
     </row>
     <row r="658" spans="1:1" ht="12.7">
-      <c r="A658" s="47"/>
+      <c r="A658" s="46"/>
     </row>
     <row r="659" spans="1:1" ht="12.7">
-      <c r="A659" s="47"/>
+      <c r="A659" s="46"/>
     </row>
     <row r="660" spans="1:1" ht="12.7">
-      <c r="A660" s="47"/>
+      <c r="A660" s="46"/>
     </row>
     <row r="661" spans="1:1" ht="12.7">
-      <c r="A661" s="47"/>
+      <c r="A661" s="46"/>
     </row>
     <row r="662" spans="1:1" ht="12.7">
-      <c r="A662" s="47"/>
+      <c r="A662" s="46"/>
     </row>
     <row r="663" spans="1:1" ht="12.7">
-      <c r="A663" s="47"/>
+      <c r="A663" s="46"/>
     </row>
     <row r="664" spans="1:1" ht="12.7">
-      <c r="A664" s="47"/>
+      <c r="A664" s="46"/>
     </row>
     <row r="665" spans="1:1" ht="12.7">
-      <c r="A665" s="47"/>
+      <c r="A665" s="46"/>
     </row>
     <row r="666" spans="1:1" ht="12.7">
-      <c r="A666" s="47"/>
+      <c r="A666" s="46"/>
     </row>
     <row r="667" spans="1:1" ht="12.7">
-      <c r="A667" s="47"/>
+      <c r="A667" s="46"/>
     </row>
     <row r="668" spans="1:1" ht="12.7">
-      <c r="A668" s="47"/>
+      <c r="A668" s="46"/>
     </row>
     <row r="669" spans="1:1" ht="12.7">
-      <c r="A669" s="47"/>
+      <c r="A669" s="46"/>
     </row>
     <row r="670" spans="1:1" ht="12.7">
-      <c r="A670" s="47"/>
+      <c r="A670" s="46"/>
     </row>
     <row r="671" spans="1:1" ht="12.7">
-      <c r="A671" s="47"/>
+      <c r="A671" s="46"/>
     </row>
     <row r="672" spans="1:1" ht="12.7">
-      <c r="A672" s="47"/>
+      <c r="A672" s="46"/>
     </row>
     <row r="673" spans="1:1" ht="12.7">
-      <c r="A673" s="47"/>
+      <c r="A673" s="46"/>
     </row>
     <row r="674" spans="1:1" ht="12.7">
-      <c r="A674" s="47"/>
+      <c r="A674" s="46"/>
     </row>
     <row r="675" spans="1:1" ht="12.7">
-      <c r="A675" s="47"/>
+      <c r="A675" s="46"/>
     </row>
     <row r="676" spans="1:1" ht="12.7">
-      <c r="A676" s="47"/>
+      <c r="A676" s="46"/>
     </row>
     <row r="677" spans="1:1" ht="12.7">
-      <c r="A677" s="47"/>
+      <c r="A677" s="46"/>
     </row>
     <row r="678" spans="1:1" ht="12.7">
-      <c r="A678" s="47"/>
+      <c r="A678" s="46"/>
     </row>
     <row r="679" spans="1:1" ht="12.7">
-      <c r="A679" s="47"/>
+      <c r="A679" s="46"/>
     </row>
     <row r="680" spans="1:1" ht="12.7">
-      <c r="A680" s="47"/>
+      <c r="A680" s="46"/>
     </row>
     <row r="681" spans="1:1" ht="12.7">
-      <c r="A681" s="47"/>
+      <c r="A681" s="46"/>
     </row>
     <row r="682" spans="1:1" ht="12.7">
-      <c r="A682" s="47"/>
+      <c r="A682" s="46"/>
     </row>
     <row r="683" spans="1:1" ht="12.7">
-      <c r="A683" s="47"/>
+      <c r="A683" s="46"/>
     </row>
     <row r="684" spans="1:1" ht="12.7">
-      <c r="A684" s="47"/>
+      <c r="A684" s="46"/>
     </row>
     <row r="685" spans="1:1" ht="12.7">
-      <c r="A685" s="47"/>
+      <c r="A685" s="46"/>
     </row>
     <row r="686" spans="1:1" ht="12.7">
-      <c r="A686" s="47"/>
+      <c r="A686" s="46"/>
     </row>
     <row r="687" spans="1:1" ht="12.7">
-      <c r="A687" s="47"/>
+      <c r="A687" s="46"/>
     </row>
     <row r="688" spans="1:1" ht="12.7">
-      <c r="A688" s="47"/>
+      <c r="A688" s="46"/>
     </row>
     <row r="689" spans="1:1" ht="12.7">
-      <c r="A689" s="47"/>
+      <c r="A689" s="46"/>
     </row>
     <row r="690" spans="1:1" ht="12.7">
-      <c r="A690" s="47"/>
+      <c r="A690" s="46"/>
     </row>
     <row r="691" spans="1:1" ht="12.7">
-      <c r="A691" s="47"/>
+      <c r="A691" s="46"/>
     </row>
     <row r="692" spans="1:1" ht="12.7">
-      <c r="A692" s="47"/>
+      <c r="A692" s="46"/>
     </row>
     <row r="693" spans="1:1" ht="12.7">
-      <c r="A693" s="47"/>
+      <c r="A693" s="46"/>
     </row>
     <row r="694" spans="1:1" ht="12.7">
-      <c r="A694" s="47"/>
+      <c r="A694" s="46"/>
     </row>
     <row r="695" spans="1:1" ht="12.7">
-      <c r="A695" s="47"/>
+      <c r="A695" s="46"/>
     </row>
     <row r="696" spans="1:1" ht="12.7">
-      <c r="A696" s="47"/>
+      <c r="A696" s="46"/>
     </row>
     <row r="697" spans="1:1" ht="12.7">
-      <c r="A697" s="47"/>
+      <c r="A697" s="46"/>
     </row>
     <row r="698" spans="1:1" ht="12.7">
-      <c r="A698" s="47"/>
+      <c r="A698" s="46"/>
     </row>
     <row r="699" spans="1:1" ht="12.7">
-      <c r="A699" s="47"/>
+      <c r="A699" s="46"/>
     </row>
     <row r="700" spans="1:1" ht="12.7">
-      <c r="A700" s="47"/>
+      <c r="A700" s="46"/>
     </row>
     <row r="701" spans="1:1" ht="12.7">
-      <c r="A701" s="47"/>
+      <c r="A701" s="46"/>
     </row>
     <row r="702" spans="1:1" ht="12.7">
-      <c r="A702" s="47"/>
+      <c r="A702" s="46"/>
     </row>
     <row r="703" spans="1:1" ht="12.7">
-      <c r="A703" s="47"/>
+      <c r="A703" s="46"/>
     </row>
     <row r="704" spans="1:1" ht="12.7">
-      <c r="A704" s="47"/>
+      <c r="A704" s="46"/>
     </row>
     <row r="705" spans="1:1" ht="12.7">
-      <c r="A705" s="47"/>
+      <c r="A705" s="46"/>
     </row>
     <row r="706" spans="1:1" ht="12.7">
-      <c r="A706" s="47"/>
+      <c r="A706" s="46"/>
     </row>
     <row r="707" spans="1:1" ht="12.7">
-      <c r="A707" s="47"/>
+      <c r="A707" s="46"/>
     </row>
     <row r="708" spans="1:1" ht="12.7">
-      <c r="A708" s="47"/>
+      <c r="A708" s="46"/>
     </row>
     <row r="709" spans="1:1" ht="12.7">
-      <c r="A709" s="47"/>
+      <c r="A709" s="46"/>
     </row>
     <row r="710" spans="1:1" ht="12.7">
-      <c r="A710" s="47"/>
+      <c r="A710" s="46"/>
     </row>
     <row r="711" spans="1:1" ht="12.7">
-      <c r="A711" s="47"/>
+      <c r="A711" s="46"/>
     </row>
     <row r="712" spans="1:1" ht="12.7">
-      <c r="A712" s="47"/>
+      <c r="A712" s="46"/>
     </row>
     <row r="713" spans="1:1" ht="12.7">
-      <c r="A713" s="47"/>
+      <c r="A713" s="46"/>
     </row>
     <row r="714" spans="1:1" ht="12.7">
-      <c r="A714" s="47"/>
+      <c r="A714" s="46"/>
     </row>
     <row r="715" spans="1:1" ht="12.7">
-      <c r="A715" s="47"/>
+      <c r="A715" s="46"/>
     </row>
     <row r="716" spans="1:1" ht="12.7">
-      <c r="A716" s="47"/>
+      <c r="A716" s="46"/>
     </row>
     <row r="717" spans="1:1" ht="12.7">
-      <c r="A717" s="47"/>
+      <c r="A717" s="46"/>
     </row>
     <row r="718" spans="1:1" ht="12.7">
-      <c r="A718" s="47"/>
+      <c r="A718" s="46"/>
     </row>
     <row r="719" spans="1:1" ht="12.7">
-      <c r="A719" s="47"/>
+      <c r="A719" s="46"/>
     </row>
     <row r="720" spans="1:1" ht="12.7">
-      <c r="A720" s="47"/>
+      <c r="A720" s="46"/>
     </row>
     <row r="721" spans="1:1" ht="12.7">
-      <c r="A721" s="47"/>
+      <c r="A721" s="46"/>
     </row>
     <row r="722" spans="1:1" ht="12.7">
-      <c r="A722" s="47"/>
+      <c r="A722" s="46"/>
     </row>
     <row r="723" spans="1:1" ht="12.7">
-      <c r="A723" s="47"/>
+      <c r="A723" s="46"/>
     </row>
     <row r="724" spans="1:1" ht="12.7">
-      <c r="A724" s="47"/>
+      <c r="A724" s="46"/>
     </row>
     <row r="725" spans="1:1" ht="12.7">
-      <c r="A725" s="47"/>
+      <c r="A725" s="46"/>
     </row>
     <row r="726" spans="1:1" ht="12.7">
-      <c r="A726" s="47"/>
+      <c r="A726" s="46"/>
     </row>
     <row r="727" spans="1:1" ht="12.7">
-      <c r="A727" s="47"/>
+      <c r="A727" s="46"/>
     </row>
     <row r="728" spans="1:1" ht="12.7">
-      <c r="A728" s="47"/>
+      <c r="A728" s="46"/>
     </row>
     <row r="729" spans="1:1" ht="12.7">
-      <c r="A729" s="47"/>
+      <c r="A729" s="46"/>
     </row>
     <row r="730" spans="1:1" ht="12.7">
-      <c r="A730" s="47"/>
+      <c r="A730" s="46"/>
     </row>
     <row r="731" spans="1:1" ht="12.7">
-      <c r="A731" s="47"/>
+      <c r="A731" s="46"/>
     </row>
     <row r="732" spans="1:1" ht="12.7">
-      <c r="A732" s="47"/>
+      <c r="A732" s="46"/>
     </row>
     <row r="733" spans="1:1" ht="12.7">
-      <c r="A733" s="47"/>
+      <c r="A733" s="46"/>
     </row>
     <row r="734" spans="1:1" ht="12.7">
-      <c r="A734" s="47"/>
+      <c r="A734" s="46"/>
     </row>
     <row r="735" spans="1:1" ht="12.7">
-      <c r="A735" s="47"/>
+      <c r="A735" s="46"/>
     </row>
     <row r="736" spans="1:1" ht="12.7">
-      <c r="A736" s="47"/>
+      <c r="A736" s="46"/>
     </row>
     <row r="737" spans="1:1" ht="12.7">
-      <c r="A737" s="47"/>
+      <c r="A737" s="46"/>
     </row>
     <row r="738" spans="1:1" ht="12.7">
-      <c r="A738" s="47"/>
+      <c r="A738" s="46"/>
     </row>
     <row r="739" spans="1:1" ht="12.7">
-      <c r="A739" s="47"/>
+      <c r="A739" s="46"/>
     </row>
     <row r="740" spans="1:1" ht="12.7">
-      <c r="A740" s="47"/>
+      <c r="A740" s="46"/>
     </row>
     <row r="741" spans="1:1" ht="12.7">
-      <c r="A741" s="47"/>
+      <c r="A741" s="46"/>
     </row>
     <row r="742" spans="1:1" ht="12.7">
-      <c r="A742" s="47"/>
+      <c r="A742" s="46"/>
     </row>
     <row r="743" spans="1:1" ht="12.7">
-      <c r="A743" s="47"/>
+      <c r="A743" s="46"/>
     </row>
     <row r="744" spans="1:1" ht="12.7">
-      <c r="A744" s="47"/>
+      <c r="A744" s="46"/>
     </row>
     <row r="745" spans="1:1" ht="12.7">
-      <c r="A745" s="47"/>
+      <c r="A745" s="46"/>
     </row>
     <row r="746" spans="1:1" ht="12.7">
-      <c r="A746" s="47"/>
+      <c r="A746" s="46"/>
     </row>
     <row r="747" spans="1:1" ht="12.7">
-      <c r="A747" s="47"/>
+      <c r="A747" s="46"/>
     </row>
     <row r="748" spans="1:1" ht="12.7">
-      <c r="A748" s="47"/>
+      <c r="A748" s="46"/>
     </row>
     <row r="749" spans="1:1" ht="12.7">
-      <c r="A749" s="47"/>
+      <c r="A749" s="46"/>
     </row>
     <row r="750" spans="1:1" ht="12.7">
-      <c r="A750" s="47"/>
+      <c r="A750" s="46"/>
     </row>
     <row r="751" spans="1:1" ht="12.7">
-      <c r="A751" s="47"/>
+      <c r="A751" s="46"/>
     </row>
     <row r="752" spans="1:1" ht="12.7">
-      <c r="A752" s="47"/>
+      <c r="A752" s="46"/>
     </row>
     <row r="753" spans="1:1" ht="12.7">
-      <c r="A753" s="47"/>
+      <c r="A753" s="46"/>
     </row>
     <row r="754" spans="1:1" ht="12.7">
-      <c r="A754" s="47"/>
+      <c r="A754" s="46"/>
     </row>
     <row r="755" spans="1:1" ht="12.7">
-      <c r="A755" s="47"/>
+      <c r="A755" s="46"/>
     </row>
     <row r="756" spans="1:1" ht="12.7">
-      <c r="A756" s="47"/>
+      <c r="A756" s="46"/>
     </row>
     <row r="757" spans="1:1" ht="12.7">
-      <c r="A757" s="47"/>
+      <c r="A757" s="46"/>
     </row>
     <row r="758" spans="1:1" ht="12.7">
-      <c r="A758" s="47"/>
+      <c r="A758" s="46"/>
     </row>
     <row r="759" spans="1:1" ht="12.7">
-      <c r="A759" s="47"/>
+      <c r="A759" s="46"/>
     </row>
     <row r="760" spans="1:1" ht="12.7">
-      <c r="A760" s="47"/>
+      <c r="A760" s="46"/>
     </row>
     <row r="761" spans="1:1" ht="12.7">
-      <c r="A761" s="47"/>
+      <c r="A761" s="46"/>
     </row>
     <row r="762" spans="1:1" ht="12.7">
-      <c r="A762" s="47"/>
+      <c r="A762" s="46"/>
     </row>
     <row r="763" spans="1:1" ht="12.7">
-      <c r="A763" s="47"/>
+      <c r="A763" s="46"/>
     </row>
     <row r="764" spans="1:1" ht="12.7">
-      <c r="A764" s="47"/>
+      <c r="A764" s="46"/>
     </row>
     <row r="765" spans="1:1" ht="12.7">
-      <c r="A765" s="47"/>
+      <c r="A765" s="46"/>
     </row>
     <row r="766" spans="1:1" ht="12.7">
-      <c r="A766" s="47"/>
+      <c r="A766" s="46"/>
     </row>
     <row r="767" spans="1:1" ht="12.7">
-      <c r="A767" s="47"/>
+      <c r="A767" s="46"/>
     </row>
     <row r="768" spans="1:1" ht="12.7">
-      <c r="A768" s="47"/>
+      <c r="A768" s="46"/>
     </row>
     <row r="769" spans="1:1" ht="12.7">
-      <c r="A769" s="47"/>
+      <c r="A769" s="46"/>
     </row>
     <row r="770" spans="1:1" ht="12.7">
-      <c r="A770" s="47"/>
+      <c r="A770" s="46"/>
     </row>
     <row r="771" spans="1:1" ht="12.7">
-      <c r="A771" s="47"/>
+      <c r="A771" s="46"/>
     </row>
     <row r="772" spans="1:1" ht="12.7">
-      <c r="A772" s="47"/>
+      <c r="A772" s="46"/>
     </row>
     <row r="773" spans="1:1" ht="12.7">
-      <c r="A773" s="47"/>
+      <c r="A773" s="46"/>
     </row>
     <row r="774" spans="1:1" ht="12.7">
-      <c r="A774" s="47"/>
+      <c r="A774" s="46"/>
     </row>
     <row r="775" spans="1:1" ht="12.7">
-      <c r="A775" s="47"/>
+      <c r="A775" s="46"/>
     </row>
     <row r="776" spans="1:1" ht="12.7">
-      <c r="A776" s="47"/>
+      <c r="A776" s="46"/>
     </row>
     <row r="777" spans="1:1" ht="12.7">
-      <c r="A777" s="47"/>
+      <c r="A777" s="46"/>
     </row>
     <row r="778" spans="1:1" ht="12.7">
-      <c r="A778" s="47"/>
+      <c r="A778" s="46"/>
     </row>
     <row r="779" spans="1:1" ht="12.7">
-      <c r="A779" s="47"/>
+      <c r="A779" s="46"/>
     </row>
     <row r="780" spans="1:1" ht="12.7">
-      <c r="A780" s="47"/>
+      <c r="A780" s="46"/>
     </row>
     <row r="781" spans="1:1" ht="12.7">
-      <c r="A781" s="47"/>
+      <c r="A781" s="46"/>
     </row>
     <row r="782" spans="1:1" ht="12.7">
-      <c r="A782" s="47"/>
+      <c r="A782" s="46"/>
     </row>
     <row r="783" spans="1:1" ht="12.7">
-      <c r="A783" s="47"/>
+      <c r="A783" s="46"/>
     </row>
     <row r="784" spans="1:1" ht="12.7">
-      <c r="A784" s="47"/>
+      <c r="A784" s="46"/>
     </row>
     <row r="785" spans="1:1" ht="12.7">
-      <c r="A785" s="47"/>
+      <c r="A785" s="46"/>
     </row>
     <row r="786" spans="1:1" ht="12.7">
-      <c r="A786" s="47"/>
+      <c r="A786" s="46"/>
     </row>
     <row r="787" spans="1:1" ht="12.7">
-      <c r="A787" s="47"/>
+      <c r="A787" s="46"/>
     </row>
     <row r="788" spans="1:1" ht="12.7">
-      <c r="A788" s="47"/>
+      <c r="A788" s="46"/>
     </row>
     <row r="789" spans="1:1" ht="12.7">
-      <c r="A789" s="47"/>
+      <c r="A789" s="46"/>
     </row>
     <row r="790" spans="1:1" ht="12.7">
-      <c r="A790" s="47"/>
+      <c r="A790" s="46"/>
     </row>
     <row r="791" spans="1:1" ht="12.7">
-      <c r="A791" s="47"/>
+      <c r="A791" s="46"/>
     </row>
     <row r="792" spans="1:1" ht="12.7">
-      <c r="A792" s="47"/>
+      <c r="A792" s="46"/>
     </row>
     <row r="793" spans="1:1" ht="12.7">
-      <c r="A793" s="47"/>
+      <c r="A793" s="46"/>
     </row>
     <row r="794" spans="1:1" ht="12.7">
-      <c r="A794" s="47"/>
+      <c r="A794" s="46"/>
     </row>
     <row r="795" spans="1:1" ht="12.7">
-      <c r="A795" s="47"/>
+      <c r="A795" s="46"/>
     </row>
     <row r="796" spans="1:1" ht="12.7">
-      <c r="A796" s="47"/>
+      <c r="A796" s="46"/>
     </row>
     <row r="797" spans="1:1" ht="12.7">
-      <c r="A797" s="47"/>
+      <c r="A797" s="46"/>
     </row>
     <row r="798" spans="1:1" ht="12.7">
-      <c r="A798" s="47"/>
+      <c r="A798" s="46"/>
     </row>
     <row r="799" spans="1:1" ht="12.7">
-      <c r="A799" s="47"/>
+      <c r="A799" s="46"/>
     </row>
     <row r="800" spans="1:1" ht="12.7">
-      <c r="A800" s="47"/>
+      <c r="A800" s="46"/>
     </row>
     <row r="801" spans="1:1" ht="12.7">
-      <c r="A801" s="47"/>
+      <c r="A801" s="46"/>
     </row>
     <row r="802" spans="1:1" ht="12.7">
-      <c r="A802" s="47"/>
+      <c r="A802" s="46"/>
     </row>
     <row r="803" spans="1:1" ht="12.7">
-      <c r="A803" s="47"/>
+      <c r="A803" s="46"/>
     </row>
     <row r="804" spans="1:1" ht="12.7">
-      <c r="A804" s="47"/>
+      <c r="A804" s="46"/>
     </row>
     <row r="805" spans="1:1" ht="12.7">
-      <c r="A805" s="47"/>
+      <c r="A805" s="46"/>
     </row>
     <row r="806" spans="1:1" ht="12.7">
-      <c r="A806" s="47"/>
+      <c r="A806" s="46"/>
     </row>
     <row r="807" spans="1:1" ht="12.7">
-      <c r="A807" s="47"/>
+      <c r="A807" s="46"/>
     </row>
     <row r="808" spans="1:1" ht="12.7">
-      <c r="A808" s="47"/>
+      <c r="A808" s="46"/>
     </row>
     <row r="809" spans="1:1" ht="12.7">
-      <c r="A809" s="47"/>
+      <c r="A809" s="46"/>
     </row>
     <row r="810" spans="1:1" ht="12.7">
-      <c r="A810" s="47"/>
+      <c r="A810" s="46"/>
     </row>
     <row r="811" spans="1:1" ht="12.7">
-      <c r="A811" s="47"/>
+      <c r="A811" s="46"/>
     </row>
     <row r="812" spans="1:1" ht="12.7">
-      <c r="A812" s="47"/>
+      <c r="A812" s="46"/>
     </row>
     <row r="813" spans="1:1" ht="12.7">
-      <c r="A813" s="47"/>
+      <c r="A813" s="46"/>
     </row>
     <row r="814" spans="1:1" ht="12.7">
-      <c r="A814" s="47"/>
+      <c r="A814" s="46"/>
     </row>
     <row r="815" spans="1:1" ht="12.7">
-      <c r="A815" s="47"/>
+      <c r="A815" s="46"/>
     </row>
     <row r="816" spans="1:1" ht="12.7">
-      <c r="A816" s="47"/>
+      <c r="A816" s="46"/>
     </row>
     <row r="817" spans="1:1" ht="12.7">
-      <c r="A817" s="47"/>
+      <c r="A817" s="46"/>
     </row>
     <row r="818" spans="1:1" ht="12.7">
-      <c r="A818" s="47"/>
+      <c r="A818" s="46"/>
     </row>
     <row r="819" spans="1:1" ht="12.7">
-      <c r="A819" s="47"/>
+      <c r="A819" s="46"/>
     </row>
     <row r="820" spans="1:1" ht="12.7">
-      <c r="A820" s="47"/>
+      <c r="A820" s="46"/>
     </row>
     <row r="821" spans="1:1" ht="12.7">
-      <c r="A821" s="47"/>
+      <c r="A821" s="46"/>
     </row>
     <row r="822" spans="1:1" ht="12.7">
-      <c r="A822" s="47"/>
+      <c r="A822" s="46"/>
     </row>
     <row r="823" spans="1:1" ht="12.7">
-      <c r="A823" s="47"/>
+      <c r="A823" s="46"/>
     </row>
     <row r="824" spans="1:1" ht="12.7">
-      <c r="A824" s="47"/>
+      <c r="A824" s="46"/>
     </row>
     <row r="825" spans="1:1" ht="12.7">
-      <c r="A825" s="47"/>
+      <c r="A825" s="46"/>
     </row>
     <row r="826" spans="1:1" ht="12.7">
-      <c r="A826" s="47"/>
+      <c r="A826" s="46"/>
     </row>
     <row r="827" spans="1:1" ht="12.7">
-      <c r="A827" s="47"/>
+      <c r="A827" s="46"/>
     </row>
     <row r="828" spans="1:1" ht="12.7">
-      <c r="A828" s="47"/>
+      <c r="A828" s="46"/>
     </row>
     <row r="829" spans="1:1" ht="12.7">
-      <c r="A829" s="47"/>
+      <c r="A829" s="46"/>
     </row>
     <row r="830" spans="1:1" ht="12.7">
-      <c r="A830" s="47"/>
+      <c r="A830" s="46"/>
     </row>
     <row r="831" spans="1:1" ht="12.7">
-      <c r="A831" s="47"/>
+      <c r="A831" s="46"/>
     </row>
     <row r="832" spans="1:1" ht="12.7">
-      <c r="A832" s="47"/>
+      <c r="A832" s="46"/>
     </row>
     <row r="833" spans="1:1" ht="12.7">
-      <c r="A833" s="47"/>
+      <c r="A833" s="46"/>
     </row>
     <row r="834" spans="1:1" ht="12.7">
-      <c r="A834" s="47"/>
+      <c r="A834" s="46"/>
     </row>
     <row r="835" spans="1:1" ht="12.7">
-      <c r="A835" s="47"/>
+      <c r="A835" s="46"/>
     </row>
     <row r="836" spans="1:1" ht="12.7">
-      <c r="A836" s="47"/>
+      <c r="A836" s="46"/>
     </row>
     <row r="837" spans="1:1" ht="12.7">
-      <c r="A837" s="47"/>
+      <c r="A837" s="46"/>
     </row>
     <row r="838" spans="1:1" ht="12.7">
-      <c r="A838" s="47"/>
+      <c r="A838" s="46"/>
     </row>
     <row r="839" spans="1:1" ht="12.7">
-      <c r="A839" s="47"/>
+      <c r="A839" s="46"/>
     </row>
     <row r="840" spans="1:1" ht="12.7">
-      <c r="A840" s="47"/>
+      <c r="A840" s="46"/>
     </row>
     <row r="841" spans="1:1" ht="12.7">
-      <c r="A841" s="47"/>
+      <c r="A841" s="46"/>
     </row>
     <row r="842" spans="1:1" ht="12.7">
-      <c r="A842" s="47"/>
+      <c r="A842" s="46"/>
     </row>
     <row r="843" spans="1:1" ht="12.7">
-      <c r="A843" s="47"/>
+      <c r="A843" s="46"/>
     </row>
     <row r="844" spans="1:1" ht="12.7">
-      <c r="A844" s="47"/>
+      <c r="A844" s="46"/>
     </row>
     <row r="845" spans="1:1" ht="12.7">
-      <c r="A845" s="47"/>
+      <c r="A845" s="46"/>
     </row>
     <row r="846" spans="1:1" ht="12.7">
-      <c r="A846" s="47"/>
+      <c r="A846" s="46"/>
     </row>
     <row r="847" spans="1:1" ht="12.7">
-      <c r="A847" s="47"/>
+      <c r="A847" s="46"/>
     </row>
     <row r="848" spans="1:1" ht="12.7">
-      <c r="A848" s="47"/>
+      <c r="A848" s="46"/>
     </row>
     <row r="849" spans="1:1" ht="12.7">
-      <c r="A849" s="47"/>
+      <c r="A849" s="46"/>
     </row>
     <row r="850" spans="1:1" ht="12.7">
-      <c r="A850" s="47"/>
+      <c r="A850" s="46"/>
     </row>
     <row r="851" spans="1:1" ht="12.7">
-      <c r="A851" s="47"/>
+      <c r="A851" s="46"/>
     </row>
     <row r="852" spans="1:1" ht="12.7">
-      <c r="A852" s="47"/>
+      <c r="A852" s="46"/>
     </row>
     <row r="853" spans="1:1" ht="12.7">
-      <c r="A853" s="47"/>
+      <c r="A853" s="46"/>
     </row>
     <row r="854" spans="1:1" ht="12.7">
-      <c r="A854" s="47"/>
+      <c r="A854" s="46"/>
     </row>
     <row r="855" spans="1:1" ht="12.7">
-      <c r="A855" s="47"/>
+      <c r="A855" s="46"/>
     </row>
     <row r="856" spans="1:1" ht="12.7">
-      <c r="A856" s="47"/>
+      <c r="A856" s="46"/>
     </row>
     <row r="857" spans="1:1" ht="12.7">
-      <c r="A857" s="47"/>
+      <c r="A857" s="46"/>
     </row>
     <row r="858" spans="1:1" ht="12.7">
-      <c r="A858" s="47"/>
+      <c r="A858" s="46"/>
     </row>
     <row r="859" spans="1:1" ht="12.7">
-      <c r="A859" s="47"/>
+      <c r="A859" s="46"/>
     </row>
     <row r="860" spans="1:1" ht="12.7">
-      <c r="A860" s="47"/>
+      <c r="A860" s="46"/>
     </row>
     <row r="861" spans="1:1" ht="12.7">
-      <c r="A861" s="47"/>
+      <c r="A861" s="46"/>
     </row>
     <row r="862" spans="1:1" ht="12.7">
-      <c r="A862" s="47"/>
+      <c r="A862" s="46"/>
     </row>
     <row r="863" spans="1:1" ht="12.7">
-      <c r="A863" s="47"/>
+      <c r="A863" s="46"/>
     </row>
     <row r="864" spans="1:1" ht="12.7">
-      <c r="A864" s="47"/>
+      <c r="A864" s="46"/>
     </row>
     <row r="865" spans="1:1" ht="12.7">
-      <c r="A865" s="47"/>
+      <c r="A865" s="46"/>
     </row>
     <row r="866" spans="1:1" ht="12.7">
-      <c r="A866" s="47"/>
+      <c r="A866" s="46"/>
     </row>
     <row r="867" spans="1:1" ht="12.7">
-      <c r="A867" s="47"/>
+      <c r="A867" s="46"/>
     </row>
     <row r="868" spans="1:1" ht="12.7">
-      <c r="A868" s="47"/>
+      <c r="A868" s="46"/>
     </row>
     <row r="869" spans="1:1" ht="12.7">
-      <c r="A869" s="47"/>
+      <c r="A869" s="46"/>
     </row>
     <row r="870" spans="1:1" ht="12.7">
-      <c r="A870" s="47"/>
+      <c r="A870" s="46"/>
     </row>
     <row r="871" spans="1:1" ht="12.7">
-      <c r="A871" s="47"/>
+      <c r="A871" s="46"/>
     </row>
     <row r="872" spans="1:1" ht="12.7">
-      <c r="A872" s="47"/>
+      <c r="A872" s="46"/>
     </row>
     <row r="873" spans="1:1" ht="12.7">
-      <c r="A873" s="47"/>
+      <c r="A873" s="46"/>
     </row>
     <row r="874" spans="1:1" ht="12.7">
-      <c r="A874" s="47"/>
+      <c r="A874" s="46"/>
     </row>
     <row r="875" spans="1:1" ht="12.7">
-      <c r="A875" s="47"/>
+      <c r="A875" s="46"/>
     </row>
     <row r="876" spans="1:1" ht="12.7">
-      <c r="A876" s="47"/>
+      <c r="A876" s="46"/>
     </row>
     <row r="877" spans="1:1" ht="12.7">
-      <c r="A877" s="47"/>
+      <c r="A877" s="46"/>
     </row>
     <row r="878" spans="1:1" ht="12.7">
-      <c r="A878" s="47"/>
+      <c r="A878" s="46"/>
     </row>
     <row r="879" spans="1:1" ht="12.7">
-      <c r="A879" s="47"/>
+      <c r="A879" s="46"/>
     </row>
     <row r="880" spans="1:1" ht="12.7">
-      <c r="A880" s="47"/>
+      <c r="A880" s="46"/>
     </row>
     <row r="881" spans="1:1" ht="12.7">
-      <c r="A881" s="47"/>
+      <c r="A881" s="46"/>
     </row>
     <row r="882" spans="1:1" ht="12.7">
-      <c r="A882" s="47"/>
+      <c r="A882" s="46"/>
     </row>
     <row r="883" spans="1:1" ht="12.7">
-      <c r="A883" s="47"/>
+      <c r="A883" s="46"/>
     </row>
     <row r="884" spans="1:1" ht="12.7">
-      <c r="A884" s="47"/>
+      <c r="A884" s="46"/>
     </row>
     <row r="885" spans="1:1" ht="12.7">
-      <c r="A885" s="47"/>
+      <c r="A885" s="46"/>
     </row>
     <row r="886" spans="1:1" ht="12.7">
-      <c r="A886" s="47"/>
+      <c r="A886" s="46"/>
     </row>
     <row r="887" spans="1:1" ht="12.7">
-      <c r="A887" s="47"/>
+      <c r="A887" s="46"/>
     </row>
     <row r="888" spans="1:1" ht="12.7">
-      <c r="A888" s="47"/>
+      <c r="A888" s="46"/>
     </row>
     <row r="889" spans="1:1" ht="12.7">
-      <c r="A889" s="47"/>
+      <c r="A889" s="46"/>
     </row>
     <row r="890" spans="1:1" ht="12.7">
-      <c r="A890" s="47"/>
+      <c r="A890" s="46"/>
     </row>
     <row r="891" spans="1:1" ht="12.7">
-      <c r="A891" s="47"/>
+      <c r="A891" s="46"/>
     </row>
     <row r="892" spans="1:1" ht="12.7">
-      <c r="A892" s="47"/>
+      <c r="A892" s="46"/>
     </row>
     <row r="893" spans="1:1" ht="12.7">
-      <c r="A893" s="47"/>
+      <c r="A893" s="46"/>
     </row>
     <row r="894" spans="1:1" ht="12.7">
-      <c r="A894" s="47"/>
+      <c r="A894" s="46"/>
     </row>
     <row r="895" spans="1:1" ht="12.7">
-      <c r="A895" s="47"/>
+      <c r="A895" s="46"/>
     </row>
     <row r="896" spans="1:1" ht="12.7">
-      <c r="A896" s="47"/>
+      <c r="A896" s="46"/>
     </row>
     <row r="897" spans="1:1" ht="12.7">
-      <c r="A897" s="47"/>
+      <c r="A897" s="46"/>
     </row>
     <row r="898" spans="1:1" ht="12.7">
-      <c r="A898" s="47"/>
+      <c r="A898" s="46"/>
     </row>
     <row r="899" spans="1:1" ht="12.7">
-      <c r="A899" s="47"/>
+      <c r="A899" s="46"/>
     </row>
     <row r="900" spans="1:1" ht="12.7">
-      <c r="A900" s="47"/>
+      <c r="A900" s="46"/>
     </row>
     <row r="901" spans="1:1" ht="12.7">
-      <c r="A901" s="47"/>
+      <c r="A901" s="46"/>
     </row>
     <row r="902" spans="1:1" ht="12.7">
-      <c r="A902" s="47"/>
+      <c r="A902" s="46"/>
     </row>
     <row r="903" spans="1:1" ht="12.7">
-      <c r="A903" s="47"/>
+      <c r="A903" s="46"/>
     </row>
     <row r="904" spans="1:1" ht="12.7">
-      <c r="A904" s="47"/>
+      <c r="A904" s="46"/>
     </row>
     <row r="905" spans="1:1" ht="12.7">
-      <c r="A905" s="47"/>
+      <c r="A905" s="46"/>
     </row>
     <row r="906" spans="1:1" ht="12.7">
-      <c r="A906" s="47"/>
+      <c r="A906" s="46"/>
     </row>
     <row r="907" spans="1:1" ht="12.7">
-      <c r="A907" s="47"/>
+      <c r="A907" s="46"/>
     </row>
     <row r="908" spans="1:1" ht="12.7">
-      <c r="A908" s="47"/>
+      <c r="A908" s="46"/>
     </row>
     <row r="909" spans="1:1" ht="12.7">
-      <c r="A909" s="47"/>
+      <c r="A909" s="46"/>
     </row>
     <row r="910" spans="1:1" ht="12.7">
-      <c r="A910" s="47"/>
+      <c r="A910" s="46"/>
     </row>
     <row r="911" spans="1:1" ht="12.7">
-      <c r="A911" s="47"/>
+      <c r="A911" s="46"/>
     </row>
     <row r="912" spans="1:1" ht="12.7">
-      <c r="A912" s="47"/>
+      <c r="A912" s="46"/>
     </row>
     <row r="913" spans="1:1" ht="12.7">
-      <c r="A913" s="47"/>
+      <c r="A913" s="46"/>
     </row>
     <row r="914" spans="1:1" ht="12.7">
-      <c r="A914" s="47"/>
+      <c r="A914" s="46"/>
     </row>
     <row r="915" spans="1:1" ht="12.7">
-      <c r="A915" s="47"/>
+      <c r="A915" s="46"/>
     </row>
     <row r="916" spans="1:1" ht="12.7">
-      <c r="A916" s="47"/>
+      <c r="A916" s="46"/>
     </row>
     <row r="917" spans="1:1" ht="12.7">
-      <c r="A917" s="47"/>
+      <c r="A917" s="46"/>
     </row>
     <row r="918" spans="1:1" ht="12.7">
-      <c r="A918" s="47"/>
+      <c r="A918" s="46"/>
     </row>
     <row r="919" spans="1:1" ht="12.7">
-      <c r="A919" s="47"/>
+      <c r="A919" s="46"/>
     </row>
     <row r="920" spans="1:1" ht="12.7">
-      <c r="A920" s="47"/>
+      <c r="A920" s="46"/>
     </row>
     <row r="921" spans="1:1" ht="12.7">
-      <c r="A921" s="47"/>
+      <c r="A921" s="46"/>
     </row>
     <row r="922" spans="1:1" ht="12.7">
-      <c r="A922" s="47"/>
+      <c r="A922" s="46"/>
     </row>
     <row r="923" spans="1:1" ht="12.7">
-      <c r="A923" s="47"/>
+      <c r="A923" s="46"/>
     </row>
     <row r="924" spans="1:1" ht="12.7">
-      <c r="A924" s="47"/>
+      <c r="A924" s="46"/>
     </row>
     <row r="925" spans="1:1" ht="12.7">
-      <c r="A925" s="47"/>
+      <c r="A925" s="46"/>
     </row>
     <row r="926" spans="1:1" ht="12.7">
-      <c r="A926" s="47"/>
+      <c r="A926" s="46"/>
     </row>
     <row r="927" spans="1:1" ht="12.7">
-      <c r="A927" s="47"/>
+      <c r="A927" s="46"/>
     </row>
     <row r="928" spans="1:1" ht="12.7">
-      <c r="A928" s="47"/>
+      <c r="A928" s="46"/>
     </row>
     <row r="929" spans="1:1" ht="12.7">
-      <c r="A929" s="47"/>
+      <c r="A929" s="46"/>
     </row>
     <row r="930" spans="1:1" ht="12.7">
-      <c r="A930" s="47"/>
+      <c r="A930" s="46"/>
     </row>
     <row r="931" spans="1:1" ht="12.7">
-      <c r="A931" s="47"/>
+      <c r="A931" s="46"/>
     </row>
     <row r="932" spans="1:1" ht="12.7">
-      <c r="A932" s="47"/>
+      <c r="A932" s="46"/>
     </row>
     <row r="933" spans="1:1" ht="12.7">
-      <c r="A933" s="47"/>
+      <c r="A933" s="46"/>
     </row>
     <row r="934" spans="1:1" ht="12.7">
-      <c r="A934" s="47"/>
+      <c r="A934" s="46"/>
     </row>
     <row r="935" spans="1:1" ht="12.7">
-      <c r="A935" s="47"/>
+      <c r="A935" s="46"/>
     </row>
     <row r="936" spans="1:1" ht="12.7">
-      <c r="A936" s="47"/>
+      <c r="A936" s="46"/>
     </row>
     <row r="937" spans="1:1" ht="12.7">
-      <c r="A937" s="47"/>
+      <c r="A937" s="46"/>
     </row>
     <row r="938" spans="1:1" ht="12.7">
-      <c r="A938" s="47"/>
+      <c r="A938" s="46"/>
     </row>
     <row r="939" spans="1:1" ht="12.7">
-      <c r="A939" s="47"/>
+      <c r="A939" s="46"/>
     </row>
     <row r="940" spans="1:1" ht="12.7">
-      <c r="A940" s="47"/>
+      <c r="A940" s="46"/>
     </row>
     <row r="941" spans="1:1" ht="12.7">
-      <c r="A941" s="47"/>
+      <c r="A941" s="46"/>
     </row>
     <row r="942" spans="1:1" ht="12.7">
-      <c r="A942" s="47"/>
+      <c r="A942" s="46"/>
     </row>
     <row r="943" spans="1:1" ht="12.7">
-      <c r="A943" s="47"/>
+      <c r="A943" s="46"/>
     </row>
     <row r="944" spans="1:1" ht="12.7">
-      <c r="A944" s="47"/>
+      <c r="A944" s="46"/>
     </row>
     <row r="945" spans="1:1" ht="12.7">
-      <c r="A945" s="47"/>
+      <c r="A945" s="46"/>
     </row>
     <row r="946" spans="1:1" ht="12.7">
-      <c r="A946" s="47"/>
+      <c r="A946" s="46"/>
     </row>
     <row r="947" spans="1:1" ht="12.7">
-      <c r="A947" s="47"/>
+      <c r="A947" s="46"/>
     </row>
     <row r="948" spans="1:1" ht="12.7">
-      <c r="A948" s="47"/>
+      <c r="A948" s="46"/>
     </row>
     <row r="949" spans="1:1" ht="12.7">
-      <c r="A949" s="47"/>
+      <c r="A949" s="46"/>
     </row>
     <row r="950" spans="1:1" ht="12.7">
-      <c r="A950" s="47"/>
+      <c r="A950" s="46"/>
     </row>
     <row r="951" spans="1:1" ht="12.7">
-      <c r="A951" s="47"/>
+      <c r="A951" s="46"/>
     </row>
     <row r="952" spans="1:1" ht="12.7">
-      <c r="A952" s="47"/>
+      <c r="A952" s="46"/>
     </row>
     <row r="953" spans="1:1" ht="12.7">
-      <c r="A953" s="47"/>
+      <c r="A953" s="46"/>
     </row>
     <row r="954" spans="1:1" ht="12.7">
-      <c r="A954" s="47"/>
+      <c r="A954" s="46"/>
     </row>
     <row r="955" spans="1:1" ht="12.7">
-      <c r="A955" s="47"/>
+      <c r="A955" s="46"/>
     </row>
     <row r="956" spans="1:1" ht="12.7">
-      <c r="A956" s="47"/>
+      <c r="A956" s="46"/>
     </row>
     <row r="957" spans="1:1" ht="12.7">
-      <c r="A957" s="47"/>
+      <c r="A957" s="46"/>
     </row>
     <row r="958" spans="1:1" ht="12.7">
-      <c r="A958" s="47"/>
+      <c r="A958" s="46"/>
     </row>
     <row r="959" spans="1:1" ht="12.7">
-      <c r="A959" s="47"/>
+      <c r="A959" s="46"/>
     </row>
     <row r="960" spans="1:1" ht="12.7">
-      <c r="A960" s="47"/>
+      <c r="A960" s="46"/>
     </row>
     <row r="961" spans="1:67" ht="12.7">
-      <c r="A961" s="47"/>
+      <c r="A961" s="46"/>
     </row>
     <row r="962" spans="1:67" ht="12.7">
-      <c r="A962" s="47"/>
+      <c r="A962" s="46"/>
     </row>
     <row r="963" spans="1:67" ht="12.7">
-      <c r="A963" s="47"/>
+      <c r="A963" s="46"/>
     </row>
     <row r="964" spans="1:67" ht="12.7">
-      <c r="A964" s="47"/>
+      <c r="A964" s="46"/>
     </row>
     <row r="965" spans="1:67" ht="12.7">
-      <c r="A965" s="47"/>
+      <c r="A965" s="46"/>
     </row>
     <row r="966" spans="1:67" ht="12.7">
-      <c r="A966" s="47"/>
+      <c r="A966" s="46"/>
     </row>
     <row r="967" spans="1:67" ht="12.7">
-      <c r="A967" s="47"/>
+      <c r="A967" s="46"/>
       <c r="H967" s="4"/>
       <c r="I967" s="4"/>
       <c r="J967" s="4"/>
@@ -9768,73 +10211,73 @@
       <c r="BO967" s="4"/>
     </row>
     <row r="968" spans="1:67" ht="12.7">
-      <c r="A968" s="47"/>
+      <c r="A968" s="46"/>
     </row>
     <row r="969" spans="1:67" ht="12.7">
-      <c r="A969" s="47"/>
+      <c r="A969" s="46"/>
     </row>
     <row r="970" spans="1:67" ht="12.7">
-      <c r="A970" s="47"/>
+      <c r="A970" s="46"/>
     </row>
     <row r="971" spans="1:67" ht="12.7">
-      <c r="A971" s="47"/>
+      <c r="A971" s="46"/>
     </row>
     <row r="972" spans="1:67" ht="12.7">
-      <c r="A972" s="47"/>
+      <c r="A972" s="46"/>
     </row>
     <row r="973" spans="1:67" ht="12.7">
-      <c r="A973" s="47"/>
+      <c r="A973" s="46"/>
     </row>
     <row r="974" spans="1:67" ht="12.7">
-      <c r="A974" s="47"/>
+      <c r="A974" s="46"/>
     </row>
     <row r="975" spans="1:67" ht="12.7">
-      <c r="A975" s="47"/>
+      <c r="A975" s="46"/>
     </row>
     <row r="976" spans="1:67" ht="12.7">
-      <c r="A976" s="47"/>
+      <c r="A976" s="46"/>
     </row>
     <row r="977" spans="1:7" ht="12.7">
-      <c r="A977" s="47"/>
+      <c r="A977" s="46"/>
     </row>
     <row r="978" spans="1:7" ht="12.7">
-      <c r="A978" s="47"/>
+      <c r="A978" s="46"/>
     </row>
     <row r="979" spans="1:7" ht="12.7">
-      <c r="A979" s="47"/>
+      <c r="A979" s="46"/>
     </row>
     <row r="980" spans="1:7" ht="12.7">
-      <c r="A980" s="47"/>
+      <c r="A980" s="46"/>
     </row>
     <row r="981" spans="1:7" ht="12.7">
-      <c r="A981" s="47"/>
+      <c r="A981" s="46"/>
     </row>
     <row r="982" spans="1:7" ht="12.7">
-      <c r="A982" s="47"/>
+      <c r="A982" s="46"/>
     </row>
     <row r="983" spans="1:7" ht="12.7">
-      <c r="A983" s="47"/>
+      <c r="A983" s="46"/>
     </row>
     <row r="984" spans="1:7" ht="12.7">
-      <c r="A984" s="47"/>
+      <c r="A984" s="46"/>
     </row>
     <row r="985" spans="1:7" ht="12.7">
-      <c r="A985" s="47"/>
+      <c r="A985" s="46"/>
     </row>
     <row r="986" spans="1:7" ht="12.7">
-      <c r="A986" s="47"/>
+      <c r="A986" s="46"/>
     </row>
     <row r="987" spans="1:7" ht="12.7">
-      <c r="A987" s="47"/>
+      <c r="A987" s="46"/>
     </row>
     <row r="988" spans="1:7" ht="12.7">
-      <c r="A988" s="47"/>
+      <c r="A988" s="46"/>
     </row>
     <row r="989" spans="1:7" ht="12.7">
-      <c r="A989" s="47"/>
+      <c r="A989" s="46"/>
     </row>
     <row r="990" spans="1:7" ht="12.7">
-      <c r="A990" s="67"/>
+      <c r="A990" s="66"/>
       <c r="B990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -9843,7 +10286,15 @@
       <c r="G990" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BK6:BO6"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="A3:G3"/>
@@ -9860,15 +10311,18 @@
     <mergeCell ref="AG6:AK6"/>
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="G22:G25 G16:G20 G9:G14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF5CBCD6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="percent" val="0"/>

--- a/documentation/ProjectGanttChart.xlsx
+++ b/documentation/ProjectGanttChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Desktop\448\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AD9653-53ED-44D5-8E4E-0E6A7936DE1A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694824D7-2820-468C-8444-7409B4AE39C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart w % Complete" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="84">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Report Feature</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Adding tags to answers</t>
   </si>
   <si>
@@ -282,6 +279,9 @@
   </si>
   <si>
     <t>KRAAG Courses ++</t>
+  </si>
+  <si>
+    <t>Test Suite</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -857,6 +857,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,80 +2843,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.35">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="86" t="s">
+      <c r="I6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="89"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="89" t="s">
+      <c r="K6" s="91"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88" t="s">
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="89" t="s">
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="88" t="s">
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="89"/>
+      <c r="AI6" s="89"/>
       <c r="AJ6" s="43"/>
     </row>
     <row r="7" spans="1:36" ht="14.35">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="43"/>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
@@ -3887,16 +3889,16 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" ht="30" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3998,72 +4000,72 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="14.35">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="86" t="s">
+      <c r="G6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="89" t="s">
+      <c r="I6" s="91"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="88" t="s">
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="89" t="s">
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="88" t="s">
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
+      <c r="AF6" s="89"/>
+      <c r="AG6" s="89"/>
       <c r="AH6" s="43"/>
     </row>
     <row r="7" spans="1:34" ht="14.35">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
       <c r="K7" s="43"/>
@@ -4780,10 +4782,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BO990"/>
+  <dimension ref="A1:BO991"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46875" defaultRowHeight="15.75" customHeight="1"/>
@@ -4936,15 +4938,15 @@
       <c r="BO2" s="2"/>
     </row>
     <row r="3" spans="1:67" ht="30" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
+      <c r="A3" s="96" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -5145,118 +5147,118 @@
       <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:67" ht="14.35">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="95" t="s">
+      <c r="G6" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="92" t="s">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="97" t="s">
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="93"/>
-      <c r="T6" s="93"/>
-      <c r="U6" s="93"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="92" t="s">
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="93"/>
-      <c r="Y6" s="93"/>
-      <c r="Z6" s="93"/>
-      <c r="AA6" s="93"/>
-      <c r="AB6" s="97" t="s">
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="93"/>
-      <c r="AD6" s="93"/>
-      <c r="AE6" s="93"/>
-      <c r="AF6" s="93"/>
-      <c r="AG6" s="92" t="s">
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="95"/>
+      <c r="AE6" s="95"/>
+      <c r="AF6" s="95"/>
+      <c r="AG6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="93"/>
-      <c r="AI6" s="93"/>
-      <c r="AJ6" s="93"/>
-      <c r="AK6" s="93"/>
-      <c r="AL6" s="97" t="s">
+      <c r="AH6" s="95"/>
+      <c r="AI6" s="95"/>
+      <c r="AJ6" s="95"/>
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="93"/>
-      <c r="AN6" s="93"/>
-      <c r="AO6" s="93"/>
-      <c r="AP6" s="93"/>
-      <c r="AQ6" s="92" t="s">
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="95"/>
+      <c r="AQ6" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="93"/>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="97" t="s">
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="95"/>
+      <c r="AU6" s="95"/>
+      <c r="AV6" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="93"/>
-      <c r="BA6" s="92" t="s">
+      <c r="AW6" s="95"/>
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="93"/>
-      <c r="BD6" s="93"/>
-      <c r="BE6" s="93"/>
-      <c r="BF6" s="97" t="s">
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="93"/>
-      <c r="BH6" s="93"/>
-      <c r="BI6" s="93"/>
-      <c r="BJ6" s="93"/>
-      <c r="BK6" s="92" t="s">
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="93"/>
-      <c r="BM6" s="93"/>
-      <c r="BN6" s="93"/>
-      <c r="BO6" s="93"/>
+      <c r="BL6" s="95"/>
+      <c r="BM6" s="95"/>
+      <c r="BN6" s="95"/>
+      <c r="BO6" s="95"/>
     </row>
     <row r="7" spans="1:67" ht="14.35">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="96"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -5443,11 +5445,11 @@
         <v>69</v>
       </c>
       <c r="B8" s="15"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
       <c r="H8" s="16"/>
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
@@ -6000,11 +6002,11 @@
         <v>70</v>
       </c>
       <c r="B15" s="30"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
       <c r="H15" s="31"/>
       <c r="I15" s="32"/>
       <c r="J15" s="33"/>
@@ -6476,11 +6478,11 @@
         <v>77</v>
       </c>
       <c r="B21" s="30"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
       <c r="J21" s="33"/>
@@ -6547,20 +6549,20 @@
         <v>78</v>
       </c>
       <c r="C22" s="34">
-        <v>43780</v>
+        <v>43785</v>
       </c>
       <c r="D22" s="34">
         <v>43799</v>
       </c>
       <c r="E22" s="21">
         <f>NETWORKDAYS(C22,D22)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G22" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="24"/>
@@ -6577,11 +6579,11 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="27"/>
@@ -6625,23 +6627,23 @@
     </row>
     <row r="23" spans="1:67" ht="14.35">
       <c r="B23" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="34">
-        <v>43781</v>
+        <v>43785</v>
       </c>
       <c r="D23" s="34">
         <v>43799</v>
       </c>
       <c r="E23" s="21">
-        <f t="shared" ref="E23:E25" si="2">NETWORKDAYS(C23,D23)</f>
-        <v>14</v>
+        <f t="shared" ref="E23:E26" si="2">NETWORKDAYS(C23,D23)</f>
+        <v>10</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G23" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
@@ -6658,11 +6660,11 @@
       <c r="T23" s="25"/>
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="27"/>
@@ -6706,23 +6708,23 @@
     </row>
     <row r="24" spans="1:67" ht="14.35">
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="34">
-        <v>43783</v>
+        <v>43785</v>
       </c>
       <c r="D24" s="34">
         <v>43800</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G24" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
@@ -6739,11 +6741,11 @@
       <c r="T24" s="25"/>
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
       <c r="AB24" s="27"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="27"/>
@@ -6785,25 +6787,25 @@
       <c r="BN24" s="26"/>
       <c r="BO24" s="28"/>
     </row>
-    <row r="25" spans="1:67" ht="14.35">
+    <row r="25" spans="1:67" s="86" customFormat="1" ht="14.35">
       <c r="B25" s="19" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C25" s="34">
-        <v>43782</v>
+        <v>43785</v>
       </c>
       <c r="D25" s="34">
         <v>43800</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G25" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="24"/>
@@ -6820,11 +6822,11 @@
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
+      <c r="W25" s="74"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
@@ -6866,177 +6868,177 @@
       <c r="BN25" s="26"/>
       <c r="BO25" s="28"/>
     </row>
-    <row r="26" spans="1:67" s="84" customFormat="1" ht="15.7">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:67" ht="14.35">
+      <c r="B26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="34">
+        <v>43785</v>
+      </c>
+      <c r="D26" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="27"/>
+      <c r="BG26" s="27"/>
+      <c r="BH26" s="27"/>
+      <c r="BI26" s="27"/>
+      <c r="BJ26" s="27"/>
+      <c r="BK26" s="26"/>
+      <c r="BL26" s="26"/>
+      <c r="BM26" s="26"/>
+      <c r="BN26" s="26"/>
+      <c r="BO26" s="28"/>
+    </row>
+    <row r="27" spans="1:67" s="84" customFormat="1" ht="15.7">
+      <c r="A27" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="31"/>
-      <c r="AH26" s="31"/>
-      <c r="AI26" s="31"/>
-      <c r="AJ26" s="31"/>
-      <c r="AK26" s="31"/>
-      <c r="AL26" s="31"/>
-      <c r="AM26" s="31"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="31"/>
-      <c r="AZ26" s="31"/>
-      <c r="BA26" s="31"/>
-      <c r="BB26" s="31"/>
-      <c r="BC26" s="31"/>
-      <c r="BD26" s="31"/>
-      <c r="BE26" s="31"/>
-      <c r="BF26" s="31"/>
-      <c r="BG26" s="31"/>
-      <c r="BH26" s="31"/>
-      <c r="BI26" s="31"/>
-      <c r="BJ26" s="31"/>
-      <c r="BK26" s="31"/>
-      <c r="BL26" s="31"/>
-      <c r="BM26" s="31"/>
-      <c r="BN26" s="31"/>
-      <c r="BO26" s="31"/>
-    </row>
-    <row r="27" spans="1:67" s="84" customFormat="1" ht="14.35">
-      <c r="B27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="34">
-        <v>43780</v>
-      </c>
-      <c r="D27" s="34">
-        <v>43800</v>
-      </c>
-      <c r="E27" s="21">
-        <f>NETWORKDAYS(C27,D27)</f>
-        <v>15</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="35">
-        <v>0</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
-      <c r="AY27" s="25"/>
-      <c r="AZ27" s="25"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="27"/>
-      <c r="BG27" s="27"/>
-      <c r="BH27" s="27"/>
-      <c r="BI27" s="27"/>
-      <c r="BJ27" s="27"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
-      <c r="BO27" s="28"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="31"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="31"/>
+      <c r="BL27" s="31"/>
+      <c r="BM27" s="31"/>
+      <c r="BN27" s="31"/>
+      <c r="BO27" s="31"/>
     </row>
     <row r="28" spans="1:67" s="84" customFormat="1" ht="14.35">
       <c r="B28" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="34">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="D28" s="34">
         <v>43800</v>
       </c>
       <c r="E28" s="21">
-        <f t="shared" ref="E28:E31" si="3">NETWORKDAYS(C28,D28)</f>
-        <v>14</v>
+        <f>NETWORKDAYS(C28,D28)</f>
+        <v>15</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G28" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
@@ -7049,15 +7051,15 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="26"/>
       <c r="R28" s="25"/>
-      <c r="S28" s="71"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
       <c r="AB28" s="27"/>
       <c r="AC28" s="27"/>
       <c r="AD28" s="27"/>
@@ -7101,28 +7103,28 @@
     </row>
     <row r="29" spans="1:67" s="84" customFormat="1" ht="14.35">
       <c r="B29" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="34">
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="D29" s="34">
         <v>43800</v>
       </c>
       <c r="E29" s="21">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <f t="shared" ref="E29:E32" si="3">NETWORKDAYS(C29,D29)</f>
+        <v>14</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G29" s="35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="75"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="25"/>
       <c r="M29" s="26"/>
       <c r="N29" s="26"/>
@@ -7130,15 +7132,15 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
+      <c r="S29" s="71"/>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="26"/>
-      <c r="Z29" s="26"/>
-      <c r="AA29" s="26"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="73"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
       <c r="AB29" s="27"/>
       <c r="AC29" s="27"/>
       <c r="AD29" s="27"/>
@@ -7182,23 +7184,23 @@
     </row>
     <row r="30" spans="1:67" s="84" customFormat="1" ht="14.35">
       <c r="B30" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="34">
-        <v>43783</v>
+        <v>43780</v>
       </c>
       <c r="D30" s="34">
         <v>43800</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G30" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
@@ -7214,12 +7216,12 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="73"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
       <c r="AB30" s="27"/>
       <c r="AC30" s="27"/>
       <c r="AD30" s="27"/>
@@ -7263,23 +7265,23 @@
     </row>
     <row r="31" spans="1:67" s="84" customFormat="1" ht="14.35">
       <c r="B31" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="34">
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="D31" s="34">
         <v>43800</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G31" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="24"/>
@@ -7295,12 +7297,12 @@
       <c r="S31" s="25"/>
       <c r="T31" s="25"/>
       <c r="U31" s="25"/>
-      <c r="V31" s="25"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="73"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
       <c r="AB31" s="27"/>
       <c r="AC31" s="27"/>
       <c r="AD31" s="27"/>
@@ -7342,55 +7344,211 @@
       <c r="BN31" s="26"/>
       <c r="BO31" s="28"/>
     </row>
-    <row r="32" spans="1:67" ht="12.7">
-      <c r="A32" s="46"/>
-    </row>
-    <row r="33" spans="1:1" ht="12.7">
-      <c r="A33" s="46"/>
-    </row>
-    <row r="34" spans="1:1" ht="12.7">
+    <row r="32" spans="1:67" s="84" customFormat="1" ht="14.35">
+      <c r="B32" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="34">
+        <v>43784</v>
+      </c>
+      <c r="D32" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="35">
+        <v>1</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="73"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27"/>
+      <c r="AN32" s="27"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="26"/>
+      <c r="BB32" s="26"/>
+      <c r="BC32" s="26"/>
+      <c r="BD32" s="26"/>
+      <c r="BE32" s="26"/>
+      <c r="BF32" s="27"/>
+      <c r="BG32" s="27"/>
+      <c r="BH32" s="27"/>
+      <c r="BI32" s="27"/>
+      <c r="BJ32" s="27"/>
+      <c r="BK32" s="26"/>
+      <c r="BL32" s="26"/>
+      <c r="BM32" s="26"/>
+      <c r="BN32" s="26"/>
+      <c r="BO32" s="28"/>
+    </row>
+    <row r="33" spans="1:67" s="87" customFormat="1" ht="14.35">
+      <c r="B33" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="34">
+        <v>43784</v>
+      </c>
+      <c r="D33" s="34">
+        <v>43800</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" ref="E33" si="4">NETWORKDAYS(C33,D33)</f>
+        <v>11</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="35">
+        <v>1</v>
+      </c>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="73"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27"/>
+      <c r="AN33" s="27"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="26"/>
+      <c r="BB33" s="26"/>
+      <c r="BC33" s="26"/>
+      <c r="BD33" s="26"/>
+      <c r="BE33" s="26"/>
+      <c r="BF33" s="27"/>
+      <c r="BG33" s="27"/>
+      <c r="BH33" s="27"/>
+      <c r="BI33" s="27"/>
+      <c r="BJ33" s="27"/>
+      <c r="BK33" s="26"/>
+      <c r="BL33" s="26"/>
+      <c r="BM33" s="26"/>
+      <c r="BN33" s="26"/>
+      <c r="BO33" s="28"/>
+    </row>
+    <row r="34" spans="1:67" ht="12.7">
       <c r="A34" s="46"/>
     </row>
-    <row r="35" spans="1:1" ht="12.7">
+    <row r="35" spans="1:67" ht="12.7">
       <c r="A35" s="46"/>
     </row>
-    <row r="36" spans="1:1" ht="12.7">
+    <row r="36" spans="1:67" ht="12.7">
       <c r="A36" s="46"/>
     </row>
-    <row r="37" spans="1:1" ht="12.7">
+    <row r="37" spans="1:67" ht="12.7">
       <c r="A37" s="46"/>
     </row>
-    <row r="38" spans="1:1" ht="12.7">
+    <row r="38" spans="1:67" ht="12.7">
       <c r="A38" s="46"/>
     </row>
-    <row r="39" spans="1:1" ht="12.7">
+    <row r="39" spans="1:67" ht="12.7">
       <c r="A39" s="46"/>
     </row>
-    <row r="40" spans="1:1" ht="12.7">
+    <row r="40" spans="1:67" ht="12.7">
       <c r="A40" s="46"/>
     </row>
-    <row r="41" spans="1:1" ht="12.7">
+    <row r="41" spans="1:67" ht="12.7">
       <c r="A41" s="46"/>
     </row>
-    <row r="42" spans="1:1" ht="12.7">
+    <row r="42" spans="1:67" ht="12.7">
       <c r="A42" s="46"/>
     </row>
-    <row r="43" spans="1:1" ht="12.7">
+    <row r="43" spans="1:67" ht="12.7">
       <c r="A43" s="46"/>
     </row>
-    <row r="44" spans="1:1" ht="12.7">
+    <row r="44" spans="1:67" ht="12.7">
       <c r="A44" s="46"/>
     </row>
-    <row r="45" spans="1:1" ht="12.7">
+    <row r="45" spans="1:67" ht="12.7">
       <c r="A45" s="46"/>
     </row>
-    <row r="46" spans="1:1" ht="12.7">
+    <row r="46" spans="1:67" ht="12.7">
       <c r="A46" s="46"/>
     </row>
-    <row r="47" spans="1:1" ht="12.7">
+    <row r="47" spans="1:67" ht="12.7">
       <c r="A47" s="46"/>
     </row>
-    <row r="48" spans="1:1" ht="12.7">
+    <row r="48" spans="1:67" ht="12.7">
       <c r="A48" s="46"/>
     </row>
     <row r="49" spans="1:1" ht="12.7">
@@ -10149,69 +10307,69 @@
     </row>
     <row r="967" spans="1:67" ht="12.7">
       <c r="A967" s="46"/>
-      <c r="H967" s="4"/>
-      <c r="I967" s="4"/>
-      <c r="J967" s="4"/>
-      <c r="K967" s="4"/>
-      <c r="L967" s="4"/>
-      <c r="M967" s="4"/>
-      <c r="N967" s="4"/>
-      <c r="O967" s="4"/>
-      <c r="P967" s="4"/>
-      <c r="Q967" s="4"/>
-      <c r="R967" s="4"/>
-      <c r="S967" s="4"/>
-      <c r="T967" s="4"/>
-      <c r="U967" s="4"/>
-      <c r="V967" s="4"/>
-      <c r="W967" s="4"/>
-      <c r="X967" s="4"/>
-      <c r="Y967" s="4"/>
-      <c r="Z967" s="4"/>
-      <c r="AA967" s="4"/>
-      <c r="AB967" s="4"/>
-      <c r="AC967" s="4"/>
-      <c r="AD967" s="4"/>
-      <c r="AE967" s="4"/>
-      <c r="AF967" s="4"/>
-      <c r="AG967" s="4"/>
-      <c r="AH967" s="4"/>
-      <c r="AI967" s="4"/>
-      <c r="AJ967" s="4"/>
-      <c r="AK967" s="4"/>
-      <c r="AL967" s="4"/>
-      <c r="AM967" s="4"/>
-      <c r="AN967" s="4"/>
-      <c r="AO967" s="4"/>
-      <c r="AP967" s="4"/>
-      <c r="AQ967" s="4"/>
-      <c r="AR967" s="4"/>
-      <c r="AS967" s="4"/>
-      <c r="AT967" s="4"/>
-      <c r="AU967" s="4"/>
-      <c r="AV967" s="4"/>
-      <c r="AW967" s="4"/>
-      <c r="AX967" s="4"/>
-      <c r="AY967" s="4"/>
-      <c r="AZ967" s="4"/>
-      <c r="BA967" s="4"/>
-      <c r="BB967" s="4"/>
-      <c r="BC967" s="4"/>
-      <c r="BD967" s="4"/>
-      <c r="BE967" s="4"/>
-      <c r="BF967" s="4"/>
-      <c r="BG967" s="4"/>
-      <c r="BH967" s="4"/>
-      <c r="BI967" s="4"/>
-      <c r="BJ967" s="4"/>
-      <c r="BK967" s="4"/>
-      <c r="BL967" s="4"/>
-      <c r="BM967" s="4"/>
-      <c r="BN967" s="4"/>
-      <c r="BO967" s="4"/>
     </row>
     <row r="968" spans="1:67" ht="12.7">
       <c r="A968" s="46"/>
+      <c r="H968" s="4"/>
+      <c r="I968" s="4"/>
+      <c r="J968" s="4"/>
+      <c r="K968" s="4"/>
+      <c r="L968" s="4"/>
+      <c r="M968" s="4"/>
+      <c r="N968" s="4"/>
+      <c r="O968" s="4"/>
+      <c r="P968" s="4"/>
+      <c r="Q968" s="4"/>
+      <c r="R968" s="4"/>
+      <c r="S968" s="4"/>
+      <c r="T968" s="4"/>
+      <c r="U968" s="4"/>
+      <c r="V968" s="4"/>
+      <c r="W968" s="4"/>
+      <c r="X968" s="4"/>
+      <c r="Y968" s="4"/>
+      <c r="Z968" s="4"/>
+      <c r="AA968" s="4"/>
+      <c r="AB968" s="4"/>
+      <c r="AC968" s="4"/>
+      <c r="AD968" s="4"/>
+      <c r="AE968" s="4"/>
+      <c r="AF968" s="4"/>
+      <c r="AG968" s="4"/>
+      <c r="AH968" s="4"/>
+      <c r="AI968" s="4"/>
+      <c r="AJ968" s="4"/>
+      <c r="AK968" s="4"/>
+      <c r="AL968" s="4"/>
+      <c r="AM968" s="4"/>
+      <c r="AN968" s="4"/>
+      <c r="AO968" s="4"/>
+      <c r="AP968" s="4"/>
+      <c r="AQ968" s="4"/>
+      <c r="AR968" s="4"/>
+      <c r="AS968" s="4"/>
+      <c r="AT968" s="4"/>
+      <c r="AU968" s="4"/>
+      <c r="AV968" s="4"/>
+      <c r="AW968" s="4"/>
+      <c r="AX968" s="4"/>
+      <c r="AY968" s="4"/>
+      <c r="AZ968" s="4"/>
+      <c r="BA968" s="4"/>
+      <c r="BB968" s="4"/>
+      <c r="BC968" s="4"/>
+      <c r="BD968" s="4"/>
+      <c r="BE968" s="4"/>
+      <c r="BF968" s="4"/>
+      <c r="BG968" s="4"/>
+      <c r="BH968" s="4"/>
+      <c r="BI968" s="4"/>
+      <c r="BJ968" s="4"/>
+      <c r="BK968" s="4"/>
+      <c r="BL968" s="4"/>
+      <c r="BM968" s="4"/>
+      <c r="BN968" s="4"/>
+      <c r="BO968" s="4"/>
     </row>
     <row r="969" spans="1:67" ht="12.7">
       <c r="A969" s="46"/>
@@ -10277,17 +10435,20 @@
       <c r="A989" s="46"/>
     </row>
     <row r="990" spans="1:7" ht="12.7">
-      <c r="A990" s="66"/>
-      <c r="B990" s="4"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
+      <c r="A990" s="46"/>
+    </row>
+    <row r="991" spans="1:7" ht="12.7">
+      <c r="A991" s="66"/>
+      <c r="B991" s="4"/>
+      <c r="C991" s="4"/>
+      <c r="D991" s="4"/>
+      <c r="E991" s="4"/>
+      <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C8:G8"/>
@@ -10312,8 +10473,8 @@
     <mergeCell ref="AB6:AF6"/>
     <mergeCell ref="R6:V6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G22:G25 G16:G20 G9:G14">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="G16:G20 G9:G14 G22:G26">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -10322,8 +10483,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G31">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G28:G33">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
